--- a/export_excel_parts/pds.xlsx
+++ b/export_excel_parts/pds.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Xampp\htdocs\hrsystem2\export_excel_parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1FB37-B679-4ED3-91B3-B68B6AD8EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E9F079-3E9F-4DEB-B92B-4828E529F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -3478,22 +3478,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3514,14 +3498,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3622,37 +3598,113 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3663,390 +3715,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -4056,6 +3735,12 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4068,6 +3753,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4091,6 +3790,14 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4106,6 +3813,9 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -4118,26 +3828,636 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="47" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4167,18 +4487,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4206,10 +4517,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4222,225 +4529,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4454,60 +4551,47 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4527,11 +4611,17 @@
     <xf numFmtId="49" fontId="26" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4554,6 +4644,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4578,145 +4680,181 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4724,235 +4862,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4971,28 +4881,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -5002,124 +4920,128 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5127,180 +5049,258 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -7185,8 +7185,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7211,20 +7211,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="391"/>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="392"/>
-      <c r="M1" s="392"/>
-      <c r="N1" s="393"/>
+      <c r="A1" s="442"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
+      <c r="N1" s="444"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="151"/>
@@ -7254,58 +7254,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="396"/>
+      <c r="B3" s="446"/>
+      <c r="C3" s="446"/>
+      <c r="D3" s="446"/>
+      <c r="E3" s="446"/>
+      <c r="F3" s="446"/>
+      <c r="G3" s="446"/>
+      <c r="H3" s="446"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="446"/>
+      <c r="L3" s="446"/>
+      <c r="M3" s="446"/>
+      <c r="N3" s="447"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="363" t="s">
+      <c r="A4" s="482" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="364"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="364"/>
-      <c r="E4" s="364"/>
-      <c r="F4" s="364"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="365"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="483"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="483"/>
+      <c r="L4" s="483"/>
+      <c r="M4" s="483"/>
+      <c r="N4" s="484"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="456" t="s">
+      <c r="A5" s="355" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="457"/>
-      <c r="C5" s="457"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="457"/>
-      <c r="F5" s="457"/>
-      <c r="G5" s="457"/>
-      <c r="H5" s="457"/>
-      <c r="I5" s="457"/>
-      <c r="J5" s="457"/>
-      <c r="K5" s="457"/>
-      <c r="L5" s="457"/>
-      <c r="M5" s="457"/>
-      <c r="N5" s="458"/>
+      <c r="B5" s="356"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="356"/>
+      <c r="I5" s="356"/>
+      <c r="J5" s="356"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="356"/>
+      <c r="M5" s="356"/>
+      <c r="N5" s="357"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="189"/>
@@ -7339,11 +7339,11 @@
       <c r="K7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="451" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="401"/>
-      <c r="N7" s="402"/>
+      <c r="M7" s="452"/>
+      <c r="N7" s="453"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="155"/>
@@ -7362,52 +7362,52 @@
       <c r="N8" s="147"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="397" t="s">
+      <c r="A9" s="448" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="398"/>
-      <c r="C9" s="398"/>
-      <c r="D9" s="398"/>
-      <c r="E9" s="398"/>
-      <c r="F9" s="398"/>
-      <c r="G9" s="398"/>
-      <c r="H9" s="398"/>
-      <c r="I9" s="398"/>
-      <c r="J9" s="398"/>
-      <c r="K9" s="398"/>
-      <c r="L9" s="398"/>
-      <c r="M9" s="398"/>
-      <c r="N9" s="399"/>
+      <c r="B9" s="449"/>
+      <c r="C9" s="449"/>
+      <c r="D9" s="449"/>
+      <c r="E9" s="449"/>
+      <c r="F9" s="449"/>
+      <c r="G9" s="449"/>
+      <c r="H9" s="449"/>
+      <c r="I9" s="449"/>
+      <c r="J9" s="449"/>
+      <c r="K9" s="449"/>
+      <c r="L9" s="449"/>
+      <c r="M9" s="449"/>
+      <c r="N9" s="450"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="415" t="s">
+      <c r="B10" s="469" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="416"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="411"/>
-      <c r="J10" s="411"/>
-      <c r="K10" s="411"/>
-      <c r="L10" s="411"/>
-      <c r="M10" s="411"/>
-      <c r="N10" s="412"/>
+      <c r="C10" s="385"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="462"/>
+      <c r="L10" s="462"/>
+      <c r="M10" s="462"/>
+      <c r="N10" s="463"/>
       <c r="P10" s="76" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="156"/>
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="418"/>
+      <c r="C11" s="471"/>
       <c r="D11" s="197"/>
       <c r="E11" s="198"/>
       <c r="F11" s="198"/>
@@ -7416,11 +7416,11 @@
       <c r="I11" s="198"/>
       <c r="J11" s="198"/>
       <c r="K11" s="198"/>
-      <c r="L11" s="478" t="s">
+      <c r="L11" s="386" t="s">
         <v>407</v>
       </c>
-      <c r="M11" s="479"/>
-      <c r="N11" s="480"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="388"/>
       <c r="P11" s="77" t="s">
         <v>52</v>
       </c>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="157"/>
-      <c r="B12" s="419" t="s">
+      <c r="B12" s="472" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="420"/>
+      <c r="C12" s="473"/>
       <c r="D12" s="193"/>
       <c r="E12" s="194"/>
       <c r="F12" s="194"/>
@@ -7456,23 +7456,23 @@
       <c r="A13" s="235" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="477" t="s">
+      <c r="B13" s="384" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="416"/>
-      <c r="D13" s="441"/>
-      <c r="E13" s="441"/>
-      <c r="F13" s="442"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="390"/>
       <c r="G13" s="83" t="s">
         <v>371</v>
       </c>
       <c r="H13" s="131"/>
       <c r="I13" s="131"/>
-      <c r="J13" s="448"/>
-      <c r="K13" s="449"/>
-      <c r="L13" s="449"/>
-      <c r="M13" s="449"/>
-      <c r="N13" s="450"/>
+      <c r="J13" s="396"/>
+      <c r="K13" s="397"/>
+      <c r="L13" s="397"/>
+      <c r="M13" s="397"/>
+      <c r="N13" s="398"/>
       <c r="P13" s="77" t="s">
         <v>53</v>
       </c>
@@ -7484,9 +7484,9 @@
       <c r="A14" s="231"/>
       <c r="B14" s="229"/>
       <c r="C14" s="229"/>
-      <c r="D14" s="297"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="291"/>
+      <c r="D14" s="291"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
       <c r="G14" s="139"/>
       <c r="H14" s="230"/>
       <c r="I14" s="230"/>
@@ -7506,23 +7506,23 @@
         <v>12</v>
       </c>
       <c r="C15" s="78"/>
-      <c r="D15" s="453" t="s">
+      <c r="D15" s="418" t="s">
         <v>401</v>
       </c>
-      <c r="E15" s="453"/>
-      <c r="F15" s="454"/>
-      <c r="G15" s="446" t="s">
+      <c r="E15" s="418"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="394" t="s">
         <v>385</v>
       </c>
-      <c r="H15" s="447"/>
-      <c r="I15" s="447"/>
+      <c r="H15" s="395"/>
+      <c r="I15" s="395"/>
       <c r="J15" s="132"/>
       <c r="K15" s="133"/>
-      <c r="L15" s="451" t="s">
+      <c r="L15" s="402" t="s">
         <v>392</v>
       </c>
-      <c r="M15" s="451"/>
-      <c r="N15" s="452"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="403"/>
       <c r="P15" s="77" t="s">
         <v>118</v>
       </c>
@@ -7538,18 +7538,18 @@
         <v>5</v>
       </c>
       <c r="C16" s="79"/>
-      <c r="D16" s="845"/>
-      <c r="E16" s="845"/>
-      <c r="F16" s="846"/>
-      <c r="G16" s="443" t="s">
+      <c r="D16" s="464"/>
+      <c r="E16" s="464"/>
+      <c r="F16" s="465"/>
+      <c r="G16" s="391" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="444"/>
-      <c r="I16" s="445"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="393"/>
       <c r="J16" s="148"/>
-      <c r="K16" s="455"/>
-      <c r="L16" s="455"/>
-      <c r="M16" s="455"/>
+      <c r="K16" s="422"/>
+      <c r="L16" s="422"/>
+      <c r="M16" s="422"/>
       <c r="N16" s="147"/>
       <c r="P16" s="77" t="s">
         <v>119</v>
@@ -7559,49 +7559,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="466">
+      <c r="A17" s="371">
         <v>6</v>
       </c>
-      <c r="B17" s="473" t="s">
+      <c r="B17" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="474"/>
-      <c r="D17" s="847"/>
-      <c r="E17" s="847"/>
-      <c r="F17" s="847"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="378"/>
       <c r="G17" s="84" t="s">
         <v>372</v>
       </c>
       <c r="H17" s="85"/>
-      <c r="I17" s="381"/>
-      <c r="J17" s="382"/>
-      <c r="K17" s="382"/>
-      <c r="L17" s="382"/>
-      <c r="M17" s="382"/>
-      <c r="N17" s="383"/>
+      <c r="I17" s="414"/>
+      <c r="J17" s="404"/>
+      <c r="K17" s="404"/>
+      <c r="L17" s="404"/>
+      <c r="M17" s="404"/>
+      <c r="N17" s="405"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="467"/>
-      <c r="B18" s="475"/>
-      <c r="C18" s="476"/>
-      <c r="D18" s="848"/>
-      <c r="E18" s="848"/>
-      <c r="F18" s="848"/>
+      <c r="A18" s="372"/>
+      <c r="B18" s="382"/>
+      <c r="C18" s="383"/>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="379"/>
       <c r="G18" s="141"/>
       <c r="H18" s="86"/>
-      <c r="I18" s="828" t="s">
+      <c r="I18" s="409" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="829"/>
-      <c r="K18" s="829"/>
-      <c r="L18" s="829" t="s">
+      <c r="J18" s="358"/>
+      <c r="K18" s="358"/>
+      <c r="L18" s="358" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="829"/>
-      <c r="N18" s="830"/>
+      <c r="M18" s="358"/>
+      <c r="N18" s="359"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -7615,99 +7615,99 @@
       <c r="F19" s="122"/>
       <c r="G19" s="141"/>
       <c r="H19" s="86"/>
-      <c r="I19" s="459"/>
-      <c r="J19" s="460"/>
-      <c r="K19" s="460"/>
-      <c r="L19" s="463"/>
-      <c r="M19" s="460"/>
-      <c r="N19" s="464"/>
+      <c r="I19" s="360"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="361"/>
+      <c r="L19" s="364"/>
+      <c r="M19" s="361"/>
+      <c r="N19" s="365"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="467"/>
+      <c r="A20" s="372"/>
       <c r="B20" s="218"/>
       <c r="C20" s="121"/>
       <c r="D20" s="122"/>
-      <c r="E20" s="848"/>
-      <c r="F20" s="848"/>
+      <c r="E20" s="379"/>
+      <c r="F20" s="379"/>
       <c r="G20" s="139"/>
       <c r="H20" s="146"/>
-      <c r="I20" s="461"/>
-      <c r="J20" s="462"/>
-      <c r="K20" s="462"/>
-      <c r="L20" s="462"/>
-      <c r="M20" s="462"/>
-      <c r="N20" s="465"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="363"/>
+      <c r="L20" s="363"/>
+      <c r="M20" s="363"/>
+      <c r="N20" s="366"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="468"/>
+      <c r="A21" s="373"/>
       <c r="B21" s="219"/>
       <c r="C21" s="119"/>
       <c r="D21" s="123"/>
-      <c r="E21" s="849"/>
-      <c r="F21" s="849"/>
+      <c r="E21" s="468"/>
+      <c r="F21" s="468"/>
       <c r="G21" s="139"/>
       <c r="H21" s="146"/>
-      <c r="J21" s="831" t="s">
+      <c r="J21" s="338" t="s">
         <v>402</v>
       </c>
-      <c r="K21" s="317"/>
-      <c r="L21" s="832" t="s">
+      <c r="K21" s="311"/>
+      <c r="L21" s="505" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="833"/>
-      <c r="N21" s="834"/>
+      <c r="M21" s="506"/>
+      <c r="N21" s="507"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="471" t="s">
+      <c r="A22" s="376" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="426" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="427"/>
-      <c r="D22" s="850"/>
-      <c r="E22" s="850"/>
-      <c r="F22" s="850"/>
+      <c r="D22" s="425"/>
+      <c r="E22" s="425"/>
+      <c r="F22" s="425"/>
       <c r="G22" s="139"/>
       <c r="H22" s="146"/>
-      <c r="I22" s="381"/>
-      <c r="J22" s="382"/>
-      <c r="K22" s="382"/>
-      <c r="L22" s="382"/>
-      <c r="M22" s="382"/>
-      <c r="N22" s="383"/>
+      <c r="I22" s="414"/>
+      <c r="J22" s="404"/>
+      <c r="K22" s="404"/>
+      <c r="L22" s="404"/>
+      <c r="M22" s="404"/>
+      <c r="N22" s="405"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="472"/>
+      <c r="A23" s="377"/>
       <c r="B23" s="428"/>
       <c r="C23" s="429"/>
-      <c r="D23" s="851"/>
-      <c r="E23" s="851"/>
-      <c r="F23" s="851"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
       <c r="G23" s="139"/>
       <c r="H23" s="146"/>
-      <c r="I23" s="835" t="s">
+      <c r="I23" s="510" t="s">
         <v>403</v>
       </c>
-      <c r="J23" s="836"/>
-      <c r="K23" s="836"/>
-      <c r="L23" s="837" t="s">
+      <c r="J23" s="511"/>
+      <c r="K23" s="511"/>
+      <c r="L23" s="508" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="837"/>
-      <c r="N23" s="838"/>
+      <c r="M23" s="508"/>
+      <c r="N23" s="509"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -7719,160 +7719,160 @@
       <c r="B24" s="430" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="422"/>
-      <c r="D24" s="852"/>
-      <c r="E24" s="853"/>
-      <c r="F24" s="854"/>
-      <c r="G24" s="386" t="s">
+      <c r="C24" s="431"/>
+      <c r="D24" s="406"/>
+      <c r="E24" s="407"/>
+      <c r="F24" s="408"/>
+      <c r="G24" s="474" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="374"/>
-      <c r="I24" s="823"/>
-      <c r="J24" s="824"/>
-      <c r="K24" s="824"/>
-      <c r="L24" s="824"/>
-      <c r="M24" s="824"/>
-      <c r="N24" s="825"/>
+      <c r="H24" s="475"/>
+      <c r="I24" s="415"/>
+      <c r="J24" s="416"/>
+      <c r="K24" s="416"/>
+      <c r="L24" s="416"/>
+      <c r="M24" s="416"/>
+      <c r="N24" s="417"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="424" t="s">
+      <c r="A25" s="367" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="426" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="427"/>
-      <c r="D25" s="855"/>
-      <c r="E25" s="855"/>
-      <c r="F25" s="855"/>
+      <c r="D25" s="369"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="369"/>
       <c r="G25" s="92" t="s">
         <v>373</v>
       </c>
       <c r="H25" s="80"/>
-      <c r="I25" s="390"/>
-      <c r="J25" s="384"/>
-      <c r="K25" s="384"/>
-      <c r="L25" s="384"/>
-      <c r="M25" s="384"/>
-      <c r="N25" s="385"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="421"/>
+      <c r="K25" s="421"/>
+      <c r="L25" s="421"/>
+      <c r="M25" s="421"/>
+      <c r="N25" s="514"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="425"/>
+      <c r="A26" s="368"/>
       <c r="B26" s="428"/>
       <c r="C26" s="429"/>
-      <c r="D26" s="851"/>
-      <c r="E26" s="851"/>
-      <c r="F26" s="851"/>
+      <c r="D26" s="370"/>
+      <c r="E26" s="370"/>
+      <c r="F26" s="370"/>
       <c r="G26" s="139"/>
       <c r="H26" s="146"/>
-      <c r="I26" s="828" t="s">
+      <c r="I26" s="409" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="829"/>
-      <c r="K26" s="829"/>
-      <c r="L26" s="829" t="s">
+      <c r="J26" s="358"/>
+      <c r="K26" s="358"/>
+      <c r="L26" s="358" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="829"/>
-      <c r="N26" s="830"/>
+      <c r="M26" s="358"/>
+      <c r="N26" s="359"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="424" t="s">
+      <c r="A27" s="367" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="426" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="427"/>
-      <c r="D27" s="855"/>
-      <c r="E27" s="855"/>
-      <c r="F27" s="855"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
       <c r="G27" s="141"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="390"/>
-      <c r="J27" s="384"/>
-      <c r="K27" s="384"/>
-      <c r="L27" s="384"/>
-      <c r="M27" s="384"/>
-      <c r="N27" s="385"/>
+      <c r="I27" s="420"/>
+      <c r="J27" s="421"/>
+      <c r="K27" s="421"/>
+      <c r="L27" s="421"/>
+      <c r="M27" s="421"/>
+      <c r="N27" s="514"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="425"/>
+      <c r="A28" s="368"/>
       <c r="B28" s="428"/>
       <c r="C28" s="429"/>
-      <c r="D28" s="851"/>
-      <c r="E28" s="851"/>
-      <c r="F28" s="851"/>
+      <c r="D28" s="370"/>
+      <c r="E28" s="370"/>
+      <c r="F28" s="370"/>
       <c r="G28" s="141"/>
       <c r="H28" s="86"/>
-      <c r="I28" s="839" t="s">
+      <c r="I28" s="410" t="s">
         <v>404</v>
       </c>
-      <c r="J28" s="840"/>
-      <c r="K28" s="840"/>
-      <c r="L28" s="841" t="s">
+      <c r="J28" s="411"/>
+      <c r="K28" s="411"/>
+      <c r="L28" s="412" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="840"/>
-      <c r="N28" s="842"/>
+      <c r="M28" s="411"/>
+      <c r="N28" s="413"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="424" t="s">
+      <c r="A29" s="367" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="426" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="427"/>
-      <c r="D29" s="855"/>
-      <c r="E29" s="855"/>
-      <c r="F29" s="855"/>
+      <c r="D29" s="369"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="369"/>
       <c r="G29" s="141"/>
       <c r="H29" s="150"/>
       <c r="I29" s="143"/>
       <c r="J29" s="144"/>
       <c r="K29" s="144"/>
-      <c r="L29" s="431"/>
-      <c r="M29" s="431"/>
-      <c r="N29" s="432"/>
+      <c r="L29" s="432"/>
+      <c r="M29" s="432"/>
+      <c r="N29" s="433"/>
       <c r="Q29" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="425"/>
+      <c r="A30" s="368"/>
       <c r="B30" s="428"/>
       <c r="C30" s="429"/>
-      <c r="D30" s="851"/>
-      <c r="E30" s="851"/>
-      <c r="F30" s="851"/>
+      <c r="D30" s="370"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="370"/>
       <c r="G30" s="141"/>
       <c r="H30" s="150"/>
-      <c r="I30" s="843" t="s">
+      <c r="I30" s="512" t="s">
         <v>403</v>
       </c>
-      <c r="J30" s="843"/>
-      <c r="K30" s="843"/>
-      <c r="L30" s="843" t="s">
+      <c r="J30" s="512"/>
+      <c r="K30" s="512"/>
+      <c r="L30" s="512" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="843"/>
-      <c r="N30" s="844"/>
+      <c r="M30" s="512"/>
+      <c r="N30" s="513"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -7885,19 +7885,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="79"/>
-      <c r="D31" s="856"/>
-      <c r="E31" s="857"/>
-      <c r="F31" s="858"/>
-      <c r="G31" s="386" t="s">
+      <c r="D31" s="399"/>
+      <c r="E31" s="400"/>
+      <c r="F31" s="401"/>
+      <c r="G31" s="474" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="374"/>
-      <c r="I31" s="826"/>
-      <c r="J31" s="827"/>
-      <c r="K31" s="827"/>
-      <c r="L31" s="827"/>
-      <c r="M31" s="827"/>
-      <c r="N31" s="827"/>
+      <c r="H31" s="475"/>
+      <c r="I31" s="423"/>
+      <c r="J31" s="424"/>
+      <c r="K31" s="424"/>
+      <c r="L31" s="424"/>
+      <c r="M31" s="424"/>
+      <c r="N31" s="424"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -7910,42 +7910,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="79"/>
-      <c r="D32" s="853"/>
-      <c r="E32" s="853"/>
-      <c r="F32" s="853"/>
+      <c r="D32" s="407"/>
+      <c r="E32" s="407"/>
+      <c r="F32" s="407"/>
       <c r="G32" s="138" t="s">
         <v>374</v>
       </c>
       <c r="H32" s="142"/>
-      <c r="I32" s="387"/>
-      <c r="J32" s="388"/>
-      <c r="K32" s="388"/>
-      <c r="L32" s="388"/>
-      <c r="M32" s="388"/>
-      <c r="N32" s="389"/>
+      <c r="I32" s="515"/>
+      <c r="J32" s="516"/>
+      <c r="K32" s="516"/>
+      <c r="L32" s="516"/>
+      <c r="M32" s="516"/>
+      <c r="N32" s="517"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="421" t="s">
+      <c r="A33" s="477" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="422"/>
-      <c r="C33" s="423"/>
-      <c r="D33" s="853"/>
-      <c r="E33" s="853"/>
-      <c r="F33" s="853"/>
+      <c r="B33" s="431"/>
+      <c r="C33" s="478"/>
+      <c r="D33" s="407"/>
+      <c r="E33" s="407"/>
+      <c r="F33" s="407"/>
       <c r="G33" s="196" t="s">
         <v>375</v>
       </c>
       <c r="H33" s="140"/>
-      <c r="I33" s="433"/>
-      <c r="J33" s="434"/>
-      <c r="K33" s="434"/>
-      <c r="L33" s="434"/>
-      <c r="M33" s="434"/>
-      <c r="N33" s="435"/>
+      <c r="I33" s="434"/>
+      <c r="J33" s="435"/>
+      <c r="K33" s="435"/>
+      <c r="L33" s="435"/>
+      <c r="M33" s="435"/>
+      <c r="N33" s="436"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -7956,19 +7956,19 @@
       </c>
       <c r="B34" s="220"/>
       <c r="C34" s="145"/>
-      <c r="D34" s="855"/>
-      <c r="E34" s="855"/>
-      <c r="F34" s="855"/>
+      <c r="D34" s="369"/>
+      <c r="E34" s="369"/>
+      <c r="F34" s="369"/>
       <c r="G34" s="92" t="s">
         <v>376</v>
       </c>
       <c r="H34" s="80"/>
-      <c r="I34" s="436"/>
-      <c r="J34" s="437"/>
-      <c r="K34" s="437"/>
-      <c r="L34" s="437"/>
-      <c r="M34" s="437"/>
-      <c r="N34" s="438"/>
+      <c r="I34" s="437"/>
+      <c r="J34" s="438"/>
+      <c r="K34" s="438"/>
+      <c r="L34" s="438"/>
+      <c r="M34" s="438"/>
+      <c r="N34" s="439"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -8002,21 +8002,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="224"/>
-      <c r="D36" s="469"/>
-      <c r="E36" s="469"/>
-      <c r="F36" s="469"/>
-      <c r="G36" s="469"/>
-      <c r="H36" s="469"/>
-      <c r="I36" s="439" t="s">
+      <c r="D36" s="374"/>
+      <c r="E36" s="374"/>
+      <c r="F36" s="374"/>
+      <c r="G36" s="374"/>
+      <c r="H36" s="374"/>
+      <c r="I36" s="440" t="s">
         <v>378</v>
       </c>
-      <c r="J36" s="439"/>
-      <c r="K36" s="439"/>
-      <c r="L36" s="440"/>
-      <c r="M36" s="405" t="s">
+      <c r="J36" s="440"/>
+      <c r="K36" s="440"/>
+      <c r="L36" s="441"/>
+      <c r="M36" s="456" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="406"/>
+      <c r="N36" s="457"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -8027,19 +8027,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="211"/>
-      <c r="D37" s="338"/>
-      <c r="E37" s="339"/>
-      <c r="F37" s="340"/>
-      <c r="G37" s="353" t="s">
+      <c r="D37" s="479"/>
+      <c r="E37" s="480"/>
+      <c r="F37" s="481"/>
+      <c r="G37" s="476" t="s">
         <v>405</v>
       </c>
-      <c r="H37" s="353"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="337"/>
-      <c r="M37" s="334"/>
-      <c r="N37" s="335"/>
+      <c r="H37" s="476"/>
+      <c r="I37" s="344"/>
+      <c r="J37" s="344"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="345"/>
+      <c r="M37" s="349"/>
+      <c r="N37" s="350"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -8050,17 +8050,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="212"/>
-      <c r="D38" s="338"/>
-      <c r="E38" s="339"/>
-      <c r="F38" s="339"/>
-      <c r="G38" s="339"/>
-      <c r="H38" s="340"/>
-      <c r="I38" s="336"/>
-      <c r="J38" s="336"/>
-      <c r="K38" s="336"/>
-      <c r="L38" s="337"/>
-      <c r="M38" s="334"/>
-      <c r="N38" s="335"/>
+      <c r="D38" s="479"/>
+      <c r="E38" s="480"/>
+      <c r="F38" s="480"/>
+      <c r="G38" s="480"/>
+      <c r="H38" s="481"/>
+      <c r="I38" s="344"/>
+      <c r="J38" s="344"/>
+      <c r="K38" s="344"/>
+      <c r="L38" s="345"/>
+      <c r="M38" s="349"/>
+      <c r="N38" s="350"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -8071,17 +8071,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="79"/>
-      <c r="D39" s="470"/>
-      <c r="E39" s="470"/>
-      <c r="F39" s="470"/>
-      <c r="G39" s="470"/>
-      <c r="H39" s="470"/>
-      <c r="I39" s="336"/>
-      <c r="J39" s="336"/>
-      <c r="K39" s="336"/>
-      <c r="L39" s="337"/>
-      <c r="M39" s="334"/>
-      <c r="N39" s="335"/>
+      <c r="D39" s="375"/>
+      <c r="E39" s="375"/>
+      <c r="F39" s="375"/>
+      <c r="G39" s="375"/>
+      <c r="H39" s="375"/>
+      <c r="I39" s="344"/>
+      <c r="J39" s="344"/>
+      <c r="K39" s="344"/>
+      <c r="L39" s="345"/>
+      <c r="M39" s="349"/>
+      <c r="N39" s="350"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -8092,17 +8092,17 @@
         <v>367</v>
       </c>
       <c r="C40" s="79"/>
-      <c r="D40" s="470"/>
-      <c r="E40" s="470"/>
-      <c r="F40" s="470"/>
-      <c r="G40" s="470"/>
-      <c r="H40" s="470"/>
-      <c r="I40" s="336"/>
-      <c r="J40" s="336"/>
-      <c r="K40" s="336"/>
-      <c r="L40" s="337"/>
-      <c r="M40" s="334"/>
-      <c r="N40" s="335"/>
+      <c r="D40" s="375"/>
+      <c r="E40" s="375"/>
+      <c r="F40" s="375"/>
+      <c r="G40" s="375"/>
+      <c r="H40" s="375"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="345"/>
+      <c r="M40" s="349"/>
+      <c r="N40" s="350"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -8113,17 +8113,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="79"/>
-      <c r="D41" s="470"/>
-      <c r="E41" s="470"/>
-      <c r="F41" s="470"/>
-      <c r="G41" s="470"/>
-      <c r="H41" s="470"/>
-      <c r="I41" s="336"/>
-      <c r="J41" s="336"/>
-      <c r="K41" s="336"/>
-      <c r="L41" s="337"/>
-      <c r="M41" s="334"/>
-      <c r="N41" s="335"/>
+      <c r="D41" s="375"/>
+      <c r="E41" s="375"/>
+      <c r="F41" s="375"/>
+      <c r="G41" s="375"/>
+      <c r="H41" s="375"/>
+      <c r="I41" s="344"/>
+      <c r="J41" s="344"/>
+      <c r="K41" s="344"/>
+      <c r="L41" s="345"/>
+      <c r="M41" s="349"/>
+      <c r="N41" s="350"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -8134,17 +8134,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="120"/>
-      <c r="D42" s="470"/>
-      <c r="E42" s="470"/>
-      <c r="F42" s="470"/>
-      <c r="G42" s="470"/>
-      <c r="H42" s="470"/>
-      <c r="I42" s="336"/>
-      <c r="J42" s="336"/>
-      <c r="K42" s="336"/>
-      <c r="L42" s="337"/>
-      <c r="M42" s="334"/>
-      <c r="N42" s="335"/>
+      <c r="D42" s="375"/>
+      <c r="E42" s="375"/>
+      <c r="F42" s="375"/>
+      <c r="G42" s="375"/>
+      <c r="H42" s="375"/>
+      <c r="I42" s="344"/>
+      <c r="J42" s="344"/>
+      <c r="K42" s="344"/>
+      <c r="L42" s="345"/>
+      <c r="M42" s="349"/>
+      <c r="N42" s="350"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -8157,17 +8157,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="85"/>
-      <c r="D43" s="351"/>
-      <c r="E43" s="351"/>
-      <c r="F43" s="351"/>
-      <c r="G43" s="351"/>
-      <c r="H43" s="351"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="336"/>
-      <c r="K43" s="336"/>
-      <c r="L43" s="337"/>
-      <c r="M43" s="334"/>
-      <c r="N43" s="335"/>
+      <c r="D43" s="535"/>
+      <c r="E43" s="535"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="535"/>
+      <c r="I43" s="344"/>
+      <c r="J43" s="344"/>
+      <c r="K43" s="344"/>
+      <c r="L43" s="345"/>
+      <c r="M43" s="349"/>
+      <c r="N43" s="350"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -8178,19 +8178,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="213"/>
-      <c r="D44" s="338"/>
-      <c r="E44" s="339"/>
-      <c r="F44" s="340"/>
-      <c r="G44" s="353" t="s">
+      <c r="D44" s="479"/>
+      <c r="E44" s="480"/>
+      <c r="F44" s="481"/>
+      <c r="G44" s="476" t="s">
         <v>406</v>
       </c>
-      <c r="H44" s="353"/>
-      <c r="I44" s="336"/>
-      <c r="J44" s="336"/>
-      <c r="K44" s="336"/>
-      <c r="L44" s="337"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="335"/>
+      <c r="H44" s="476"/>
+      <c r="I44" s="344"/>
+      <c r="J44" s="344"/>
+      <c r="K44" s="344"/>
+      <c r="L44" s="345"/>
+      <c r="M44" s="349"/>
+      <c r="N44" s="350"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -8201,17 +8201,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="215"/>
-      <c r="D45" s="338"/>
-      <c r="E45" s="339"/>
-      <c r="F45" s="339"/>
-      <c r="G45" s="339"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="336"/>
-      <c r="K45" s="336"/>
-      <c r="L45" s="337"/>
-      <c r="M45" s="334"/>
-      <c r="N45" s="335"/>
+      <c r="D45" s="479"/>
+      <c r="E45" s="480"/>
+      <c r="F45" s="480"/>
+      <c r="G45" s="480"/>
+      <c r="H45" s="481"/>
+      <c r="I45" s="344"/>
+      <c r="J45" s="344"/>
+      <c r="K45" s="344"/>
+      <c r="L45" s="345"/>
+      <c r="M45" s="349"/>
+      <c r="N45" s="350"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -8224,17 +8224,17 @@
         <v>85</v>
       </c>
       <c r="C46" s="86"/>
-      <c r="D46" s="352"/>
-      <c r="E46" s="352"/>
-      <c r="F46" s="352"/>
-      <c r="G46" s="352"/>
-      <c r="H46" s="352"/>
-      <c r="I46" s="336"/>
-      <c r="J46" s="336"/>
-      <c r="K46" s="336"/>
-      <c r="L46" s="337"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="335"/>
+      <c r="D46" s="536"/>
+      <c r="E46" s="536"/>
+      <c r="F46" s="536"/>
+      <c r="G46" s="536"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="344"/>
+      <c r="J46" s="344"/>
+      <c r="K46" s="344"/>
+      <c r="L46" s="345"/>
+      <c r="M46" s="349"/>
+      <c r="N46" s="350"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -8245,17 +8245,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="213"/>
-      <c r="D47" s="352"/>
-      <c r="E47" s="352"/>
-      <c r="F47" s="352"/>
-      <c r="G47" s="352"/>
-      <c r="H47" s="352"/>
-      <c r="I47" s="336"/>
-      <c r="J47" s="336"/>
-      <c r="K47" s="336"/>
-      <c r="L47" s="337"/>
-      <c r="M47" s="334"/>
-      <c r="N47" s="335"/>
+      <c r="D47" s="536"/>
+      <c r="E47" s="536"/>
+      <c r="F47" s="536"/>
+      <c r="G47" s="536"/>
+      <c r="H47" s="536"/>
+      <c r="I47" s="344"/>
+      <c r="J47" s="344"/>
+      <c r="K47" s="344"/>
+      <c r="L47" s="345"/>
+      <c r="M47" s="349"/>
+      <c r="N47" s="350"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -8266,17 +8266,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="213"/>
-      <c r="D48" s="352"/>
-      <c r="E48" s="352"/>
-      <c r="F48" s="352"/>
-      <c r="G48" s="352"/>
-      <c r="H48" s="352"/>
-      <c r="I48" s="336"/>
-      <c r="J48" s="336"/>
-      <c r="K48" s="336"/>
-      <c r="L48" s="337"/>
-      <c r="M48" s="334"/>
-      <c r="N48" s="335"/>
+      <c r="D48" s="536"/>
+      <c r="E48" s="536"/>
+      <c r="F48" s="536"/>
+      <c r="G48" s="536"/>
+      <c r="H48" s="536"/>
+      <c r="I48" s="344"/>
+      <c r="J48" s="344"/>
+      <c r="K48" s="344"/>
+      <c r="L48" s="345"/>
+      <c r="M48" s="349"/>
+      <c r="N48" s="350"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -8287,19 +8287,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="214"/>
-      <c r="D49" s="483"/>
-      <c r="E49" s="483"/>
-      <c r="F49" s="483"/>
-      <c r="G49" s="483"/>
-      <c r="H49" s="483"/>
-      <c r="I49" s="481" t="s">
+      <c r="D49" s="348"/>
+      <c r="E49" s="348"/>
+      <c r="F49" s="348"/>
+      <c r="G49" s="348"/>
+      <c r="H49" s="348"/>
+      <c r="I49" s="346" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="481"/>
-      <c r="K49" s="481"/>
-      <c r="L49" s="481"/>
-      <c r="M49" s="481"/>
-      <c r="N49" s="482"/>
+      <c r="J49" s="346"/>
+      <c r="K49" s="346"/>
+      <c r="L49" s="346"/>
+      <c r="M49" s="346"/>
+      <c r="N49" s="347"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -8315,47 +8315,47 @@
       <c r="F50" s="82"/>
       <c r="G50" s="82"/>
       <c r="H50" s="82"/>
-      <c r="I50" s="413" t="s">
+      <c r="I50" s="466" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="413"/>
-      <c r="K50" s="413"/>
-      <c r="L50" s="413"/>
-      <c r="M50" s="413"/>
-      <c r="N50" s="414"/>
+      <c r="J50" s="466"/>
+      <c r="K50" s="466"/>
+      <c r="L50" s="466"/>
+      <c r="M50" s="466"/>
+      <c r="N50" s="467"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="407" t="s">
+      <c r="A51" s="458" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="369" t="s">
+      <c r="B51" s="488" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="369"/>
-      <c r="D51" s="354" t="s">
+      <c r="C51" s="488"/>
+      <c r="D51" s="491" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="355"/>
-      <c r="F51" s="372"/>
-      <c r="G51" s="354" t="s">
+      <c r="E51" s="492"/>
+      <c r="F51" s="493"/>
+      <c r="G51" s="491" t="s">
         <v>383</v>
       </c>
-      <c r="H51" s="355"/>
-      <c r="I51" s="356"/>
-      <c r="J51" s="484" t="s">
+      <c r="H51" s="492"/>
+      <c r="I51" s="537"/>
+      <c r="J51" s="351" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="485"/>
-      <c r="L51" s="346" t="s">
+      <c r="K51" s="352"/>
+      <c r="L51" s="533" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="409" t="s">
+      <c r="M51" s="460" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="403" t="s">
+      <c r="N51" s="454" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -8363,43 +8363,43 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="408"/>
-      <c r="B52" s="370"/>
-      <c r="C52" s="370"/>
-      <c r="D52" s="357"/>
-      <c r="E52" s="358"/>
-      <c r="F52" s="373"/>
-      <c r="G52" s="357"/>
-      <c r="H52" s="358"/>
-      <c r="I52" s="359"/>
-      <c r="J52" s="486"/>
-      <c r="K52" s="487"/>
-      <c r="L52" s="346"/>
-      <c r="M52" s="409"/>
-      <c r="N52" s="403"/>
+      <c r="A52" s="459"/>
+      <c r="B52" s="489"/>
+      <c r="C52" s="489"/>
+      <c r="D52" s="494"/>
+      <c r="E52" s="495"/>
+      <c r="F52" s="496"/>
+      <c r="G52" s="494"/>
+      <c r="H52" s="495"/>
+      <c r="I52" s="538"/>
+      <c r="J52" s="353"/>
+      <c r="K52" s="354"/>
+      <c r="L52" s="533"/>
+      <c r="M52" s="460"/>
+      <c r="N52" s="454"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="222"/>
-      <c r="B53" s="371"/>
-      <c r="C53" s="371"/>
-      <c r="D53" s="360"/>
-      <c r="E53" s="361"/>
-      <c r="F53" s="374"/>
-      <c r="G53" s="360"/>
-      <c r="H53" s="361"/>
-      <c r="I53" s="362"/>
+      <c r="B53" s="490"/>
+      <c r="C53" s="490"/>
+      <c r="D53" s="497"/>
+      <c r="E53" s="498"/>
+      <c r="F53" s="475"/>
+      <c r="G53" s="497"/>
+      <c r="H53" s="498"/>
+      <c r="I53" s="539"/>
       <c r="J53" s="87" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="347"/>
-      <c r="M53" s="410"/>
-      <c r="N53" s="404"/>
+      <c r="L53" s="534"/>
+      <c r="M53" s="461"/>
+      <c r="N53" s="455"/>
       <c r="O53" s="89"/>
       <c r="P53" s="89"/>
       <c r="Q53" s="3" t="s">
@@ -8412,17 +8412,17 @@
         <v>23</v>
       </c>
       <c r="C54" s="226"/>
-      <c r="D54" s="375"/>
-      <c r="E54" s="376"/>
-      <c r="F54" s="377"/>
-      <c r="G54" s="348"/>
-      <c r="H54" s="349"/>
-      <c r="I54" s="350"/>
-      <c r="J54" s="293"/>
-      <c r="K54" s="294"/>
-      <c r="L54" s="303"/>
-      <c r="M54" s="304"/>
-      <c r="N54" s="305"/>
+      <c r="D54" s="499"/>
+      <c r="E54" s="500"/>
+      <c r="F54" s="501"/>
+      <c r="G54" s="341"/>
+      <c r="H54" s="342"/>
+      <c r="I54" s="343"/>
+      <c r="J54" s="858"/>
+      <c r="K54" s="859"/>
+      <c r="L54" s="297"/>
+      <c r="M54" s="298"/>
+      <c r="N54" s="299"/>
       <c r="Q54" s="3" t="s">
         <v>162</v>
       </c>
@@ -8433,17 +8433,17 @@
         <v>24</v>
       </c>
       <c r="C55" s="226"/>
-      <c r="D55" s="375"/>
-      <c r="E55" s="376"/>
-      <c r="F55" s="377"/>
-      <c r="G55" s="348"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="350"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="294"/>
-      <c r="L55" s="303"/>
-      <c r="M55" s="306"/>
-      <c r="N55" s="305"/>
+      <c r="D55" s="499"/>
+      <c r="E55" s="500"/>
+      <c r="F55" s="501"/>
+      <c r="G55" s="341"/>
+      <c r="H55" s="342"/>
+      <c r="I55" s="343"/>
+      <c r="J55" s="858"/>
+      <c r="K55" s="859"/>
+      <c r="L55" s="297"/>
+      <c r="M55" s="300"/>
+      <c r="N55" s="299"/>
       <c r="Q55" s="3" t="s">
         <v>163</v>
       </c>
@@ -8454,17 +8454,17 @@
         <v>58</v>
       </c>
       <c r="C56" s="226"/>
-      <c r="D56" s="375"/>
-      <c r="E56" s="376"/>
-      <c r="F56" s="377"/>
-      <c r="G56" s="348"/>
-      <c r="H56" s="349"/>
-      <c r="I56" s="350"/>
-      <c r="J56" s="283"/>
-      <c r="K56" s="284"/>
-      <c r="L56" s="303"/>
-      <c r="M56" s="307"/>
-      <c r="N56" s="305"/>
+      <c r="D56" s="499"/>
+      <c r="E56" s="500"/>
+      <c r="F56" s="501"/>
+      <c r="G56" s="341"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="343"/>
+      <c r="J56" s="860"/>
+      <c r="K56" s="861"/>
+      <c r="L56" s="297"/>
+      <c r="M56" s="301"/>
+      <c r="N56" s="299"/>
       <c r="Q56" s="3" t="s">
         <v>164</v>
       </c>
@@ -8475,17 +8475,17 @@
         <v>71</v>
       </c>
       <c r="C57" s="226"/>
-      <c r="D57" s="375"/>
-      <c r="E57" s="376"/>
-      <c r="F57" s="377"/>
-      <c r="G57" s="348"/>
-      <c r="H57" s="349"/>
-      <c r="I57" s="350"/>
-      <c r="J57" s="293"/>
-      <c r="K57" s="294"/>
-      <c r="L57" s="303"/>
-      <c r="M57" s="306"/>
-      <c r="N57" s="305"/>
+      <c r="D57" s="499"/>
+      <c r="E57" s="500"/>
+      <c r="F57" s="501"/>
+      <c r="G57" s="341"/>
+      <c r="H57" s="342"/>
+      <c r="I57" s="343"/>
+      <c r="J57" s="858"/>
+      <c r="K57" s="859"/>
+      <c r="L57" s="297"/>
+      <c r="M57" s="300"/>
+      <c r="N57" s="299"/>
       <c r="Q57" s="3" t="s">
         <v>165</v>
       </c>
@@ -8496,61 +8496,61 @@
         <v>25</v>
       </c>
       <c r="C58" s="228"/>
-      <c r="D58" s="378"/>
-      <c r="E58" s="379"/>
-      <c r="F58" s="380"/>
-      <c r="G58" s="366"/>
-      <c r="H58" s="367"/>
-      <c r="I58" s="368"/>
-      <c r="J58" s="285"/>
-      <c r="K58" s="286"/>
-      <c r="L58" s="303"/>
-      <c r="M58" s="308"/>
-      <c r="N58" s="305"/>
+      <c r="D58" s="502"/>
+      <c r="E58" s="503"/>
+      <c r="F58" s="504"/>
+      <c r="G58" s="485"/>
+      <c r="H58" s="486"/>
+      <c r="I58" s="487"/>
+      <c r="J58" s="862"/>
+      <c r="K58" s="863"/>
+      <c r="L58" s="297"/>
+      <c r="M58" s="302"/>
+      <c r="N58" s="299"/>
       <c r="Q58" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="328" t="s">
+      <c r="A59" s="522" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="329"/>
-      <c r="C59" s="329"/>
-      <c r="D59" s="329"/>
-      <c r="E59" s="329"/>
-      <c r="F59" s="329"/>
-      <c r="G59" s="329"/>
-      <c r="H59" s="329"/>
-      <c r="I59" s="329"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="329"/>
-      <c r="L59" s="329"/>
-      <c r="M59" s="329"/>
-      <c r="N59" s="330"/>
+      <c r="B59" s="523"/>
+      <c r="C59" s="523"/>
+      <c r="D59" s="523"/>
+      <c r="E59" s="523"/>
+      <c r="F59" s="523"/>
+      <c r="G59" s="523"/>
+      <c r="H59" s="523"/>
+      <c r="I59" s="523"/>
+      <c r="J59" s="523"/>
+      <c r="K59" s="523"/>
+      <c r="L59" s="523"/>
+      <c r="M59" s="523"/>
+      <c r="N59" s="524"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="325" t="s">
+      <c r="A60" s="519" t="s">
         <v>390</v>
       </c>
-      <c r="B60" s="326"/>
-      <c r="C60" s="327"/>
-      <c r="D60" s="341"/>
-      <c r="E60" s="342"/>
-      <c r="F60" s="342"/>
-      <c r="G60" s="342"/>
-      <c r="H60" s="342"/>
-      <c r="I60" s="343"/>
-      <c r="J60" s="344" t="s">
+      <c r="B60" s="520"/>
+      <c r="C60" s="521"/>
+      <c r="D60" s="528"/>
+      <c r="E60" s="529"/>
+      <c r="F60" s="529"/>
+      <c r="G60" s="529"/>
+      <c r="H60" s="529"/>
+      <c r="I60" s="530"/>
+      <c r="J60" s="531" t="s">
         <v>391</v>
       </c>
-      <c r="K60" s="345"/>
-      <c r="L60" s="331"/>
-      <c r="M60" s="332"/>
-      <c r="N60" s="333"/>
+      <c r="K60" s="532"/>
+      <c r="L60" s="525"/>
+      <c r="M60" s="526"/>
+      <c r="N60" s="527"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
@@ -8558,22 +8558,22 @@
       <c r="S60" s="90"/>
     </row>
     <row r="61" spans="1:19" s="242" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="324" t="s">
+      <c r="A61" s="518" t="s">
         <v>394</v>
       </c>
-      <c r="B61" s="324"/>
-      <c r="C61" s="324"/>
-      <c r="D61" s="324"/>
-      <c r="E61" s="324"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="324"/>
-      <c r="H61" s="324"/>
-      <c r="I61" s="324"/>
-      <c r="J61" s="324"/>
-      <c r="K61" s="324"/>
-      <c r="L61" s="324"/>
-      <c r="M61" s="324"/>
-      <c r="N61" s="324"/>
+      <c r="B61" s="518"/>
+      <c r="C61" s="518"/>
+      <c r="D61" s="518"/>
+      <c r="E61" s="518"/>
+      <c r="F61" s="518"/>
+      <c r="G61" s="518"/>
+      <c r="H61" s="518"/>
+      <c r="I61" s="518"/>
+      <c r="J61" s="518"/>
+      <c r="K61" s="518"/>
+      <c r="L61" s="518"/>
+      <c r="M61" s="518"/>
+      <c r="N61" s="518"/>
       <c r="Q61" s="243" t="s">
         <v>395</v>
       </c>
@@ -12302,15 +12302,114 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="141">
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G51:I53"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="I31:N31"/>
     <mergeCell ref="I41:L41"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M42:N42"/>
@@ -12335,114 +12434,15 @@
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G51:I53"/>
-    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12664,7 +12664,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
@@ -12686,76 +12686,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="492"/>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
-      <c r="F1" s="493"/>
-      <c r="G1" s="493"/>
-      <c r="H1" s="493"/>
-      <c r="I1" s="493"/>
-      <c r="J1" s="493"/>
-      <c r="K1" s="493"/>
-      <c r="L1" s="493"/>
-      <c r="M1" s="494"/>
+      <c r="A1" s="590"/>
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="591"/>
+      <c r="L1" s="591"/>
+      <c r="M1" s="592"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="600" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="506"/>
-      <c r="K2" s="506"/>
-      <c r="L2" s="506"/>
-      <c r="M2" s="507"/>
+      <c r="B2" s="601"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="601"/>
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="601"/>
+      <c r="J2" s="601"/>
+      <c r="K2" s="601"/>
+      <c r="L2" s="601"/>
+      <c r="M2" s="602"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="593" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="495"/>
-      <c r="D3" s="495"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="503" t="s">
+      <c r="C3" s="593"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="594"/>
+      <c r="F3" s="598" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="499" t="s">
+      <c r="G3" s="595" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="496"/>
-      <c r="I3" s="499" t="s">
+      <c r="H3" s="594"/>
+      <c r="I3" s="595" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="495"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="501" t="s">
+      <c r="J3" s="593"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="596" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="502"/>
+      <c r="M3" s="597"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="497"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="500"/>
-      <c r="J4" s="497"/>
-      <c r="K4" s="498"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="567"/>
+      <c r="E4" s="568"/>
+      <c r="F4" s="599"/>
+      <c r="G4" s="581"/>
+      <c r="H4" s="568"/>
+      <c r="I4" s="581"/>
+      <c r="J4" s="567"/>
+      <c r="K4" s="568"/>
       <c r="L4" s="6" t="s">
         <v>91</v>
       </c>
@@ -12764,143 +12764,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="519"/>
-      <c r="B5" s="520"/>
-      <c r="C5" s="520"/>
-      <c r="D5" s="520"/>
-      <c r="E5" s="520"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="518"/>
-      <c r="H5" s="518"/>
-      <c r="I5" s="510"/>
-      <c r="J5" s="510"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="288"/>
+      <c r="A5" s="579"/>
+      <c r="B5" s="546"/>
+      <c r="C5" s="546"/>
+      <c r="D5" s="546"/>
+      <c r="E5" s="546"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="307"/>
+      <c r="M5" s="284"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="519"/>
-      <c r="B6" s="520"/>
-      <c r="C6" s="520"/>
-      <c r="D6" s="520"/>
-      <c r="E6" s="520"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="859"/>
-      <c r="H6" s="801"/>
-      <c r="I6" s="510"/>
-      <c r="J6" s="510"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="288"/>
+      <c r="A6" s="579"/>
+      <c r="B6" s="546"/>
+      <c r="C6" s="546"/>
+      <c r="D6" s="546"/>
+      <c r="E6" s="546"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="609"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="307"/>
+      <c r="M6" s="284"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="519"/>
-      <c r="B7" s="520"/>
-      <c r="C7" s="520"/>
-      <c r="D7" s="520"/>
-      <c r="E7" s="520"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="518"/>
-      <c r="H7" s="518"/>
-      <c r="I7" s="510"/>
-      <c r="J7" s="510"/>
-      <c r="K7" s="510"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="288"/>
+      <c r="A7" s="579"/>
+      <c r="B7" s="546"/>
+      <c r="C7" s="546"/>
+      <c r="D7" s="546"/>
+      <c r="E7" s="546"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="548"/>
+      <c r="H7" s="548"/>
+      <c r="I7" s="582"/>
+      <c r="J7" s="582"/>
+      <c r="K7" s="582"/>
+      <c r="L7" s="307"/>
+      <c r="M7" s="284"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="519"/>
-      <c r="B8" s="520"/>
-      <c r="C8" s="520"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="520"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="518"/>
-      <c r="H8" s="518"/>
-      <c r="I8" s="510"/>
-      <c r="J8" s="510"/>
-      <c r="K8" s="510"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="288"/>
+      <c r="A8" s="579"/>
+      <c r="B8" s="546"/>
+      <c r="C8" s="546"/>
+      <c r="D8" s="546"/>
+      <c r="E8" s="546"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="548"/>
+      <c r="H8" s="548"/>
+      <c r="I8" s="582"/>
+      <c r="J8" s="582"/>
+      <c r="K8" s="582"/>
+      <c r="L8" s="307"/>
+      <c r="M8" s="284"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="519"/>
-      <c r="B9" s="520"/>
-      <c r="C9" s="520"/>
-      <c r="D9" s="520"/>
-      <c r="E9" s="520"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="518"/>
-      <c r="H9" s="518"/>
-      <c r="I9" s="510"/>
-      <c r="J9" s="510"/>
-      <c r="K9" s="510"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="288"/>
+      <c r="A9" s="579"/>
+      <c r="B9" s="546"/>
+      <c r="C9" s="546"/>
+      <c r="D9" s="546"/>
+      <c r="E9" s="546"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="548"/>
+      <c r="H9" s="548"/>
+      <c r="I9" s="582"/>
+      <c r="J9" s="582"/>
+      <c r="K9" s="582"/>
+      <c r="L9" s="307"/>
+      <c r="M9" s="284"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="519"/>
-      <c r="B10" s="520"/>
-      <c r="C10" s="520"/>
-      <c r="D10" s="520"/>
-      <c r="E10" s="520"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="518"/>
-      <c r="H10" s="518"/>
-      <c r="I10" s="510"/>
-      <c r="J10" s="510"/>
-      <c r="K10" s="510"/>
-      <c r="L10" s="313"/>
-      <c r="M10" s="288"/>
+      <c r="A10" s="579"/>
+      <c r="B10" s="546"/>
+      <c r="C10" s="546"/>
+      <c r="D10" s="546"/>
+      <c r="E10" s="546"/>
+      <c r="F10" s="283"/>
+      <c r="G10" s="548"/>
+      <c r="H10" s="548"/>
+      <c r="I10" s="582"/>
+      <c r="J10" s="582"/>
+      <c r="K10" s="582"/>
+      <c r="L10" s="307"/>
+      <c r="M10" s="284"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="860"/>
-      <c r="B11" s="802"/>
-      <c r="C11" s="802"/>
-      <c r="D11" s="802"/>
-      <c r="E11" s="802"/>
-      <c r="F11" s="861"/>
-      <c r="G11" s="546"/>
-      <c r="H11" s="546"/>
-      <c r="I11" s="862"/>
-      <c r="J11" s="862"/>
-      <c r="K11" s="862"/>
-      <c r="L11" s="804"/>
-      <c r="M11" s="863"/>
+      <c r="A11" s="564"/>
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="339"/>
+      <c r="G11" s="553"/>
+      <c r="H11" s="553"/>
+      <c r="I11" s="583"/>
+      <c r="J11" s="583"/>
+      <c r="K11" s="583"/>
+      <c r="L11" s="334"/>
+      <c r="M11" s="340"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="526" t="s">
+      <c r="A12" s="571" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="527"/>
-      <c r="C12" s="527"/>
-      <c r="D12" s="527"/>
-      <c r="E12" s="527"/>
-      <c r="F12" s="527"/>
-      <c r="G12" s="527"/>
-      <c r="H12" s="527"/>
-      <c r="I12" s="527"/>
-      <c r="J12" s="527"/>
-      <c r="K12" s="527"/>
-      <c r="L12" s="527"/>
-      <c r="M12" s="528"/>
+      <c r="B12" s="572"/>
+      <c r="C12" s="572"/>
+      <c r="D12" s="572"/>
+      <c r="E12" s="572"/>
+      <c r="F12" s="572"/>
+      <c r="G12" s="572"/>
+      <c r="H12" s="572"/>
+      <c r="I12" s="572"/>
+      <c r="J12" s="572"/>
+      <c r="K12" s="572"/>
+      <c r="L12" s="572"/>
+      <c r="M12" s="573"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="529" t="s">
+      <c r="A13" s="574" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="530"/>
-      <c r="C13" s="530"/>
-      <c r="D13" s="530"/>
-      <c r="E13" s="530"/>
-      <c r="F13" s="530"/>
-      <c r="G13" s="530"/>
-      <c r="H13" s="530"/>
-      <c r="I13" s="530"/>
-      <c r="J13" s="530"/>
-      <c r="K13" s="530"/>
-      <c r="L13" s="530"/>
-      <c r="M13" s="531"/>
+      <c r="B13" s="575"/>
+      <c r="C13" s="575"/>
+      <c r="D13" s="575"/>
+      <c r="E13" s="575"/>
+      <c r="F13" s="575"/>
+      <c r="G13" s="575"/>
+      <c r="H13" s="575"/>
+      <c r="I13" s="575"/>
+      <c r="J13" s="575"/>
+      <c r="K13" s="575"/>
+      <c r="L13" s="575"/>
+      <c r="M13" s="576"/>
     </row>
     <row r="14" spans="1:13" s="195" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="202" t="s">
@@ -12923,540 +12923,540 @@
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="516" t="s">
+      <c r="B15" s="565" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="517"/>
-      <c r="D15" s="515" t="s">
+      <c r="C15" s="566"/>
+      <c r="D15" s="580" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="516"/>
-      <c r="F15" s="517"/>
-      <c r="G15" s="515" t="s">
+      <c r="E15" s="565"/>
+      <c r="F15" s="566"/>
+      <c r="G15" s="580" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="516"/>
-      <c r="I15" s="517"/>
-      <c r="J15" s="521" t="s">
+      <c r="H15" s="565"/>
+      <c r="I15" s="566"/>
+      <c r="J15" s="584" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="511" t="s">
+      <c r="K15" s="605" t="s">
         <v>347</v>
       </c>
-      <c r="L15" s="533" t="s">
+      <c r="L15" s="577" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="508" t="s">
+      <c r="M15" s="603" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="497"/>
-      <c r="C16" s="498"/>
-      <c r="D16" s="515"/>
-      <c r="E16" s="516"/>
-      <c r="F16" s="517"/>
-      <c r="G16" s="515"/>
-      <c r="H16" s="516"/>
-      <c r="I16" s="517"/>
-      <c r="J16" s="521"/>
-      <c r="K16" s="511"/>
-      <c r="L16" s="533"/>
-      <c r="M16" s="508"/>
+      <c r="B16" s="567"/>
+      <c r="C16" s="568"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="565"/>
+      <c r="F16" s="566"/>
+      <c r="G16" s="580"/>
+      <c r="H16" s="565"/>
+      <c r="I16" s="566"/>
+      <c r="J16" s="584"/>
+      <c r="K16" s="605"/>
+      <c r="L16" s="577"/>
+      <c r="M16" s="603"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="513" t="s">
+      <c r="A17" s="607" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="514"/>
+      <c r="B17" s="608"/>
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="500"/>
-      <c r="E17" s="497"/>
-      <c r="F17" s="498"/>
-      <c r="G17" s="500"/>
-      <c r="H17" s="497"/>
-      <c r="I17" s="498"/>
-      <c r="J17" s="522"/>
-      <c r="K17" s="512"/>
-      <c r="L17" s="534"/>
-      <c r="M17" s="509"/>
+      <c r="D17" s="581"/>
+      <c r="E17" s="567"/>
+      <c r="F17" s="568"/>
+      <c r="G17" s="581"/>
+      <c r="H17" s="567"/>
+      <c r="I17" s="568"/>
+      <c r="J17" s="585"/>
+      <c r="K17" s="606"/>
+      <c r="L17" s="578"/>
+      <c r="M17" s="604"/>
     </row>
     <row r="18" spans="1:13" s="261" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="788"/>
-      <c r="B18" s="789"/>
-      <c r="C18" s="790"/>
-      <c r="D18" s="791"/>
-      <c r="E18" s="792"/>
-      <c r="F18" s="793"/>
-      <c r="G18" s="523"/>
-      <c r="H18" s="523"/>
-      <c r="I18" s="523"/>
-      <c r="J18" s="794"/>
-      <c r="K18" s="795"/>
-      <c r="L18" s="796"/>
-      <c r="M18" s="298"/>
+      <c r="A18" s="543"/>
+      <c r="B18" s="544"/>
+      <c r="C18" s="326"/>
+      <c r="D18" s="540"/>
+      <c r="E18" s="541"/>
+      <c r="F18" s="542"/>
+      <c r="G18" s="545"/>
+      <c r="H18" s="545"/>
+      <c r="I18" s="545"/>
+      <c r="J18" s="327"/>
+      <c r="K18" s="328"/>
+      <c r="L18" s="329"/>
+      <c r="M18" s="292"/>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="524"/>
-      <c r="B19" s="525"/>
-      <c r="C19" s="312"/>
-      <c r="D19" s="523"/>
-      <c r="E19" s="523"/>
-      <c r="F19" s="523"/>
-      <c r="G19" s="523"/>
-      <c r="H19" s="523"/>
-      <c r="I19" s="523"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="309"/>
-      <c r="M19" s="300"/>
+      <c r="A19" s="569"/>
+      <c r="B19" s="570"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="545"/>
+      <c r="E19" s="545"/>
+      <c r="F19" s="545"/>
+      <c r="G19" s="545"/>
+      <c r="H19" s="545"/>
+      <c r="I19" s="545"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="303"/>
+      <c r="L19" s="303"/>
+      <c r="M19" s="294"/>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="524"/>
-      <c r="B20" s="525"/>
-      <c r="C20" s="312"/>
-      <c r="D20" s="523"/>
-      <c r="E20" s="523"/>
-      <c r="F20" s="523"/>
-      <c r="G20" s="523"/>
-      <c r="H20" s="523"/>
-      <c r="I20" s="523"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="309"/>
-      <c r="L20" s="301"/>
-      <c r="M20" s="300"/>
+      <c r="A20" s="569"/>
+      <c r="B20" s="570"/>
+      <c r="C20" s="306"/>
+      <c r="D20" s="545"/>
+      <c r="E20" s="545"/>
+      <c r="F20" s="545"/>
+      <c r="G20" s="545"/>
+      <c r="H20" s="545"/>
+      <c r="I20" s="545"/>
+      <c r="J20" s="296"/>
+      <c r="K20" s="303"/>
+      <c r="L20" s="295"/>
+      <c r="M20" s="294"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="532"/>
-      <c r="B21" s="518"/>
-      <c r="C21" s="310"/>
-      <c r="D21" s="520"/>
-      <c r="E21" s="520"/>
-      <c r="F21" s="520"/>
-      <c r="G21" s="520"/>
-      <c r="H21" s="520"/>
-      <c r="I21" s="520"/>
-      <c r="J21" s="797"/>
-      <c r="K21" s="313"/>
-      <c r="L21" s="313"/>
-      <c r="M21" s="798"/>
+      <c r="A21" s="547"/>
+      <c r="B21" s="548"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="546"/>
+      <c r="E21" s="546"/>
+      <c r="F21" s="546"/>
+      <c r="G21" s="546"/>
+      <c r="H21" s="546"/>
+      <c r="I21" s="546"/>
+      <c r="J21" s="330"/>
+      <c r="K21" s="307"/>
+      <c r="L21" s="307"/>
+      <c r="M21" s="331"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="532"/>
-      <c r="B22" s="518"/>
-      <c r="C22" s="310"/>
-      <c r="D22" s="520"/>
-      <c r="E22" s="520"/>
-      <c r="F22" s="520"/>
-      <c r="G22" s="520"/>
-      <c r="H22" s="520"/>
-      <c r="I22" s="520"/>
-      <c r="J22" s="797"/>
-      <c r="K22" s="313"/>
-      <c r="L22" s="799"/>
-      <c r="M22" s="798"/>
+      <c r="A22" s="547"/>
+      <c r="B22" s="548"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="546"/>
+      <c r="E22" s="546"/>
+      <c r="F22" s="546"/>
+      <c r="G22" s="546"/>
+      <c r="H22" s="546"/>
+      <c r="I22" s="546"/>
+      <c r="J22" s="330"/>
+      <c r="K22" s="307"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="331"/>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="532"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="310"/>
-      <c r="D23" s="520"/>
-      <c r="E23" s="520"/>
-      <c r="F23" s="520"/>
-      <c r="G23" s="520"/>
-      <c r="H23" s="520"/>
-      <c r="I23" s="520"/>
-      <c r="J23" s="797"/>
-      <c r="K23" s="313"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="798"/>
+      <c r="A23" s="547"/>
+      <c r="B23" s="548"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="546"/>
+      <c r="E23" s="546"/>
+      <c r="F23" s="546"/>
+      <c r="G23" s="546"/>
+      <c r="H23" s="546"/>
+      <c r="I23" s="546"/>
+      <c r="J23" s="330"/>
+      <c r="K23" s="307"/>
+      <c r="L23" s="307"/>
+      <c r="M23" s="331"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="532"/>
-      <c r="B24" s="518"/>
-      <c r="C24" s="310"/>
-      <c r="D24" s="520"/>
-      <c r="E24" s="520"/>
-      <c r="F24" s="520"/>
-      <c r="G24" s="520"/>
-      <c r="H24" s="520"/>
-      <c r="I24" s="520"/>
-      <c r="J24" s="797"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="798"/>
+      <c r="A24" s="547"/>
+      <c r="B24" s="548"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="546"/>
+      <c r="E24" s="546"/>
+      <c r="F24" s="546"/>
+      <c r="G24" s="546"/>
+      <c r="H24" s="546"/>
+      <c r="I24" s="546"/>
+      <c r="J24" s="330"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="331"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="532"/>
-      <c r="B25" s="518"/>
-      <c r="C25" s="310"/>
-      <c r="D25" s="520"/>
-      <c r="E25" s="520"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="520"/>
-      <c r="H25" s="520"/>
-      <c r="I25" s="520"/>
-      <c r="J25" s="797"/>
-      <c r="K25" s="313"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="798"/>
+      <c r="A25" s="547"/>
+      <c r="B25" s="548"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="546"/>
+      <c r="E25" s="546"/>
+      <c r="F25" s="546"/>
+      <c r="G25" s="546"/>
+      <c r="H25" s="546"/>
+      <c r="I25" s="546"/>
+      <c r="J25" s="330"/>
+      <c r="K25" s="307"/>
+      <c r="L25" s="307"/>
+      <c r="M25" s="331"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="532"/>
-      <c r="B26" s="518"/>
-      <c r="C26" s="310"/>
-      <c r="D26" s="520"/>
-      <c r="E26" s="520"/>
-      <c r="F26" s="520"/>
-      <c r="G26" s="520"/>
-      <c r="H26" s="520"/>
-      <c r="I26" s="520"/>
-      <c r="J26" s="797"/>
-      <c r="K26" s="313"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="798"/>
+      <c r="A26" s="547"/>
+      <c r="B26" s="548"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="546"/>
+      <c r="E26" s="546"/>
+      <c r="F26" s="546"/>
+      <c r="G26" s="546"/>
+      <c r="H26" s="546"/>
+      <c r="I26" s="546"/>
+      <c r="J26" s="330"/>
+      <c r="K26" s="307"/>
+      <c r="L26" s="307"/>
+      <c r="M26" s="331"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="532"/>
-      <c r="B27" s="518"/>
-      <c r="C27" s="310"/>
-      <c r="D27" s="520"/>
-      <c r="E27" s="520"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="520"/>
-      <c r="H27" s="520"/>
-      <c r="I27" s="520"/>
-      <c r="J27" s="797"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="313"/>
-      <c r="M27" s="798"/>
+      <c r="A27" s="547"/>
+      <c r="B27" s="548"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="546"/>
+      <c r="E27" s="546"/>
+      <c r="F27" s="546"/>
+      <c r="G27" s="546"/>
+      <c r="H27" s="546"/>
+      <c r="I27" s="546"/>
+      <c r="J27" s="330"/>
+      <c r="K27" s="307"/>
+      <c r="L27" s="307"/>
+      <c r="M27" s="331"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="532"/>
-      <c r="B28" s="518"/>
-      <c r="C28" s="310"/>
-      <c r="D28" s="520"/>
-      <c r="E28" s="520"/>
-      <c r="F28" s="520"/>
-      <c r="G28" s="520"/>
-      <c r="H28" s="520"/>
-      <c r="I28" s="520"/>
-      <c r="J28" s="797"/>
-      <c r="K28" s="313"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="798"/>
+      <c r="A28" s="547"/>
+      <c r="B28" s="548"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="546"/>
+      <c r="E28" s="546"/>
+      <c r="F28" s="546"/>
+      <c r="G28" s="546"/>
+      <c r="H28" s="546"/>
+      <c r="I28" s="546"/>
+      <c r="J28" s="330"/>
+      <c r="K28" s="307"/>
+      <c r="L28" s="307"/>
+      <c r="M28" s="331"/>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="532"/>
-      <c r="B29" s="518"/>
-      <c r="C29" s="310"/>
-      <c r="D29" s="520"/>
-      <c r="E29" s="520"/>
-      <c r="F29" s="520"/>
-      <c r="G29" s="520"/>
-      <c r="H29" s="520"/>
-      <c r="I29" s="520"/>
-      <c r="J29" s="797"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="313"/>
-      <c r="M29" s="798"/>
+      <c r="A29" s="547"/>
+      <c r="B29" s="548"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="546"/>
+      <c r="E29" s="546"/>
+      <c r="F29" s="546"/>
+      <c r="G29" s="546"/>
+      <c r="H29" s="546"/>
+      <c r="I29" s="546"/>
+      <c r="J29" s="330"/>
+      <c r="K29" s="307"/>
+      <c r="L29" s="307"/>
+      <c r="M29" s="331"/>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="532"/>
-      <c r="B30" s="518"/>
-      <c r="C30" s="310"/>
-      <c r="D30" s="520"/>
-      <c r="E30" s="520"/>
-      <c r="F30" s="520"/>
-      <c r="G30" s="520"/>
-      <c r="H30" s="520"/>
-      <c r="I30" s="520"/>
-      <c r="J30" s="797"/>
-      <c r="K30" s="313"/>
-      <c r="L30" s="313"/>
-      <c r="M30" s="798"/>
+      <c r="A30" s="547"/>
+      <c r="B30" s="548"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="546"/>
+      <c r="E30" s="546"/>
+      <c r="F30" s="546"/>
+      <c r="G30" s="546"/>
+      <c r="H30" s="546"/>
+      <c r="I30" s="546"/>
+      <c r="J30" s="330"/>
+      <c r="K30" s="307"/>
+      <c r="L30" s="307"/>
+      <c r="M30" s="331"/>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="800"/>
-      <c r="B31" s="801"/>
-      <c r="C31" s="310"/>
-      <c r="D31" s="560"/>
-      <c r="E31" s="561"/>
-      <c r="F31" s="562"/>
-      <c r="G31" s="560"/>
-      <c r="H31" s="561"/>
-      <c r="I31" s="562"/>
-      <c r="J31" s="797"/>
-      <c r="K31" s="313"/>
-      <c r="L31" s="313"/>
-      <c r="M31" s="798"/>
+      <c r="A31" s="554"/>
+      <c r="B31" s="555"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="556"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="558"/>
+      <c r="G31" s="556"/>
+      <c r="H31" s="557"/>
+      <c r="I31" s="558"/>
+      <c r="J31" s="330"/>
+      <c r="K31" s="307"/>
+      <c r="L31" s="307"/>
+      <c r="M31" s="331"/>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="800"/>
-      <c r="B32" s="801"/>
-      <c r="C32" s="310"/>
-      <c r="D32" s="560"/>
-      <c r="E32" s="561"/>
-      <c r="F32" s="562"/>
-      <c r="G32" s="560"/>
-      <c r="H32" s="561"/>
-      <c r="I32" s="562"/>
-      <c r="J32" s="797"/>
-      <c r="K32" s="313"/>
-      <c r="L32" s="313"/>
-      <c r="M32" s="798"/>
+      <c r="A32" s="554"/>
+      <c r="B32" s="555"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="556"/>
+      <c r="E32" s="557"/>
+      <c r="F32" s="558"/>
+      <c r="G32" s="556"/>
+      <c r="H32" s="557"/>
+      <c r="I32" s="558"/>
+      <c r="J32" s="330"/>
+      <c r="K32" s="307"/>
+      <c r="L32" s="307"/>
+      <c r="M32" s="331"/>
     </row>
     <row r="33" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="532"/>
-      <c r="B33" s="518"/>
-      <c r="C33" s="310"/>
-      <c r="D33" s="520"/>
-      <c r="E33" s="520"/>
-      <c r="F33" s="520"/>
-      <c r="G33" s="520"/>
-      <c r="H33" s="520"/>
-      <c r="I33" s="520"/>
-      <c r="J33" s="797"/>
-      <c r="K33" s="313"/>
-      <c r="L33" s="313"/>
-      <c r="M33" s="798"/>
+      <c r="A33" s="547"/>
+      <c r="B33" s="548"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="546"/>
+      <c r="E33" s="546"/>
+      <c r="F33" s="546"/>
+      <c r="G33" s="546"/>
+      <c r="H33" s="546"/>
+      <c r="I33" s="546"/>
+      <c r="J33" s="330"/>
+      <c r="K33" s="307"/>
+      <c r="L33" s="307"/>
+      <c r="M33" s="331"/>
     </row>
     <row r="34" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="532"/>
-      <c r="B34" s="518"/>
-      <c r="C34" s="310"/>
-      <c r="D34" s="520"/>
-      <c r="E34" s="520"/>
-      <c r="F34" s="520"/>
-      <c r="G34" s="520"/>
-      <c r="H34" s="520"/>
-      <c r="I34" s="520"/>
-      <c r="J34" s="797"/>
-      <c r="K34" s="313"/>
-      <c r="L34" s="313"/>
-      <c r="M34" s="798"/>
+      <c r="A34" s="547"/>
+      <c r="B34" s="548"/>
+      <c r="C34" s="304"/>
+      <c r="D34" s="546"/>
+      <c r="E34" s="546"/>
+      <c r="F34" s="546"/>
+      <c r="G34" s="546"/>
+      <c r="H34" s="546"/>
+      <c r="I34" s="546"/>
+      <c r="J34" s="330"/>
+      <c r="K34" s="307"/>
+      <c r="L34" s="307"/>
+      <c r="M34" s="331"/>
     </row>
     <row r="35" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="532"/>
-      <c r="B35" s="518"/>
-      <c r="C35" s="310"/>
-      <c r="D35" s="520"/>
-      <c r="E35" s="520"/>
-      <c r="F35" s="520"/>
-      <c r="G35" s="520"/>
-      <c r="H35" s="520"/>
-      <c r="I35" s="520"/>
-      <c r="J35" s="797"/>
-      <c r="K35" s="313"/>
-      <c r="L35" s="313"/>
-      <c r="M35" s="798"/>
+      <c r="A35" s="547"/>
+      <c r="B35" s="548"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="546"/>
+      <c r="E35" s="546"/>
+      <c r="F35" s="546"/>
+      <c r="G35" s="546"/>
+      <c r="H35" s="546"/>
+      <c r="I35" s="546"/>
+      <c r="J35" s="330"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="307"/>
+      <c r="M35" s="331"/>
     </row>
     <row r="36" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="532"/>
-      <c r="B36" s="518"/>
-      <c r="C36" s="310"/>
-      <c r="D36" s="520"/>
-      <c r="E36" s="520"/>
-      <c r="F36" s="520"/>
-      <c r="G36" s="520"/>
-      <c r="H36" s="520"/>
-      <c r="I36" s="520"/>
-      <c r="J36" s="797"/>
-      <c r="K36" s="313"/>
-      <c r="L36" s="313"/>
-      <c r="M36" s="798"/>
+      <c r="A36" s="547"/>
+      <c r="B36" s="548"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="546"/>
+      <c r="E36" s="546"/>
+      <c r="F36" s="546"/>
+      <c r="G36" s="546"/>
+      <c r="H36" s="546"/>
+      <c r="I36" s="546"/>
+      <c r="J36" s="330"/>
+      <c r="K36" s="307"/>
+      <c r="L36" s="307"/>
+      <c r="M36" s="331"/>
     </row>
     <row r="37" spans="1:14" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="532"/>
-      <c r="B37" s="518"/>
-      <c r="C37" s="310"/>
-      <c r="D37" s="520"/>
-      <c r="E37" s="520"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="520"/>
-      <c r="H37" s="520"/>
-      <c r="I37" s="520"/>
-      <c r="J37" s="797"/>
-      <c r="K37" s="313"/>
-      <c r="L37" s="313"/>
-      <c r="M37" s="798"/>
+      <c r="A37" s="547"/>
+      <c r="B37" s="548"/>
+      <c r="C37" s="304"/>
+      <c r="D37" s="546"/>
+      <c r="E37" s="546"/>
+      <c r="F37" s="546"/>
+      <c r="G37" s="546"/>
+      <c r="H37" s="546"/>
+      <c r="I37" s="546"/>
+      <c r="J37" s="330"/>
+      <c r="K37" s="307"/>
+      <c r="L37" s="307"/>
+      <c r="M37" s="331"/>
     </row>
     <row r="38" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="532"/>
-      <c r="B38" s="518"/>
-      <c r="C38" s="310"/>
-      <c r="D38" s="520"/>
-      <c r="E38" s="520"/>
-      <c r="F38" s="520"/>
-      <c r="G38" s="520"/>
-      <c r="H38" s="520"/>
-      <c r="I38" s="520"/>
-      <c r="J38" s="797"/>
-      <c r="K38" s="313"/>
-      <c r="L38" s="313"/>
-      <c r="M38" s="798"/>
+      <c r="A38" s="547"/>
+      <c r="B38" s="548"/>
+      <c r="C38" s="304"/>
+      <c r="D38" s="546"/>
+      <c r="E38" s="546"/>
+      <c r="F38" s="546"/>
+      <c r="G38" s="546"/>
+      <c r="H38" s="546"/>
+      <c r="I38" s="546"/>
+      <c r="J38" s="330"/>
+      <c r="K38" s="307"/>
+      <c r="L38" s="307"/>
+      <c r="M38" s="331"/>
     </row>
     <row r="39" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="532"/>
-      <c r="B39" s="518"/>
-      <c r="C39" s="310"/>
-      <c r="D39" s="520"/>
-      <c r="E39" s="520"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="520"/>
-      <c r="H39" s="520"/>
-      <c r="I39" s="520"/>
-      <c r="J39" s="797"/>
-      <c r="K39" s="313"/>
-      <c r="L39" s="313"/>
-      <c r="M39" s="798"/>
+      <c r="A39" s="547"/>
+      <c r="B39" s="548"/>
+      <c r="C39" s="304"/>
+      <c r="D39" s="546"/>
+      <c r="E39" s="546"/>
+      <c r="F39" s="546"/>
+      <c r="G39" s="546"/>
+      <c r="H39" s="546"/>
+      <c r="I39" s="546"/>
+      <c r="J39" s="330"/>
+      <c r="K39" s="307"/>
+      <c r="L39" s="307"/>
+      <c r="M39" s="331"/>
     </row>
     <row r="40" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="532"/>
-      <c r="B40" s="518"/>
-      <c r="C40" s="310"/>
-      <c r="D40" s="520"/>
-      <c r="E40" s="520"/>
-      <c r="F40" s="520"/>
-      <c r="G40" s="520"/>
-      <c r="H40" s="520"/>
-      <c r="I40" s="520"/>
-      <c r="J40" s="797"/>
-      <c r="K40" s="313"/>
-      <c r="L40" s="313"/>
-      <c r="M40" s="798"/>
+      <c r="A40" s="547"/>
+      <c r="B40" s="548"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="546"/>
+      <c r="E40" s="546"/>
+      <c r="F40" s="546"/>
+      <c r="G40" s="546"/>
+      <c r="H40" s="546"/>
+      <c r="I40" s="546"/>
+      <c r="J40" s="330"/>
+      <c r="K40" s="307"/>
+      <c r="L40" s="307"/>
+      <c r="M40" s="331"/>
     </row>
     <row r="41" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="532"/>
-      <c r="B41" s="518"/>
-      <c r="C41" s="310"/>
-      <c r="D41" s="520"/>
-      <c r="E41" s="520"/>
-      <c r="F41" s="520"/>
-      <c r="G41" s="520"/>
-      <c r="H41" s="520"/>
-      <c r="I41" s="520"/>
-      <c r="J41" s="797"/>
-      <c r="K41" s="313"/>
-      <c r="L41" s="313"/>
-      <c r="M41" s="798"/>
+      <c r="A41" s="547"/>
+      <c r="B41" s="548"/>
+      <c r="C41" s="304"/>
+      <c r="D41" s="546"/>
+      <c r="E41" s="546"/>
+      <c r="F41" s="546"/>
+      <c r="G41" s="546"/>
+      <c r="H41" s="546"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="330"/>
+      <c r="K41" s="307"/>
+      <c r="L41" s="307"/>
+      <c r="M41" s="331"/>
     </row>
     <row r="42" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="532"/>
-      <c r="B42" s="518"/>
-      <c r="C42" s="310"/>
-      <c r="D42" s="520"/>
-      <c r="E42" s="520"/>
-      <c r="F42" s="520"/>
-      <c r="G42" s="520"/>
-      <c r="H42" s="520"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="797"/>
-      <c r="K42" s="313"/>
-      <c r="L42" s="313"/>
-      <c r="M42" s="798"/>
+      <c r="A42" s="547"/>
+      <c r="B42" s="548"/>
+      <c r="C42" s="304"/>
+      <c r="D42" s="546"/>
+      <c r="E42" s="546"/>
+      <c r="F42" s="546"/>
+      <c r="G42" s="546"/>
+      <c r="H42" s="546"/>
+      <c r="I42" s="546"/>
+      <c r="J42" s="330"/>
+      <c r="K42" s="307"/>
+      <c r="L42" s="307"/>
+      <c r="M42" s="331"/>
     </row>
     <row r="43" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="532"/>
-      <c r="B43" s="518"/>
-      <c r="C43" s="310"/>
-      <c r="D43" s="520"/>
-      <c r="E43" s="520"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="520"/>
-      <c r="H43" s="520"/>
-      <c r="I43" s="520"/>
-      <c r="J43" s="797"/>
-      <c r="K43" s="313"/>
-      <c r="L43" s="313"/>
-      <c r="M43" s="798"/>
+      <c r="A43" s="547"/>
+      <c r="B43" s="548"/>
+      <c r="C43" s="304"/>
+      <c r="D43" s="546"/>
+      <c r="E43" s="546"/>
+      <c r="F43" s="546"/>
+      <c r="G43" s="546"/>
+      <c r="H43" s="546"/>
+      <c r="I43" s="546"/>
+      <c r="J43" s="330"/>
+      <c r="K43" s="307"/>
+      <c r="L43" s="307"/>
+      <c r="M43" s="331"/>
     </row>
     <row r="44" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="532"/>
-      <c r="B44" s="518"/>
-      <c r="C44" s="310"/>
-      <c r="D44" s="520"/>
-      <c r="E44" s="520"/>
-      <c r="F44" s="520"/>
-      <c r="G44" s="520"/>
-      <c r="H44" s="520"/>
-      <c r="I44" s="520"/>
-      <c r="J44" s="797"/>
-      <c r="K44" s="313"/>
-      <c r="L44" s="313"/>
-      <c r="M44" s="798"/>
+      <c r="A44" s="547"/>
+      <c r="B44" s="548"/>
+      <c r="C44" s="304"/>
+      <c r="D44" s="546"/>
+      <c r="E44" s="546"/>
+      <c r="F44" s="546"/>
+      <c r="G44" s="546"/>
+      <c r="H44" s="546"/>
+      <c r="I44" s="546"/>
+      <c r="J44" s="330"/>
+      <c r="K44" s="307"/>
+      <c r="L44" s="307"/>
+      <c r="M44" s="331"/>
     </row>
     <row r="45" spans="1:14" s="11" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="545"/>
-      <c r="B45" s="546"/>
-      <c r="C45" s="311"/>
-      <c r="D45" s="802"/>
-      <c r="E45" s="802"/>
-      <c r="F45" s="802"/>
-      <c r="G45" s="802"/>
-      <c r="H45" s="802"/>
-      <c r="I45" s="802"/>
-      <c r="J45" s="803"/>
-      <c r="K45" s="804"/>
-      <c r="L45" s="804"/>
-      <c r="M45" s="805"/>
+      <c r="A45" s="552"/>
+      <c r="B45" s="553"/>
+      <c r="C45" s="305"/>
+      <c r="D45" s="559"/>
+      <c r="E45" s="559"/>
+      <c r="F45" s="559"/>
+      <c r="G45" s="559"/>
+      <c r="H45" s="559"/>
+      <c r="I45" s="559"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="334"/>
+      <c r="L45" s="334"/>
+      <c r="M45" s="335"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="535" t="s">
+      <c r="A46" s="560" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="536"/>
-      <c r="C46" s="536"/>
-      <c r="D46" s="536"/>
-      <c r="E46" s="536"/>
-      <c r="F46" s="536"/>
-      <c r="G46" s="536"/>
-      <c r="H46" s="536"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="536"/>
-      <c r="K46" s="537"/>
-      <c r="L46" s="537"/>
-      <c r="M46" s="538"/>
+      <c r="B46" s="561"/>
+      <c r="C46" s="561"/>
+      <c r="D46" s="561"/>
+      <c r="E46" s="561"/>
+      <c r="F46" s="561"/>
+      <c r="G46" s="561"/>
+      <c r="H46" s="561"/>
+      <c r="I46" s="561"/>
+      <c r="J46" s="561"/>
+      <c r="K46" s="562"/>
+      <c r="L46" s="562"/>
+      <c r="M46" s="563"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="325" t="s">
+      <c r="A47" s="519" t="s">
         <v>390</v>
       </c>
-      <c r="B47" s="326"/>
-      <c r="C47" s="327"/>
-      <c r="D47" s="489"/>
-      <c r="E47" s="490"/>
-      <c r="F47" s="490"/>
-      <c r="G47" s="490"/>
-      <c r="H47" s="491"/>
+      <c r="B47" s="520"/>
+      <c r="C47" s="521"/>
+      <c r="D47" s="587"/>
+      <c r="E47" s="588"/>
+      <c r="F47" s="588"/>
+      <c r="G47" s="588"/>
+      <c r="H47" s="589"/>
       <c r="I47" s="239" t="s">
         <v>391</v>
       </c>
-      <c r="J47" s="542"/>
-      <c r="K47" s="543"/>
-      <c r="L47" s="543"/>
-      <c r="M47" s="544"/>
+      <c r="J47" s="549"/>
+      <c r="K47" s="550"/>
+      <c r="L47" s="550"/>
+      <c r="M47" s="551"/>
       <c r="N47" s="240"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="488" t="s">
+      <c r="A48" s="586" t="s">
         <v>396</v>
       </c>
-      <c r="B48" s="488"/>
-      <c r="C48" s="488"/>
-      <c r="D48" s="488"/>
-      <c r="E48" s="488"/>
-      <c r="F48" s="488"/>
-      <c r="G48" s="488"/>
-      <c r="H48" s="488"/>
-      <c r="I48" s="488"/>
-      <c r="J48" s="488"/>
-      <c r="K48" s="488"/>
-      <c r="L48" s="488"/>
-      <c r="M48" s="488"/>
+      <c r="B48" s="586"/>
+      <c r="C48" s="586"/>
+      <c r="D48" s="586"/>
+      <c r="E48" s="586"/>
+      <c r="F48" s="586"/>
+      <c r="G48" s="586"/>
+      <c r="H48" s="586"/>
+      <c r="I48" s="586"/>
+      <c r="J48" s="586"/>
+      <c r="K48" s="586"/>
+      <c r="L48" s="586"/>
+      <c r="M48" s="586"/>
       <c r="N48" s="244"/>
     </row>
   </sheetData>
@@ -13470,6 +13470,109 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="127">
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="G18:I18"/>
@@ -13494,109 +13597,6 @@
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13636,536 +13636,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="596"/>
-      <c r="B1" s="597"/>
-      <c r="C1" s="597"/>
-      <c r="D1" s="597"/>
-      <c r="E1" s="597"/>
-      <c r="F1" s="597"/>
-      <c r="G1" s="597"/>
-      <c r="H1" s="597"/>
-      <c r="I1" s="597"/>
-      <c r="J1" s="597"/>
-      <c r="K1" s="598"/>
+      <c r="A1" s="627"/>
+      <c r="B1" s="628"/>
+      <c r="C1" s="628"/>
+      <c r="D1" s="628"/>
+      <c r="E1" s="628"/>
+      <c r="F1" s="628"/>
+      <c r="G1" s="628"/>
+      <c r="H1" s="628"/>
+      <c r="I1" s="628"/>
+      <c r="J1" s="628"/>
+      <c r="K1" s="629"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="625" t="s">
+      <c r="A2" s="660" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="626"/>
-      <c r="C2" s="626"/>
-      <c r="D2" s="626"/>
-      <c r="E2" s="626"/>
-      <c r="F2" s="626"/>
-      <c r="G2" s="626"/>
-      <c r="H2" s="626"/>
-      <c r="I2" s="626"/>
-      <c r="J2" s="626"/>
-      <c r="K2" s="627"/>
+      <c r="B2" s="661"/>
+      <c r="C2" s="661"/>
+      <c r="D2" s="661"/>
+      <c r="E2" s="661"/>
+      <c r="F2" s="661"/>
+      <c r="G2" s="661"/>
+      <c r="H2" s="661"/>
+      <c r="I2" s="661"/>
+      <c r="J2" s="661"/>
+      <c r="K2" s="662"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="608" t="s">
+      <c r="A3" s="619" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="610" t="s">
+      <c r="B3" s="642" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="495" t="s">
+      <c r="C3" s="642"/>
+      <c r="D3" s="643"/>
+      <c r="E3" s="593" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="570" t="s">
+      <c r="F3" s="594"/>
+      <c r="G3" s="700" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="499" t="s">
+      <c r="H3" s="595" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="617"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="618"/>
+      <c r="I3" s="652"/>
+      <c r="J3" s="652"/>
+      <c r="K3" s="653"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="609"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
-      <c r="E4" s="497"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="511"/>
-      <c r="H4" s="619"/>
-      <c r="I4" s="620"/>
-      <c r="J4" s="620"/>
-      <c r="K4" s="621"/>
+      <c r="A4" s="620"/>
+      <c r="B4" s="644"/>
+      <c r="C4" s="644"/>
+      <c r="D4" s="645"/>
+      <c r="E4" s="567"/>
+      <c r="F4" s="568"/>
+      <c r="G4" s="605"/>
+      <c r="H4" s="654"/>
+      <c r="I4" s="655"/>
+      <c r="J4" s="655"/>
+      <c r="K4" s="656"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="565"/>
-      <c r="C5" s="565"/>
-      <c r="D5" s="566"/>
+      <c r="B5" s="698"/>
+      <c r="C5" s="698"/>
+      <c r="D5" s="699"/>
       <c r="E5" s="281" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="512"/>
-      <c r="H5" s="622"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
+      <c r="G5" s="606"/>
+      <c r="H5" s="657"/>
+      <c r="I5" s="658"/>
+      <c r="J5" s="658"/>
+      <c r="K5" s="659"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="567"/>
-      <c r="B6" s="568"/>
-      <c r="C6" s="568"/>
-      <c r="D6" s="569"/>
+      <c r="A6" s="649"/>
+      <c r="B6" s="650"/>
+      <c r="C6" s="650"/>
+      <c r="D6" s="651"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="571"/>
-      <c r="I6" s="572"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="573"/>
+      <c r="H6" s="639"/>
+      <c r="I6" s="640"/>
+      <c r="J6" s="640"/>
+      <c r="K6" s="641"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="567"/>
-      <c r="B7" s="568"/>
-      <c r="C7" s="568"/>
-      <c r="D7" s="569"/>
+      <c r="A7" s="649"/>
+      <c r="B7" s="650"/>
+      <c r="C7" s="650"/>
+      <c r="D7" s="651"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="571"/>
-      <c r="I7" s="572"/>
-      <c r="J7" s="572"/>
-      <c r="K7" s="573"/>
+      <c r="H7" s="639"/>
+      <c r="I7" s="640"/>
+      <c r="J7" s="640"/>
+      <c r="K7" s="641"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="567"/>
-      <c r="B8" s="568"/>
-      <c r="C8" s="568"/>
-      <c r="D8" s="569"/>
+      <c r="A8" s="649"/>
+      <c r="B8" s="650"/>
+      <c r="C8" s="650"/>
+      <c r="D8" s="651"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="571"/>
-      <c r="I8" s="572"/>
-      <c r="J8" s="572"/>
-      <c r="K8" s="573"/>
+      <c r="H8" s="639"/>
+      <c r="I8" s="640"/>
+      <c r="J8" s="640"/>
+      <c r="K8" s="641"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="567"/>
-      <c r="B9" s="568"/>
-      <c r="C9" s="568"/>
-      <c r="D9" s="569"/>
+      <c r="A9" s="649"/>
+      <c r="B9" s="650"/>
+      <c r="C9" s="650"/>
+      <c r="D9" s="651"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="571"/>
-      <c r="I9" s="572"/>
-      <c r="J9" s="572"/>
-      <c r="K9" s="573"/>
+      <c r="H9" s="639"/>
+      <c r="I9" s="640"/>
+      <c r="J9" s="640"/>
+      <c r="K9" s="641"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="567"/>
-      <c r="B10" s="568"/>
-      <c r="C10" s="568"/>
-      <c r="D10" s="569"/>
+      <c r="A10" s="649"/>
+      <c r="B10" s="650"/>
+      <c r="C10" s="650"/>
+      <c r="D10" s="651"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="571"/>
-      <c r="I10" s="572"/>
-      <c r="J10" s="572"/>
-      <c r="K10" s="573"/>
+      <c r="H10" s="639"/>
+      <c r="I10" s="640"/>
+      <c r="J10" s="640"/>
+      <c r="K10" s="641"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="614"/>
-      <c r="B11" s="615"/>
-      <c r="C11" s="615"/>
-      <c r="D11" s="616"/>
+      <c r="A11" s="646"/>
+      <c r="B11" s="647"/>
+      <c r="C11" s="647"/>
+      <c r="D11" s="648"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="632"/>
-      <c r="I11" s="633"/>
-      <c r="J11" s="633"/>
-      <c r="K11" s="634"/>
+      <c r="H11" s="621"/>
+      <c r="I11" s="622"/>
+      <c r="J11" s="622"/>
+      <c r="K11" s="623"/>
     </row>
     <row r="12" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="526" t="s">
+      <c r="A12" s="571" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="527"/>
-      <c r="C12" s="527"/>
-      <c r="D12" s="527"/>
-      <c r="E12" s="527"/>
-      <c r="F12" s="527"/>
-      <c r="G12" s="527"/>
-      <c r="H12" s="527"/>
-      <c r="I12" s="527"/>
-      <c r="J12" s="527"/>
-      <c r="K12" s="528"/>
+      <c r="B12" s="572"/>
+      <c r="C12" s="572"/>
+      <c r="D12" s="572"/>
+      <c r="E12" s="572"/>
+      <c r="F12" s="572"/>
+      <c r="G12" s="572"/>
+      <c r="H12" s="572"/>
+      <c r="I12" s="572"/>
+      <c r="J12" s="572"/>
+      <c r="K12" s="573"/>
     </row>
     <row r="13" spans="1:11" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="635" t="s">
+      <c r="A13" s="624" t="s">
         <v>342</v>
       </c>
-      <c r="B13" s="636"/>
-      <c r="C13" s="636"/>
-      <c r="D13" s="636"/>
-      <c r="E13" s="636"/>
-      <c r="F13" s="636"/>
-      <c r="G13" s="636"/>
-      <c r="H13" s="636"/>
-      <c r="I13" s="636"/>
-      <c r="J13" s="636"/>
-      <c r="K13" s="637"/>
+      <c r="B13" s="625"/>
+      <c r="C13" s="625"/>
+      <c r="D13" s="625"/>
+      <c r="E13" s="625"/>
+      <c r="F13" s="625"/>
+      <c r="G13" s="625"/>
+      <c r="H13" s="625"/>
+      <c r="I13" s="625"/>
+      <c r="J13" s="625"/>
+      <c r="K13" s="626"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="605" t="s">
+      <c r="A14" s="636" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="606"/>
-      <c r="C14" s="606"/>
-      <c r="D14" s="606"/>
-      <c r="E14" s="606"/>
-      <c r="F14" s="606"/>
-      <c r="G14" s="606"/>
-      <c r="H14" s="606"/>
-      <c r="I14" s="606"/>
-      <c r="J14" s="606"/>
-      <c r="K14" s="607"/>
+      <c r="B14" s="637"/>
+      <c r="C14" s="637"/>
+      <c r="D14" s="637"/>
+      <c r="E14" s="637"/>
+      <c r="F14" s="637"/>
+      <c r="G14" s="637"/>
+      <c r="H14" s="637"/>
+      <c r="I14" s="637"/>
+      <c r="J14" s="637"/>
+      <c r="K14" s="638"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="608" t="s">
+      <c r="A15" s="619" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="495" t="s">
+      <c r="B15" s="593" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="599"/>
-      <c r="D15" s="600"/>
-      <c r="E15" s="516" t="s">
+      <c r="C15" s="630"/>
+      <c r="D15" s="631"/>
+      <c r="E15" s="565" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="517"/>
-      <c r="G15" s="511" t="s">
+      <c r="F15" s="566"/>
+      <c r="G15" s="605" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="521" t="s">
+      <c r="H15" s="584" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="515" t="s">
+      <c r="I15" s="580" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="601"/>
-      <c r="K15" s="628"/>
+      <c r="J15" s="632"/>
+      <c r="K15" s="663"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="609"/>
-      <c r="B16" s="601"/>
-      <c r="C16" s="601"/>
-      <c r="D16" s="602"/>
-      <c r="E16" s="497"/>
-      <c r="F16" s="498"/>
-      <c r="G16" s="511"/>
-      <c r="H16" s="521"/>
-      <c r="I16" s="629"/>
-      <c r="J16" s="601"/>
-      <c r="K16" s="628"/>
+      <c r="A16" s="620"/>
+      <c r="B16" s="632"/>
+      <c r="C16" s="632"/>
+      <c r="D16" s="633"/>
+      <c r="E16" s="567"/>
+      <c r="F16" s="568"/>
+      <c r="G16" s="605"/>
+      <c r="H16" s="584"/>
+      <c r="I16" s="664"/>
+      <c r="J16" s="632"/>
+      <c r="K16" s="663"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="603"/>
-      <c r="C17" s="603"/>
-      <c r="D17" s="604"/>
+      <c r="B17" s="634"/>
+      <c r="C17" s="634"/>
+      <c r="D17" s="635"/>
       <c r="E17" s="281" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="512"/>
-      <c r="H17" s="522"/>
-      <c r="I17" s="630"/>
-      <c r="J17" s="603"/>
-      <c r="K17" s="631"/>
+      <c r="G17" s="606"/>
+      <c r="H17" s="585"/>
+      <c r="I17" s="665"/>
+      <c r="J17" s="634"/>
+      <c r="K17" s="666"/>
     </row>
     <row r="18" spans="1:11" s="261" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="638"/>
-      <c r="B18" s="639"/>
-      <c r="C18" s="774"/>
-      <c r="D18" s="775"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
+      <c r="A18" s="610"/>
+      <c r="B18" s="611"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="319"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289"/>
       <c r="G18" s="263"/>
       <c r="H18" s="263"/>
-      <c r="I18" s="641"/>
-      <c r="J18" s="642"/>
-      <c r="K18" s="643"/>
+      <c r="I18" s="616"/>
+      <c r="J18" s="617"/>
+      <c r="K18" s="618"/>
     </row>
     <row r="19" spans="1:11" s="260" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="638"/>
-      <c r="B19" s="639"/>
-      <c r="C19" s="639"/>
-      <c r="D19" s="640"/>
+      <c r="A19" s="610"/>
+      <c r="B19" s="611"/>
+      <c r="C19" s="611"/>
+      <c r="D19" s="615"/>
       <c r="E19" s="277"/>
       <c r="F19" s="262"/>
       <c r="G19" s="263"/>
       <c r="H19" s="263"/>
-      <c r="I19" s="641"/>
-      <c r="J19" s="642"/>
-      <c r="K19" s="643"/>
+      <c r="I19" s="616"/>
+      <c r="J19" s="617"/>
+      <c r="K19" s="618"/>
     </row>
     <row r="20" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="638"/>
-      <c r="B20" s="639"/>
-      <c r="C20" s="639"/>
-      <c r="D20" s="640"/>
+      <c r="A20" s="610"/>
+      <c r="B20" s="611"/>
+      <c r="C20" s="611"/>
+      <c r="D20" s="615"/>
       <c r="E20" s="277"/>
       <c r="F20" s="277"/>
       <c r="G20" s="263"/>
       <c r="H20" s="263"/>
-      <c r="I20" s="641"/>
-      <c r="J20" s="642"/>
-      <c r="K20" s="643"/>
+      <c r="I20" s="616"/>
+      <c r="J20" s="617"/>
+      <c r="K20" s="618"/>
     </row>
     <row r="21" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="638"/>
-      <c r="B21" s="639"/>
-      <c r="C21" s="639"/>
-      <c r="D21" s="640"/>
+      <c r="A21" s="610"/>
+      <c r="B21" s="611"/>
+      <c r="C21" s="611"/>
+      <c r="D21" s="615"/>
       <c r="E21" s="277"/>
       <c r="F21" s="277"/>
       <c r="G21" s="263"/>
       <c r="H21" s="263"/>
-      <c r="I21" s="641"/>
-      <c r="J21" s="642"/>
-      <c r="K21" s="643"/>
+      <c r="I21" s="616"/>
+      <c r="J21" s="617"/>
+      <c r="K21" s="618"/>
     </row>
     <row r="22" spans="1:11" s="280" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="638"/>
-      <c r="B22" s="639"/>
-      <c r="C22" s="639"/>
-      <c r="D22" s="640"/>
+      <c r="A22" s="610"/>
+      <c r="B22" s="611"/>
+      <c r="C22" s="611"/>
+      <c r="D22" s="615"/>
       <c r="E22" s="277"/>
       <c r="F22" s="277"/>
       <c r="G22" s="263"/>
       <c r="H22" s="263"/>
-      <c r="I22" s="641"/>
-      <c r="J22" s="642"/>
-      <c r="K22" s="643"/>
+      <c r="I22" s="616"/>
+      <c r="J22" s="617"/>
+      <c r="K22" s="618"/>
     </row>
     <row r="23" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="638"/>
-      <c r="B23" s="639"/>
-      <c r="C23" s="639"/>
-      <c r="D23" s="640"/>
+      <c r="A23" s="610"/>
+      <c r="B23" s="611"/>
+      <c r="C23" s="611"/>
+      <c r="D23" s="615"/>
       <c r="E23" s="279"/>
       <c r="F23" s="279"/>
       <c r="G23" s="263"/>
       <c r="H23" s="263"/>
-      <c r="I23" s="641"/>
-      <c r="J23" s="642"/>
-      <c r="K23" s="643"/>
+      <c r="I23" s="616"/>
+      <c r="J23" s="617"/>
+      <c r="K23" s="618"/>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="638"/>
-      <c r="B24" s="639"/>
-      <c r="C24" s="639"/>
-      <c r="D24" s="640"/>
+      <c r="A24" s="610"/>
+      <c r="B24" s="611"/>
+      <c r="C24" s="611"/>
+      <c r="D24" s="615"/>
       <c r="E24" s="262"/>
       <c r="F24" s="262"/>
       <c r="G24" s="263"/>
       <c r="H24" s="263"/>
-      <c r="I24" s="578"/>
-      <c r="J24" s="579"/>
-      <c r="K24" s="580"/>
+      <c r="I24" s="612"/>
+      <c r="J24" s="613"/>
+      <c r="K24" s="614"/>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="638"/>
-      <c r="B25" s="639"/>
-      <c r="C25" s="639"/>
-      <c r="D25" s="640"/>
+      <c r="A25" s="610"/>
+      <c r="B25" s="611"/>
+      <c r="C25" s="611"/>
+      <c r="D25" s="615"/>
       <c r="E25" s="262"/>
       <c r="F25" s="262"/>
       <c r="G25" s="263"/>
       <c r="H25" s="263"/>
-      <c r="I25" s="578"/>
-      <c r="J25" s="579"/>
-      <c r="K25" s="580"/>
+      <c r="I25" s="612"/>
+      <c r="J25" s="613"/>
+      <c r="K25" s="614"/>
     </row>
     <row r="26" spans="1:11" s="195" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="314"/>
-      <c r="B26" s="315"/>
-      <c r="C26" s="315"/>
-      <c r="D26" s="316"/>
+      <c r="A26" s="308"/>
+      <c r="B26" s="309"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="310"/>
       <c r="E26" s="262"/>
       <c r="F26" s="262"/>
       <c r="G26" s="263"/>
       <c r="H26" s="263"/>
-      <c r="I26" s="578"/>
-      <c r="J26" s="579"/>
-      <c r="K26" s="580"/>
+      <c r="I26" s="612"/>
+      <c r="J26" s="613"/>
+      <c r="K26" s="614"/>
     </row>
     <row r="27" spans="1:11" s="261" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="314"/>
-      <c r="B27" s="315"/>
-      <c r="C27" s="315"/>
-      <c r="D27" s="316"/>
+      <c r="A27" s="308"/>
+      <c r="B27" s="309"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="310"/>
       <c r="E27" s="262"/>
       <c r="F27" s="262"/>
       <c r="G27" s="263"/>
       <c r="H27" s="263"/>
-      <c r="I27" s="578"/>
-      <c r="J27" s="579"/>
-      <c r="K27" s="580"/>
+      <c r="I27" s="612"/>
+      <c r="J27" s="613"/>
+      <c r="K27" s="614"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="776"/>
-      <c r="B28" s="777"/>
-      <c r="C28" s="778"/>
-      <c r="D28" s="779"/>
-      <c r="E28" s="296"/>
-      <c r="F28" s="296"/>
+      <c r="A28" s="320"/>
+      <c r="B28" s="321"/>
+      <c r="C28" s="322"/>
+      <c r="D28" s="323"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
       <c r="G28" s="264"/>
       <c r="H28" s="264"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="292"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="288"/>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="581"/>
-      <c r="B29" s="582"/>
-      <c r="C29" s="582"/>
-      <c r="D29" s="583"/>
+      <c r="A29" s="673"/>
+      <c r="B29" s="674"/>
+      <c r="C29" s="674"/>
+      <c r="D29" s="675"/>
       <c r="E29" s="278"/>
       <c r="F29" s="278"/>
       <c r="G29" s="275"/>
       <c r="H29" s="276"/>
-      <c r="I29" s="578"/>
-      <c r="J29" s="579"/>
-      <c r="K29" s="580"/>
+      <c r="I29" s="612"/>
+      <c r="J29" s="613"/>
+      <c r="K29" s="614"/>
     </row>
     <row r="30" spans="1:11" s="258" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="581"/>
-      <c r="B30" s="582"/>
-      <c r="C30" s="582"/>
-      <c r="D30" s="583"/>
+      <c r="A30" s="673"/>
+      <c r="B30" s="674"/>
+      <c r="C30" s="674"/>
+      <c r="D30" s="675"/>
       <c r="E30" s="278"/>
       <c r="F30" s="278"/>
       <c r="G30" s="275"/>
       <c r="H30" s="276"/>
-      <c r="I30" s="578"/>
-      <c r="J30" s="579"/>
-      <c r="K30" s="580"/>
+      <c r="I30" s="612"/>
+      <c r="J30" s="613"/>
+      <c r="K30" s="614"/>
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="581"/>
-      <c r="B31" s="582"/>
-      <c r="C31" s="582"/>
-      <c r="D31" s="583"/>
+      <c r="A31" s="673"/>
+      <c r="B31" s="674"/>
+      <c r="C31" s="674"/>
+      <c r="D31" s="675"/>
       <c r="E31" s="274"/>
       <c r="F31" s="274"/>
       <c r="G31" s="275"/>
       <c r="H31" s="276"/>
-      <c r="I31" s="578"/>
-      <c r="J31" s="579"/>
-      <c r="K31" s="580"/>
+      <c r="I31" s="612"/>
+      <c r="J31" s="613"/>
+      <c r="K31" s="614"/>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="581"/>
-      <c r="B32" s="582"/>
-      <c r="C32" s="582"/>
-      <c r="D32" s="583"/>
+      <c r="A32" s="673"/>
+      <c r="B32" s="674"/>
+      <c r="C32" s="674"/>
+      <c r="D32" s="675"/>
       <c r="E32" s="274"/>
       <c r="F32" s="274"/>
       <c r="G32" s="275"/>
       <c r="H32" s="276"/>
-      <c r="I32" s="578"/>
-      <c r="J32" s="579"/>
-      <c r="K32" s="580"/>
+      <c r="I32" s="612"/>
+      <c r="J32" s="613"/>
+      <c r="K32" s="614"/>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="581"/>
-      <c r="B33" s="582"/>
-      <c r="C33" s="582"/>
-      <c r="D33" s="583"/>
+      <c r="A33" s="673"/>
+      <c r="B33" s="674"/>
+      <c r="C33" s="674"/>
+      <c r="D33" s="675"/>
       <c r="E33" s="274"/>
       <c r="F33" s="274"/>
       <c r="G33" s="275"/>
       <c r="H33" s="276"/>
-      <c r="I33" s="578"/>
-      <c r="J33" s="579"/>
-      <c r="K33" s="580"/>
+      <c r="I33" s="612"/>
+      <c r="J33" s="613"/>
+      <c r="K33" s="614"/>
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="581"/>
-      <c r="B34" s="582"/>
-      <c r="C34" s="582"/>
-      <c r="D34" s="583"/>
+      <c r="A34" s="673"/>
+      <c r="B34" s="674"/>
+      <c r="C34" s="674"/>
+      <c r="D34" s="675"/>
       <c r="E34" s="274"/>
       <c r="F34" s="274"/>
       <c r="G34" s="275"/>
       <c r="H34" s="276"/>
-      <c r="I34" s="587"/>
-      <c r="J34" s="588"/>
-      <c r="K34" s="589"/>
+      <c r="I34" s="685"/>
+      <c r="J34" s="686"/>
+      <c r="K34" s="687"/>
     </row>
     <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="581"/>
-      <c r="B35" s="582"/>
-      <c r="C35" s="582"/>
-      <c r="D35" s="583"/>
+      <c r="A35" s="673"/>
+      <c r="B35" s="674"/>
+      <c r="C35" s="674"/>
+      <c r="D35" s="675"/>
       <c r="E35" s="274"/>
       <c r="F35" s="274"/>
       <c r="G35" s="275"/>
       <c r="H35" s="276"/>
-      <c r="I35" s="584"/>
-      <c r="J35" s="585"/>
-      <c r="K35" s="586"/>
+      <c r="I35" s="682"/>
+      <c r="J35" s="683"/>
+      <c r="K35" s="684"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="581"/>
-      <c r="B36" s="582"/>
-      <c r="C36" s="582"/>
-      <c r="D36" s="583"/>
+      <c r="A36" s="673"/>
+      <c r="B36" s="674"/>
+      <c r="C36" s="674"/>
+      <c r="D36" s="675"/>
       <c r="E36" s="274"/>
       <c r="F36" s="274"/>
       <c r="G36" s="275"/>
       <c r="H36" s="276"/>
-      <c r="I36" s="578"/>
-      <c r="J36" s="579"/>
-      <c r="K36" s="580"/>
+      <c r="I36" s="612"/>
+      <c r="J36" s="613"/>
+      <c r="K36" s="614"/>
     </row>
     <row r="37" spans="1:11" s="188" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="581"/>
-      <c r="B37" s="582"/>
-      <c r="C37" s="582"/>
-      <c r="D37" s="583"/>
+      <c r="A37" s="673"/>
+      <c r="B37" s="674"/>
+      <c r="C37" s="674"/>
+      <c r="D37" s="675"/>
       <c r="E37" s="274"/>
       <c r="F37" s="274"/>
       <c r="G37" s="275"/>
       <c r="H37" s="276"/>
-      <c r="I37" s="578"/>
-      <c r="J37" s="579"/>
-      <c r="K37" s="580"/>
+      <c r="I37" s="612"/>
+      <c r="J37" s="613"/>
+      <c r="K37" s="614"/>
     </row>
     <row r="38" spans="1:11" s="188" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="780"/>
-      <c r="B38" s="781"/>
-      <c r="C38" s="781"/>
-      <c r="D38" s="782"/>
+      <c r="A38" s="679"/>
+      <c r="B38" s="680"/>
+      <c r="C38" s="680"/>
+      <c r="D38" s="681"/>
       <c r="E38" s="265"/>
       <c r="F38" s="265"/>
       <c r="G38" s="266"/>
       <c r="H38" s="267"/>
-      <c r="I38" s="783"/>
-      <c r="J38" s="784"/>
-      <c r="K38" s="785"/>
+      <c r="I38" s="676"/>
+      <c r="J38" s="677"/>
+      <c r="K38" s="678"/>
     </row>
     <row r="39" spans="1:11" s="259" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="268"/>
@@ -14177,8 +14177,8 @@
       <c r="G39" s="266"/>
       <c r="H39" s="267"/>
       <c r="I39" s="271"/>
-      <c r="J39" s="786"/>
-      <c r="K39" s="787"/>
+      <c r="J39" s="324"/>
+      <c r="K39" s="325"/>
     </row>
     <row r="40" spans="1:11" s="188" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="268"/>
@@ -14190,8 +14190,8 @@
       <c r="G40" s="266"/>
       <c r="H40" s="267"/>
       <c r="I40" s="271"/>
-      <c r="J40" s="786"/>
-      <c r="K40" s="787"/>
+      <c r="J40" s="324"/>
+      <c r="K40" s="325"/>
     </row>
     <row r="41" spans="1:11" s="188" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="268"/>
@@ -14203,51 +14203,51 @@
       <c r="G41" s="266"/>
       <c r="H41" s="267"/>
       <c r="I41" s="271"/>
-      <c r="J41" s="786"/>
-      <c r="K41" s="787"/>
+      <c r="J41" s="324"/>
+      <c r="K41" s="325"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="590"/>
-      <c r="B42" s="591"/>
-      <c r="C42" s="591"/>
-      <c r="D42" s="592"/>
+      <c r="A42" s="667"/>
+      <c r="B42" s="668"/>
+      <c r="C42" s="668"/>
+      <c r="D42" s="669"/>
       <c r="E42" s="265"/>
       <c r="F42" s="265"/>
       <c r="G42" s="272"/>
       <c r="H42" s="273"/>
-      <c r="I42" s="593"/>
-      <c r="J42" s="594"/>
-      <c r="K42" s="595"/>
+      <c r="I42" s="670"/>
+      <c r="J42" s="671"/>
+      <c r="K42" s="672"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="328" t="s">
+      <c r="A43" s="522" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="329"/>
-      <c r="C43" s="329"/>
-      <c r="D43" s="329"/>
-      <c r="E43" s="329"/>
-      <c r="F43" s="329"/>
-      <c r="G43" s="329"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="329"/>
-      <c r="J43" s="329"/>
-      <c r="K43" s="330"/>
+      <c r="B43" s="523"/>
+      <c r="C43" s="523"/>
+      <c r="D43" s="523"/>
+      <c r="E43" s="523"/>
+      <c r="F43" s="523"/>
+      <c r="G43" s="523"/>
+      <c r="H43" s="523"/>
+      <c r="I43" s="523"/>
+      <c r="J43" s="523"/>
+      <c r="K43" s="524"/>
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="574" t="s">
+      <c r="A44" s="688" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="575"/>
-      <c r="C44" s="575"/>
-      <c r="D44" s="575"/>
-      <c r="E44" s="575"/>
-      <c r="F44" s="575"/>
-      <c r="G44" s="575"/>
-      <c r="H44" s="575"/>
-      <c r="I44" s="575"/>
-      <c r="J44" s="575"/>
-      <c r="K44" s="576"/>
+      <c r="B44" s="689"/>
+      <c r="C44" s="689"/>
+      <c r="D44" s="689"/>
+      <c r="E44" s="689"/>
+      <c r="F44" s="689"/>
+      <c r="G44" s="689"/>
+      <c r="H44" s="689"/>
+      <c r="I44" s="689"/>
+      <c r="J44" s="689"/>
+      <c r="K44" s="690"/>
     </row>
     <row r="45" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="125" t="s">
@@ -14259,130 +14259,130 @@
       <c r="C45" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="549" t="s">
+      <c r="D45" s="691" t="s">
         <v>364</v>
       </c>
-      <c r="E45" s="549"/>
-      <c r="F45" s="549"/>
-      <c r="G45" s="549"/>
-      <c r="H45" s="577"/>
+      <c r="E45" s="691"/>
+      <c r="F45" s="691"/>
+      <c r="G45" s="691"/>
+      <c r="H45" s="692"/>
       <c r="I45" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="549" t="s">
+      <c r="J45" s="691" t="s">
         <v>86</v>
       </c>
-      <c r="K45" s="550"/>
+      <c r="K45" s="701"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="547"/>
-      <c r="B46" s="548"/>
-      <c r="C46" s="560"/>
-      <c r="D46" s="561"/>
-      <c r="E46" s="561"/>
-      <c r="F46" s="561"/>
-      <c r="G46" s="561"/>
-      <c r="H46" s="562"/>
-      <c r="I46" s="557"/>
-      <c r="J46" s="558"/>
-      <c r="K46" s="559"/>
+      <c r="A46" s="696"/>
+      <c r="B46" s="697"/>
+      <c r="C46" s="556"/>
+      <c r="D46" s="557"/>
+      <c r="E46" s="557"/>
+      <c r="F46" s="557"/>
+      <c r="G46" s="557"/>
+      <c r="H46" s="558"/>
+      <c r="I46" s="705"/>
+      <c r="J46" s="706"/>
+      <c r="K46" s="707"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="547"/>
-      <c r="B47" s="548"/>
-      <c r="C47" s="560"/>
-      <c r="D47" s="561"/>
-      <c r="E47" s="561"/>
-      <c r="F47" s="561"/>
-      <c r="G47" s="561"/>
-      <c r="H47" s="562"/>
-      <c r="I47" s="551"/>
-      <c r="J47" s="552"/>
-      <c r="K47" s="553"/>
+      <c r="A47" s="696"/>
+      <c r="B47" s="697"/>
+      <c r="C47" s="556"/>
+      <c r="D47" s="557"/>
+      <c r="E47" s="557"/>
+      <c r="F47" s="557"/>
+      <c r="G47" s="557"/>
+      <c r="H47" s="558"/>
+      <c r="I47" s="693"/>
+      <c r="J47" s="694"/>
+      <c r="K47" s="695"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="547"/>
-      <c r="B48" s="548"/>
-      <c r="C48" s="560"/>
-      <c r="D48" s="561"/>
-      <c r="E48" s="561"/>
-      <c r="F48" s="561"/>
-      <c r="G48" s="561"/>
-      <c r="H48" s="562"/>
-      <c r="I48" s="551"/>
-      <c r="J48" s="552"/>
-      <c r="K48" s="553"/>
+      <c r="A48" s="696"/>
+      <c r="B48" s="697"/>
+      <c r="C48" s="556"/>
+      <c r="D48" s="557"/>
+      <c r="E48" s="557"/>
+      <c r="F48" s="557"/>
+      <c r="G48" s="557"/>
+      <c r="H48" s="558"/>
+      <c r="I48" s="693"/>
+      <c r="J48" s="694"/>
+      <c r="K48" s="695"/>
     </row>
     <row r="49" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="547"/>
-      <c r="B49" s="548"/>
-      <c r="C49" s="560"/>
-      <c r="D49" s="561"/>
-      <c r="E49" s="561"/>
-      <c r="F49" s="561"/>
-      <c r="G49" s="561"/>
-      <c r="H49" s="562"/>
-      <c r="I49" s="551"/>
-      <c r="J49" s="552"/>
-      <c r="K49" s="553"/>
+      <c r="A49" s="696"/>
+      <c r="B49" s="697"/>
+      <c r="C49" s="556"/>
+      <c r="D49" s="557"/>
+      <c r="E49" s="557"/>
+      <c r="F49" s="557"/>
+      <c r="G49" s="557"/>
+      <c r="H49" s="558"/>
+      <c r="I49" s="693"/>
+      <c r="J49" s="694"/>
+      <c r="K49" s="695"/>
     </row>
     <row r="50" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="547"/>
-      <c r="B50" s="548"/>
-      <c r="C50" s="560"/>
-      <c r="D50" s="561"/>
-      <c r="E50" s="561"/>
-      <c r="F50" s="561"/>
-      <c r="G50" s="561"/>
-      <c r="H50" s="562"/>
-      <c r="I50" s="551"/>
-      <c r="J50" s="552"/>
-      <c r="K50" s="553"/>
+      <c r="A50" s="696"/>
+      <c r="B50" s="697"/>
+      <c r="C50" s="556"/>
+      <c r="D50" s="557"/>
+      <c r="E50" s="557"/>
+      <c r="F50" s="557"/>
+      <c r="G50" s="557"/>
+      <c r="H50" s="558"/>
+      <c r="I50" s="693"/>
+      <c r="J50" s="694"/>
+      <c r="K50" s="695"/>
     </row>
     <row r="51" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="563"/>
-      <c r="B51" s="564"/>
-      <c r="C51" s="539"/>
-      <c r="D51" s="540"/>
-      <c r="E51" s="540"/>
-      <c r="F51" s="540"/>
-      <c r="G51" s="540"/>
-      <c r="H51" s="541"/>
-      <c r="I51" s="551"/>
-      <c r="J51" s="552"/>
-      <c r="K51" s="553"/>
+      <c r="A51" s="708"/>
+      <c r="B51" s="709"/>
+      <c r="C51" s="710"/>
+      <c r="D51" s="711"/>
+      <c r="E51" s="711"/>
+      <c r="F51" s="711"/>
+      <c r="G51" s="711"/>
+      <c r="H51" s="712"/>
+      <c r="I51" s="693"/>
+      <c r="J51" s="694"/>
+      <c r="K51" s="695"/>
     </row>
     <row r="52" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="328" t="s">
+      <c r="A52" s="522" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="329"/>
-      <c r="C52" s="329"/>
-      <c r="D52" s="329"/>
-      <c r="E52" s="329"/>
-      <c r="F52" s="329"/>
-      <c r="G52" s="329"/>
-      <c r="H52" s="329"/>
-      <c r="I52" s="329"/>
-      <c r="J52" s="329"/>
-      <c r="K52" s="528"/>
+      <c r="B52" s="523"/>
+      <c r="C52" s="523"/>
+      <c r="D52" s="523"/>
+      <c r="E52" s="523"/>
+      <c r="F52" s="523"/>
+      <c r="G52" s="523"/>
+      <c r="H52" s="523"/>
+      <c r="I52" s="523"/>
+      <c r="J52" s="523"/>
+      <c r="K52" s="573"/>
     </row>
     <row r="53" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="325" t="s">
+      <c r="A53" s="519" t="s">
         <v>390</v>
       </c>
-      <c r="B53" s="327"/>
-      <c r="C53" s="489"/>
-      <c r="D53" s="490"/>
-      <c r="E53" s="490"/>
-      <c r="F53" s="491"/>
-      <c r="G53" s="554" t="s">
+      <c r="B53" s="521"/>
+      <c r="C53" s="587"/>
+      <c r="D53" s="588"/>
+      <c r="E53" s="588"/>
+      <c r="F53" s="589"/>
+      <c r="G53" s="702" t="s">
         <v>391</v>
       </c>
-      <c r="H53" s="555"/>
-      <c r="I53" s="556"/>
-      <c r="J53" s="490"/>
-      <c r="K53" s="491"/>
+      <c r="H53" s="703"/>
+      <c r="I53" s="704"/>
+      <c r="J53" s="588"/>
+      <c r="K53" s="589"/>
       <c r="L53" s="241"/>
       <c r="M53" s="241"/>
     </row>
@@ -14403,28 +14403,64 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="96">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B15:D17"/>
     <mergeCell ref="A14:K14"/>
@@ -14441,64 +14477,28 @@
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="I15:K17"/>
     <mergeCell ref="E15:F16"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14538,35 +14538,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="755"/>
-      <c r="B1" s="756"/>
-      <c r="C1" s="756"/>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="757"/>
+      <c r="A1" s="719"/>
+      <c r="B1" s="720"/>
+      <c r="C1" s="720"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="720"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="721"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="744" t="s">
+      <c r="A2" s="743" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="745"/>
-      <c r="C2" s="760" t="s">
+      <c r="B2" s="744"/>
+      <c r="C2" s="724" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="760"/>
-      <c r="E2" s="760"/>
-      <c r="F2" s="761"/>
+      <c r="D2" s="724"/>
+      <c r="E2" s="724"/>
+      <c r="F2" s="725"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="758"/>
-      <c r="J2" s="758"/>
+      <c r="I2" s="722"/>
+      <c r="J2" s="722"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
@@ -14574,16 +14574,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="748" t="s">
+      <c r="C3" s="728" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="748"/>
-      <c r="E3" s="748"/>
-      <c r="F3" s="749"/>
+      <c r="D3" s="728"/>
+      <c r="E3" s="728"/>
+      <c r="F3" s="729"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="759"/>
-      <c r="J3" s="759"/>
+      <c r="I3" s="723"/>
+      <c r="J3" s="723"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
@@ -14591,12 +14591,12 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="748" t="s">
+      <c r="C4" s="728" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="748"/>
-      <c r="E4" s="748"/>
-      <c r="F4" s="749"/>
+      <c r="D4" s="728"/>
+      <c r="E4" s="728"/>
+      <c r="F4" s="729"/>
       <c r="G4" s="173"/>
       <c r="H4" s="236"/>
       <c r="I4" s="173"/>
@@ -14608,33 +14608,33 @@
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="748"/>
-      <c r="D5" s="748"/>
-      <c r="E5" s="748"/>
-      <c r="F5" s="749"/>
-      <c r="G5" s="677"/>
-      <c r="H5" s="677"/>
-      <c r="I5" s="677"/>
-      <c r="J5" s="677"/>
-      <c r="K5" s="677"/>
-      <c r="L5" s="677"/>
+      <c r="C5" s="728"/>
+      <c r="D5" s="728"/>
+      <c r="E5" s="728"/>
+      <c r="F5" s="729"/>
+      <c r="G5" s="717"/>
+      <c r="H5" s="717"/>
+      <c r="I5" s="717"/>
+      <c r="J5" s="717"/>
+      <c r="K5" s="717"/>
+      <c r="L5" s="717"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="748" t="s">
+      <c r="C6" s="728" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="748"/>
-      <c r="E6" s="748"/>
-      <c r="F6" s="749"/>
+      <c r="D6" s="728"/>
+      <c r="E6" s="728"/>
+      <c r="F6" s="729"/>
       <c r="G6" s="135"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="753"/>
-      <c r="J6" s="753"/>
-      <c r="K6" s="753"/>
-      <c r="L6" s="753"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="748"/>
+      <c r="J6" s="748"/>
+      <c r="K6" s="748"/>
+      <c r="L6" s="748"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="134" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -14655,14 +14655,14 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="748" t="s">
+      <c r="C8" s="728" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="748"/>
-      <c r="E8" s="748"/>
-      <c r="F8" s="749"/>
+      <c r="D8" s="728"/>
+      <c r="E8" s="728"/>
+      <c r="F8" s="729"/>
       <c r="G8" s="173"/>
-      <c r="H8" s="323"/>
+      <c r="H8" s="317"/>
       <c r="I8" s="173"/>
       <c r="J8" s="173"/>
       <c r="K8" s="173"/>
@@ -14687,63 +14687,63 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="748"/>
-      <c r="D10" s="748"/>
-      <c r="E10" s="748"/>
-      <c r="F10" s="749"/>
-      <c r="G10" s="677" t="s">
+      <c r="C10" s="728"/>
+      <c r="D10" s="728"/>
+      <c r="E10" s="728"/>
+      <c r="F10" s="729"/>
+      <c r="G10" s="717" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="677"/>
-      <c r="I10" s="677"/>
-      <c r="J10" s="677"/>
-      <c r="K10" s="677"/>
-      <c r="L10" s="677"/>
+      <c r="H10" s="717"/>
+      <c r="I10" s="717"/>
+      <c r="J10" s="717"/>
+      <c r="K10" s="717"/>
+      <c r="L10" s="717"/>
       <c r="M10" s="71"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="748"/>
-      <c r="D11" s="748"/>
-      <c r="E11" s="748"/>
-      <c r="F11" s="749"/>
+      <c r="C11" s="728"/>
+      <c r="D11" s="728"/>
+      <c r="E11" s="728"/>
+      <c r="F11" s="729"/>
       <c r="G11" s="136"/>
-      <c r="H11" s="754"/>
-      <c r="I11" s="754"/>
-      <c r="J11" s="754"/>
-      <c r="K11" s="754"/>
-      <c r="L11" s="754"/>
+      <c r="H11" s="749"/>
+      <c r="I11" s="749"/>
+      <c r="J11" s="749"/>
+      <c r="K11" s="749"/>
+      <c r="L11" s="749"/>
       <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="750"/>
-      <c r="D12" s="750"/>
-      <c r="E12" s="750"/>
-      <c r="F12" s="751"/>
+      <c r="C12" s="745"/>
+      <c r="D12" s="745"/>
+      <c r="E12" s="745"/>
+      <c r="F12" s="746"/>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
-      <c r="I12" s="752"/>
-      <c r="J12" s="752"/>
-      <c r="K12" s="752"/>
-      <c r="L12" s="752"/>
+      <c r="I12" s="747"/>
+      <c r="J12" s="747"/>
+      <c r="K12" s="747"/>
+      <c r="L12" s="747"/>
       <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="772" t="s">
+      <c r="A13" s="713" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="773"/>
-      <c r="C13" s="768" t="s">
+      <c r="B13" s="714"/>
+      <c r="C13" s="715" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="768"/>
-      <c r="E13" s="601"/>
-      <c r="F13" s="602"/>
+      <c r="D13" s="715"/>
+      <c r="E13" s="632"/>
+      <c r="F13" s="633"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="320"/>
+      <c r="H13" s="314"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -14753,48 +14753,48 @@
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
-      <c r="C14" s="768"/>
-      <c r="D14" s="768"/>
-      <c r="E14" s="601"/>
-      <c r="F14" s="602"/>
-      <c r="G14" s="676" t="s">
+      <c r="C14" s="715"/>
+      <c r="D14" s="715"/>
+      <c r="E14" s="632"/>
+      <c r="F14" s="633"/>
+      <c r="G14" s="716" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="677"/>
-      <c r="I14" s="677"/>
-      <c r="J14" s="677"/>
-      <c r="K14" s="677"/>
-      <c r="L14" s="677"/>
+      <c r="H14" s="717"/>
+      <c r="I14" s="717"/>
+      <c r="J14" s="717"/>
+      <c r="K14" s="717"/>
+      <c r="L14" s="717"/>
       <c r="M14" s="111"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
-      <c r="C15" s="768"/>
-      <c r="D15" s="768"/>
-      <c r="E15" s="601"/>
-      <c r="F15" s="602"/>
+      <c r="C15" s="715"/>
+      <c r="D15" s="715"/>
+      <c r="E15" s="632"/>
+      <c r="F15" s="633"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="651"/>
-      <c r="I15" s="651"/>
-      <c r="J15" s="651"/>
-      <c r="K15" s="651"/>
-      <c r="L15" s="651"/>
+      <c r="H15" s="822"/>
+      <c r="I15" s="822"/>
+      <c r="J15" s="822"/>
+      <c r="K15" s="822"/>
+      <c r="L15" s="822"/>
       <c r="M15" s="111"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="601"/>
-      <c r="D16" s="601"/>
-      <c r="E16" s="601"/>
-      <c r="F16" s="602"/>
+      <c r="C16" s="632"/>
+      <c r="D16" s="632"/>
+      <c r="E16" s="632"/>
+      <c r="F16" s="633"/>
       <c r="G16" s="108"/>
       <c r="H16" s="246"/>
-      <c r="I16" s="765"/>
-      <c r="J16" s="765"/>
-      <c r="K16" s="765"/>
-      <c r="L16" s="765"/>
+      <c r="I16" s="718"/>
+      <c r="J16" s="718"/>
+      <c r="K16" s="718"/>
+      <c r="L16" s="718"/>
       <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14815,14 +14815,14 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="679" t="s">
+      <c r="C18" s="845" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="679"/>
-      <c r="E18" s="680"/>
-      <c r="F18" s="681"/>
+      <c r="D18" s="845"/>
+      <c r="E18" s="846"/>
+      <c r="F18" s="847"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="321"/>
+      <c r="H18" s="315"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -14832,84 +14832,84 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="679"/>
-      <c r="D19" s="679"/>
-      <c r="E19" s="680"/>
-      <c r="F19" s="681"/>
-      <c r="G19" s="646" t="s">
+      <c r="C19" s="845"/>
+      <c r="D19" s="845"/>
+      <c r="E19" s="846"/>
+      <c r="F19" s="847"/>
+      <c r="G19" s="853" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="647"/>
-      <c r="I19" s="647"/>
-      <c r="J19" s="647"/>
-      <c r="K19" s="648"/>
-      <c r="L19" s="648"/>
+      <c r="H19" s="854"/>
+      <c r="I19" s="854"/>
+      <c r="J19" s="854"/>
+      <c r="K19" s="855"/>
+      <c r="L19" s="855"/>
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="679"/>
-      <c r="D20" s="679"/>
-      <c r="E20" s="680"/>
-      <c r="F20" s="681"/>
+      <c r="C20" s="845"/>
+      <c r="D20" s="845"/>
+      <c r="E20" s="846"/>
+      <c r="F20" s="847"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="652" t="s">
+      <c r="H20" s="823" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="652"/>
+      <c r="I20" s="823"/>
       <c r="J20" s="255"/>
-      <c r="K20" s="649"/>
-      <c r="L20" s="649"/>
+      <c r="K20" s="856"/>
+      <c r="L20" s="856"/>
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" s="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="679"/>
-      <c r="D21" s="679"/>
-      <c r="E21" s="680"/>
-      <c r="F21" s="681"/>
-      <c r="G21" s="653" t="s">
+      <c r="C21" s="845"/>
+      <c r="D21" s="845"/>
+      <c r="E21" s="846"/>
+      <c r="F21" s="847"/>
+      <c r="G21" s="824" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="654"/>
-      <c r="I21" s="654"/>
+      <c r="H21" s="825"/>
+      <c r="I21" s="825"/>
       <c r="J21" s="255"/>
-      <c r="K21" s="650"/>
-      <c r="L21" s="650"/>
+      <c r="K21" s="857"/>
+      <c r="L21" s="857"/>
       <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="682"/>
-      <c r="D22" s="682"/>
-      <c r="E22" s="682"/>
-      <c r="F22" s="683"/>
+      <c r="C22" s="848"/>
+      <c r="D22" s="848"/>
+      <c r="E22" s="848"/>
+      <c r="F22" s="849"/>
       <c r="G22" s="108" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="246"/>
-      <c r="I22" s="684"/>
-      <c r="J22" s="684"/>
-      <c r="K22" s="684"/>
+      <c r="I22" s="850"/>
+      <c r="J22" s="850"/>
+      <c r="K22" s="850"/>
       <c r="L22" s="113"/>
       <c r="M22" s="109"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="672" t="s">
+      <c r="A23" s="750" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="673"/>
-      <c r="C23" s="685" t="s">
+      <c r="B23" s="751"/>
+      <c r="C23" s="739" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="685"/>
-      <c r="E23" s="685"/>
-      <c r="F23" s="686"/>
+      <c r="D23" s="739"/>
+      <c r="E23" s="739"/>
+      <c r="F23" s="740"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="320"/>
+      <c r="H23" s="314"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -14919,63 +14919,63 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="687"/>
-      <c r="D24" s="687"/>
-      <c r="E24" s="687"/>
-      <c r="F24" s="688"/>
-      <c r="G24" s="676" t="s">
+      <c r="C24" s="731"/>
+      <c r="D24" s="731"/>
+      <c r="E24" s="731"/>
+      <c r="F24" s="730"/>
+      <c r="G24" s="716" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="677"/>
-      <c r="I24" s="677"/>
-      <c r="J24" s="677"/>
-      <c r="K24" s="677"/>
-      <c r="L24" s="677"/>
+      <c r="H24" s="717"/>
+      <c r="I24" s="717"/>
+      <c r="J24" s="717"/>
+      <c r="K24" s="717"/>
+      <c r="L24" s="717"/>
       <c r="M24" s="107"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="687"/>
-      <c r="D25" s="687"/>
-      <c r="E25" s="687"/>
-      <c r="F25" s="688"/>
+      <c r="C25" s="731"/>
+      <c r="D25" s="731"/>
+      <c r="E25" s="731"/>
+      <c r="F25" s="730"/>
       <c r="G25" s="106"/>
-      <c r="H25" s="644"/>
-      <c r="I25" s="644"/>
-      <c r="J25" s="644"/>
-      <c r="K25" s="644"/>
-      <c r="L25" s="644"/>
+      <c r="H25" s="852"/>
+      <c r="I25" s="852"/>
+      <c r="J25" s="852"/>
+      <c r="K25" s="852"/>
+      <c r="L25" s="852"/>
       <c r="M25" s="107"/>
     </row>
     <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="689"/>
-      <c r="D26" s="689"/>
-      <c r="E26" s="689"/>
-      <c r="F26" s="690"/>
+      <c r="C26" s="741"/>
+      <c r="D26" s="741"/>
+      <c r="E26" s="741"/>
+      <c r="F26" s="742"/>
       <c r="G26" s="108"/>
       <c r="H26" s="246"/>
-      <c r="I26" s="765"/>
-      <c r="J26" s="765"/>
-      <c r="K26" s="765"/>
-      <c r="L26" s="765"/>
+      <c r="I26" s="718"/>
+      <c r="J26" s="718"/>
+      <c r="K26" s="718"/>
+      <c r="L26" s="718"/>
       <c r="M26" s="109"/>
     </row>
     <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="672" t="s">
+      <c r="A27" s="750" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="673"/>
-      <c r="C27" s="685" t="s">
+      <c r="B27" s="751"/>
+      <c r="C27" s="739" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="685"/>
-      <c r="E27" s="685"/>
-      <c r="F27" s="686"/>
+      <c r="D27" s="739"/>
+      <c r="E27" s="739"/>
+      <c r="F27" s="740"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="320"/>
+      <c r="H27" s="314"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -14985,42 +14985,42 @@
     <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="687"/>
-      <c r="D28" s="687"/>
-      <c r="E28" s="687"/>
-      <c r="F28" s="688"/>
-      <c r="G28" s="676" t="s">
+      <c r="C28" s="731"/>
+      <c r="D28" s="731"/>
+      <c r="E28" s="731"/>
+      <c r="F28" s="730"/>
+      <c r="G28" s="716" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="677"/>
-      <c r="I28" s="677"/>
-      <c r="J28" s="677"/>
-      <c r="K28" s="677"/>
-      <c r="L28" s="677"/>
+      <c r="H28" s="717"/>
+      <c r="I28" s="717"/>
+      <c r="J28" s="717"/>
+      <c r="K28" s="717"/>
+      <c r="L28" s="717"/>
       <c r="M28" s="174"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="687"/>
-      <c r="D29" s="687"/>
-      <c r="E29" s="687"/>
-      <c r="F29" s="688"/>
+      <c r="C29" s="731"/>
+      <c r="D29" s="731"/>
+      <c r="E29" s="731"/>
+      <c r="F29" s="730"/>
       <c r="G29" s="173"/>
-      <c r="H29" s="645"/>
-      <c r="I29" s="645"/>
-      <c r="J29" s="645"/>
-      <c r="K29" s="645"/>
-      <c r="L29" s="645"/>
+      <c r="H29" s="752"/>
+      <c r="I29" s="752"/>
+      <c r="J29" s="752"/>
+      <c r="K29" s="752"/>
+      <c r="L29" s="752"/>
       <c r="M29" s="107"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="689"/>
-      <c r="D30" s="689"/>
-      <c r="E30" s="689"/>
-      <c r="F30" s="690"/>
+      <c r="C30" s="741"/>
+      <c r="D30" s="741"/>
+      <c r="E30" s="741"/>
+      <c r="F30" s="742"/>
       <c r="G30" s="130"/>
       <c r="H30" s="247"/>
       <c r="I30" s="176"/>
@@ -15030,18 +15030,18 @@
       <c r="M30" s="109"/>
     </row>
     <row r="31" spans="1:13" s="129" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="672" t="s">
+      <c r="A31" s="750" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="673"/>
-      <c r="C31" s="685" t="s">
+      <c r="B31" s="751"/>
+      <c r="C31" s="739" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="685"/>
-      <c r="E31" s="685"/>
-      <c r="F31" s="686"/>
+      <c r="D31" s="739"/>
+      <c r="E31" s="739"/>
+      <c r="F31" s="740"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="320"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -15051,18 +15051,18 @@
     <row r="32" spans="1:13" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="687"/>
-      <c r="D32" s="687"/>
-      <c r="E32" s="687"/>
-      <c r="F32" s="688"/>
-      <c r="G32" s="725" t="s">
+      <c r="C32" s="731"/>
+      <c r="D32" s="731"/>
+      <c r="E32" s="731"/>
+      <c r="F32" s="730"/>
+      <c r="G32" s="786" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="726"/>
-      <c r="I32" s="726"/>
-      <c r="J32" s="726"/>
-      <c r="K32" s="645"/>
-      <c r="L32" s="645"/>
+      <c r="H32" s="787"/>
+      <c r="I32" s="787"/>
+      <c r="J32" s="787"/>
+      <c r="K32" s="752"/>
+      <c r="L32" s="752"/>
       <c r="M32" s="107"/>
     </row>
     <row r="33" spans="1:14" s="175" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15083,44 +15083,44 @@
     <row r="34" spans="1:14" s="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="687" t="s">
+      <c r="C34" s="731" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="687"/>
-      <c r="E34" s="687"/>
-      <c r="F34" s="688"/>
+      <c r="D34" s="731"/>
+      <c r="E34" s="731"/>
+      <c r="F34" s="730"/>
       <c r="G34" s="106"/>
-      <c r="H34" s="322"/>
-      <c r="I34" s="724"/>
-      <c r="J34" s="724"/>
-      <c r="K34" s="724"/>
-      <c r="L34" s="724"/>
+      <c r="H34" s="316"/>
+      <c r="I34" s="851"/>
+      <c r="J34" s="851"/>
+      <c r="K34" s="851"/>
+      <c r="L34" s="851"/>
       <c r="M34" s="107"/>
     </row>
     <row r="35" spans="1:14" s="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="687"/>
-      <c r="D35" s="687"/>
-      <c r="E35" s="687"/>
-      <c r="F35" s="688"/>
-      <c r="G35" s="725" t="s">
+      <c r="C35" s="731"/>
+      <c r="D35" s="731"/>
+      <c r="E35" s="731"/>
+      <c r="F35" s="730"/>
+      <c r="G35" s="786" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="726"/>
-      <c r="I35" s="726"/>
-      <c r="J35" s="726"/>
-      <c r="K35" s="645"/>
-      <c r="L35" s="645"/>
+      <c r="H35" s="787"/>
+      <c r="I35" s="787"/>
+      <c r="J35" s="787"/>
+      <c r="K35" s="752"/>
+      <c r="L35" s="752"/>
       <c r="M35" s="107"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="689"/>
-      <c r="D36" s="689"/>
-      <c r="E36" s="689"/>
-      <c r="F36" s="690"/>
+      <c r="C36" s="741"/>
+      <c r="D36" s="741"/>
+      <c r="E36" s="741"/>
+      <c r="F36" s="742"/>
       <c r="G36" s="110"/>
       <c r="H36" s="51"/>
       <c r="I36" s="101"/>
@@ -15130,18 +15130,18 @@
       <c r="M36" s="109"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="672" t="s">
+      <c r="A37" s="750" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="673"/>
-      <c r="C37" s="766" t="s">
+      <c r="B37" s="751"/>
+      <c r="C37" s="734" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="766"/>
-      <c r="E37" s="766"/>
-      <c r="F37" s="767"/>
+      <c r="D37" s="734"/>
+      <c r="E37" s="734"/>
+      <c r="F37" s="735"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="320"/>
+      <c r="H37" s="314"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -15151,61 +15151,61 @@
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="768"/>
-      <c r="D38" s="768"/>
-      <c r="E38" s="768"/>
-      <c r="F38" s="769"/>
-      <c r="G38" s="676" t="s">
+      <c r="C38" s="715"/>
+      <c r="D38" s="715"/>
+      <c r="E38" s="715"/>
+      <c r="F38" s="736"/>
+      <c r="G38" s="716" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="677"/>
-      <c r="I38" s="677"/>
-      <c r="J38" s="677"/>
-      <c r="K38" s="677"/>
-      <c r="L38" s="677"/>
-      <c r="M38" s="678"/>
+      <c r="H38" s="717"/>
+      <c r="I38" s="717"/>
+      <c r="J38" s="717"/>
+      <c r="K38" s="717"/>
+      <c r="L38" s="717"/>
+      <c r="M38" s="844"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="768"/>
-      <c r="D39" s="768"/>
-      <c r="E39" s="768"/>
-      <c r="F39" s="769"/>
+      <c r="C39" s="715"/>
+      <c r="D39" s="715"/>
+      <c r="E39" s="715"/>
+      <c r="F39" s="736"/>
       <c r="G39" s="106"/>
-      <c r="H39" s="644"/>
-      <c r="I39" s="644"/>
-      <c r="J39" s="644"/>
-      <c r="K39" s="644"/>
-      <c r="L39" s="644"/>
+      <c r="H39" s="852"/>
+      <c r="I39" s="852"/>
+      <c r="J39" s="852"/>
+      <c r="K39" s="852"/>
+      <c r="L39" s="852"/>
       <c r="M39" s="107"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="770"/>
-      <c r="D40" s="770"/>
-      <c r="E40" s="770"/>
-      <c r="F40" s="771"/>
+      <c r="C40" s="737"/>
+      <c r="D40" s="737"/>
+      <c r="E40" s="737"/>
+      <c r="F40" s="738"/>
       <c r="G40" s="108"/>
       <c r="H40" s="246"/>
-      <c r="I40" s="765"/>
-      <c r="J40" s="765"/>
-      <c r="K40" s="765"/>
-      <c r="L40" s="765"/>
+      <c r="I40" s="718"/>
+      <c r="J40" s="718"/>
+      <c r="K40" s="718"/>
+      <c r="L40" s="718"/>
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="763" t="s">
+      <c r="A41" s="732" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="764"/>
-      <c r="C41" s="687" t="s">
+      <c r="B41" s="733"/>
+      <c r="C41" s="731" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="687"/>
-      <c r="E41" s="687"/>
-      <c r="F41" s="688"/>
+      <c r="D41" s="731"/>
+      <c r="E41" s="731"/>
+      <c r="F41" s="730"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="46"/>
@@ -15217,10 +15217,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="687"/>
-      <c r="D42" s="687"/>
-      <c r="E42" s="687"/>
-      <c r="F42" s="688"/>
+      <c r="C42" s="731"/>
+      <c r="D42" s="731"/>
+      <c r="E42" s="731"/>
+      <c r="F42" s="730"/>
       <c r="G42" s="49"/>
       <c r="H42" s="49"/>
       <c r="I42" s="49"/>
@@ -15235,14 +15235,14 @@
         <v>80</v>
       </c>
       <c r="B43" s="45"/>
-      <c r="C43" s="687" t="s">
+      <c r="C43" s="731" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="687"/>
-      <c r="E43" s="687"/>
-      <c r="F43" s="688"/>
+      <c r="D43" s="731"/>
+      <c r="E43" s="731"/>
+      <c r="F43" s="730"/>
       <c r="G43" s="173"/>
-      <c r="H43" s="323"/>
+      <c r="H43" s="317"/>
       <c r="I43" s="173"/>
       <c r="J43" s="173"/>
       <c r="K43" s="173"/>
@@ -15253,18 +15253,18 @@
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44"/>
       <c r="B44" s="45"/>
-      <c r="C44" s="687"/>
-      <c r="D44" s="687"/>
-      <c r="E44" s="687"/>
-      <c r="F44" s="688"/>
+      <c r="C44" s="731"/>
+      <c r="D44" s="731"/>
+      <c r="E44" s="731"/>
+      <c r="F44" s="730"/>
       <c r="G44" s="185" t="s">
         <v>327</v>
       </c>
       <c r="H44" s="248"/>
       <c r="I44" s="101"/>
       <c r="J44" s="101"/>
-      <c r="K44" s="645"/>
-      <c r="L44" s="645"/>
+      <c r="K44" s="752"/>
+      <c r="L44" s="752"/>
       <c r="M44" s="102"/>
       <c r="N44" s="51"/>
     </row>
@@ -15273,14 +15273,14 @@
         <v>81</v>
       </c>
       <c r="B45" s="45"/>
-      <c r="C45" s="688" t="s">
+      <c r="C45" s="730" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="688"/>
-      <c r="E45" s="688"/>
-      <c r="F45" s="688"/>
+      <c r="D45" s="730"/>
+      <c r="E45" s="730"/>
+      <c r="F45" s="730"/>
       <c r="G45" s="173"/>
-      <c r="H45" s="323"/>
+      <c r="H45" s="317"/>
       <c r="I45" s="173"/>
       <c r="J45" s="173"/>
       <c r="K45" s="173"/>
@@ -15291,10 +15291,10 @@
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="44"/>
       <c r="B46" s="45"/>
-      <c r="C46" s="688"/>
-      <c r="D46" s="688"/>
-      <c r="E46" s="688"/>
-      <c r="F46" s="688"/>
+      <c r="C46" s="730"/>
+      <c r="D46" s="730"/>
+      <c r="E46" s="730"/>
+      <c r="F46" s="730"/>
       <c r="G46" s="186" t="s">
         <v>328</v>
       </c>
@@ -15302,7 +15302,7 @@
       <c r="I46" s="101"/>
       <c r="J46" s="101"/>
       <c r="K46" s="101"/>
-      <c r="L46" s="318"/>
+      <c r="L46" s="312"/>
       <c r="M46" s="102"/>
       <c r="N46" s="51"/>
     </row>
@@ -15311,14 +15311,14 @@
         <v>83</v>
       </c>
       <c r="B47" s="45"/>
-      <c r="C47" s="687" t="s">
+      <c r="C47" s="731" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="687"/>
+      <c r="D47" s="731"/>
       <c r="E47" s="98"/>
       <c r="F47" s="99"/>
       <c r="G47" s="173"/>
-      <c r="H47" s="323"/>
+      <c r="H47" s="317"/>
       <c r="I47" s="173"/>
       <c r="J47" s="173"/>
       <c r="K47" s="173"/>
@@ -15327,12 +15327,12 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="737"/>
-      <c r="B48" s="738"/>
-      <c r="C48" s="738"/>
-      <c r="D48" s="738"/>
-      <c r="E48" s="738"/>
-      <c r="F48" s="739"/>
+      <c r="A48" s="765"/>
+      <c r="B48" s="766"/>
+      <c r="C48" s="766"/>
+      <c r="D48" s="766"/>
+      <c r="E48" s="766"/>
+      <c r="F48" s="767"/>
       <c r="G48" s="187" t="s">
         <v>328</v>
       </c>
@@ -15340,17 +15340,17 @@
       <c r="I48" s="103"/>
       <c r="J48" s="103"/>
       <c r="K48" s="103"/>
-      <c r="L48" s="318"/>
+      <c r="L48" s="312"/>
       <c r="M48" s="104"/>
       <c r="N48" s="51"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="740"/>
-      <c r="B49" s="741"/>
-      <c r="C49" s="741"/>
-      <c r="D49" s="741"/>
-      <c r="E49" s="741"/>
-      <c r="F49" s="742"/>
+      <c r="A49" s="768"/>
+      <c r="B49" s="769"/>
+      <c r="C49" s="769"/>
+      <c r="D49" s="769"/>
+      <c r="E49" s="769"/>
+      <c r="F49" s="770"/>
       <c r="G49" s="100"/>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
@@ -15361,10 +15361,10 @@
       <c r="N49" s="51"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="674" t="s">
+      <c r="A50" s="842" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="675"/>
+      <c r="B50" s="843"/>
       <c r="C50" s="183" t="s">
         <v>381</v>
       </c>
@@ -15374,128 +15374,128 @@
       <c r="G50" s="183"/>
       <c r="H50" s="183"/>
       <c r="I50" s="184"/>
-      <c r="J50" s="727"/>
-      <c r="K50" s="728"/>
-      <c r="L50" s="728"/>
-      <c r="M50" s="729"/>
+      <c r="J50" s="753"/>
+      <c r="K50" s="754"/>
+      <c r="L50" s="754"/>
+      <c r="M50" s="755"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="734" t="s">
+      <c r="A51" s="762" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="735"/>
-      <c r="C51" s="735"/>
-      <c r="D51" s="735"/>
-      <c r="E51" s="736"/>
+      <c r="B51" s="763"/>
+      <c r="C51" s="763"/>
+      <c r="D51" s="763"/>
+      <c r="E51" s="764"/>
       <c r="F51" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="743" t="s">
+      <c r="G51" s="771" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="549"/>
-      <c r="I51" s="550"/>
-      <c r="J51" s="730"/>
-      <c r="K51" s="731"/>
-      <c r="L51" s="731"/>
-      <c r="M51" s="732"/>
+      <c r="H51" s="691"/>
+      <c r="I51" s="701"/>
+      <c r="J51" s="756"/>
+      <c r="K51" s="757"/>
+      <c r="L51" s="757"/>
+      <c r="M51" s="758"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="806"/>
-      <c r="B52" s="807"/>
-      <c r="C52" s="808"/>
-      <c r="D52" s="808"/>
-      <c r="E52" s="809"/>
-      <c r="F52" s="810"/>
-      <c r="G52" s="811"/>
-      <c r="H52" s="812"/>
-      <c r="I52" s="813"/>
-      <c r="J52" s="730"/>
-      <c r="K52" s="731"/>
-      <c r="L52" s="731"/>
-      <c r="M52" s="732"/>
+      <c r="A52" s="779"/>
+      <c r="B52" s="780"/>
+      <c r="C52" s="782"/>
+      <c r="D52" s="782"/>
+      <c r="E52" s="783"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="772"/>
+      <c r="H52" s="773"/>
+      <c r="I52" s="774"/>
+      <c r="J52" s="756"/>
+      <c r="K52" s="757"/>
+      <c r="L52" s="757"/>
+      <c r="M52" s="758"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="806"/>
-      <c r="B53" s="807"/>
-      <c r="C53" s="807"/>
-      <c r="D53" s="807"/>
-      <c r="E53" s="814"/>
-      <c r="F53" s="810"/>
-      <c r="G53" s="811"/>
-      <c r="H53" s="812"/>
-      <c r="I53" s="813"/>
-      <c r="J53" s="730"/>
-      <c r="K53" s="731"/>
-      <c r="L53" s="731"/>
-      <c r="M53" s="732"/>
+      <c r="A53" s="779"/>
+      <c r="B53" s="780"/>
+      <c r="C53" s="780"/>
+      <c r="D53" s="780"/>
+      <c r="E53" s="781"/>
+      <c r="F53" s="336"/>
+      <c r="G53" s="772"/>
+      <c r="H53" s="773"/>
+      <c r="I53" s="774"/>
+      <c r="J53" s="756"/>
+      <c r="K53" s="757"/>
+      <c r="L53" s="757"/>
+      <c r="M53" s="758"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="815"/>
-      <c r="B54" s="816"/>
-      <c r="C54" s="817"/>
-      <c r="D54" s="817"/>
-      <c r="E54" s="818"/>
-      <c r="F54" s="819"/>
-      <c r="G54" s="820"/>
-      <c r="H54" s="821"/>
-      <c r="I54" s="822"/>
-      <c r="J54" s="730"/>
-      <c r="K54" s="731"/>
-      <c r="L54" s="731"/>
-      <c r="M54" s="732"/>
+      <c r="A54" s="775"/>
+      <c r="B54" s="776"/>
+      <c r="C54" s="777"/>
+      <c r="D54" s="777"/>
+      <c r="E54" s="778"/>
+      <c r="F54" s="337"/>
+      <c r="G54" s="759"/>
+      <c r="H54" s="760"/>
+      <c r="I54" s="761"/>
+      <c r="J54" s="756"/>
+      <c r="K54" s="757"/>
+      <c r="L54" s="757"/>
+      <c r="M54" s="758"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="744" t="s">
+      <c r="A55" s="743" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="745"/>
-      <c r="C55" s="746" t="s">
+      <c r="B55" s="744"/>
+      <c r="C55" s="784" t="s">
         <v>399</v>
       </c>
-      <c r="D55" s="746"/>
-      <c r="E55" s="746"/>
-      <c r="F55" s="746"/>
-      <c r="G55" s="746"/>
-      <c r="H55" s="746"/>
+      <c r="D55" s="784"/>
+      <c r="E55" s="784"/>
+      <c r="F55" s="784"/>
+      <c r="G55" s="784"/>
+      <c r="H55" s="784"/>
       <c r="I55" s="251"/>
-      <c r="J55" s="731"/>
-      <c r="K55" s="731"/>
-      <c r="L55" s="731"/>
-      <c r="M55" s="732"/>
+      <c r="J55" s="757"/>
+      <c r="K55" s="757"/>
+      <c r="L55" s="757"/>
+      <c r="M55" s="758"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="53"/>
-      <c r="C56" s="747"/>
-      <c r="D56" s="747"/>
-      <c r="E56" s="747"/>
-      <c r="F56" s="747"/>
-      <c r="G56" s="747"/>
-      <c r="H56" s="747"/>
+      <c r="C56" s="785"/>
+      <c r="D56" s="785"/>
+      <c r="E56" s="785"/>
+      <c r="F56" s="785"/>
+      <c r="G56" s="785"/>
+      <c r="H56" s="785"/>
       <c r="I56" s="252"/>
       <c r="J56" s="192"/>
-      <c r="K56" s="733" t="s">
+      <c r="K56" s="726" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="733"/>
+      <c r="L56" s="726"/>
       <c r="M56" s="171"/>
     </row>
     <row r="57" spans="1:14" s="166" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
       <c r="B57" s="53"/>
-      <c r="C57" s="747"/>
-      <c r="D57" s="747"/>
-      <c r="E57" s="747"/>
-      <c r="F57" s="747"/>
-      <c r="G57" s="747"/>
-      <c r="H57" s="747"/>
+      <c r="C57" s="785"/>
+      <c r="D57" s="785"/>
+      <c r="E57" s="785"/>
+      <c r="F57" s="785"/>
+      <c r="G57" s="785"/>
+      <c r="H57" s="785"/>
       <c r="I57" s="252"/>
-      <c r="J57" s="733"/>
-      <c r="K57" s="733"/>
-      <c r="L57" s="733"/>
-      <c r="M57" s="762"/>
+      <c r="J57" s="726"/>
+      <c r="K57" s="726"/>
+      <c r="L57" s="726"/>
+      <c r="M57" s="727"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="169"/>
@@ -15508,8 +15508,8 @@
       <c r="H58" s="253"/>
       <c r="I58" s="254"/>
       <c r="J58" s="173"/>
-      <c r="K58" s="711"/>
-      <c r="L58" s="712"/>
+      <c r="K58" s="809"/>
+      <c r="L58" s="810"/>
       <c r="M58" s="174"/>
     </row>
     <row r="59" spans="1:14" s="166" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15523,112 +15523,112 @@
       <c r="H59" s="168"/>
       <c r="I59" s="168"/>
       <c r="J59" s="173"/>
-      <c r="K59" s="713"/>
-      <c r="L59" s="714"/>
+      <c r="K59" s="811"/>
+      <c r="L59" s="812"/>
       <c r="M59" s="174"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54"/>
-      <c r="B60" s="664" t="s">
+      <c r="B60" s="835" t="s">
         <v>398</v>
       </c>
-      <c r="C60" s="665"/>
-      <c r="D60" s="666"/>
+      <c r="C60" s="836"/>
+      <c r="D60" s="837"/>
       <c r="E60" s="55"/>
-      <c r="F60" s="655"/>
-      <c r="G60" s="656"/>
-      <c r="H60" s="656"/>
-      <c r="I60" s="657"/>
+      <c r="F60" s="826"/>
+      <c r="G60" s="827"/>
+      <c r="H60" s="827"/>
+      <c r="I60" s="828"/>
       <c r="J60" s="173"/>
-      <c r="K60" s="713"/>
-      <c r="L60" s="714"/>
+      <c r="K60" s="811"/>
+      <c r="L60" s="812"/>
       <c r="M60" s="56"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="717" t="s">
+      <c r="B61" s="815" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="718"/>
+      <c r="C61" s="816"/>
       <c r="D61" s="114"/>
       <c r="E61" s="55"/>
-      <c r="F61" s="658"/>
-      <c r="G61" s="659"/>
-      <c r="H61" s="659"/>
-      <c r="I61" s="660"/>
+      <c r="F61" s="829"/>
+      <c r="G61" s="830"/>
+      <c r="H61" s="830"/>
+      <c r="I61" s="831"/>
       <c r="J61" s="173"/>
-      <c r="K61" s="713"/>
-      <c r="L61" s="714"/>
+      <c r="K61" s="811"/>
+      <c r="L61" s="812"/>
       <c r="M61" s="56"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
-      <c r="B62" s="706" t="s">
+      <c r="B62" s="803" t="s">
         <v>388</v>
       </c>
-      <c r="C62" s="707"/>
-      <c r="D62" s="667"/>
+      <c r="C62" s="804"/>
+      <c r="D62" s="807"/>
       <c r="E62" s="55"/>
-      <c r="F62" s="661"/>
-      <c r="G62" s="662"/>
-      <c r="H62" s="662"/>
-      <c r="I62" s="663"/>
+      <c r="F62" s="832"/>
+      <c r="G62" s="833"/>
+      <c r="H62" s="833"/>
+      <c r="I62" s="834"/>
       <c r="J62" s="173"/>
-      <c r="K62" s="713"/>
-      <c r="L62" s="714"/>
+      <c r="K62" s="811"/>
+      <c r="L62" s="812"/>
       <c r="M62" s="56"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54"/>
-      <c r="B63" s="719"/>
-      <c r="C63" s="720"/>
-      <c r="D63" s="668"/>
+      <c r="B63" s="817"/>
+      <c r="C63" s="818"/>
+      <c r="D63" s="838"/>
       <c r="E63" s="55"/>
-      <c r="F63" s="669" t="s">
+      <c r="F63" s="839" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="670"/>
-      <c r="H63" s="670"/>
-      <c r="I63" s="671"/>
+      <c r="G63" s="840"/>
+      <c r="H63" s="840"/>
+      <c r="I63" s="841"/>
       <c r="J63" s="173"/>
-      <c r="K63" s="713"/>
-      <c r="L63" s="714"/>
+      <c r="K63" s="811"/>
+      <c r="L63" s="812"/>
       <c r="M63" s="56"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54"/>
-      <c r="B64" s="706" t="s">
+      <c r="B64" s="803" t="s">
         <v>387</v>
       </c>
-      <c r="C64" s="707"/>
-      <c r="D64" s="667"/>
+      <c r="C64" s="804"/>
+      <c r="D64" s="807"/>
       <c r="E64" s="55"/>
-      <c r="F64" s="721"/>
-      <c r="G64" s="722"/>
-      <c r="H64" s="722"/>
-      <c r="I64" s="723"/>
+      <c r="F64" s="819"/>
+      <c r="G64" s="820"/>
+      <c r="H64" s="820"/>
+      <c r="I64" s="821"/>
       <c r="J64" s="57"/>
-      <c r="K64" s="715"/>
-      <c r="L64" s="716"/>
+      <c r="K64" s="813"/>
+      <c r="L64" s="814"/>
       <c r="M64" s="56"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="708"/>
-      <c r="C65" s="709"/>
-      <c r="D65" s="710"/>
+      <c r="B65" s="805"/>
+      <c r="C65" s="806"/>
+      <c r="D65" s="808"/>
       <c r="E65" s="55"/>
-      <c r="F65" s="703" t="s">
+      <c r="F65" s="800" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="704"/>
-      <c r="H65" s="704"/>
-      <c r="I65" s="705"/>
+      <c r="G65" s="801"/>
+      <c r="H65" s="801"/>
+      <c r="I65" s="802"/>
       <c r="J65" s="57"/>
-      <c r="K65" s="701" t="s">
+      <c r="K65" s="798" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="702"/>
+      <c r="L65" s="799"/>
       <c r="M65" s="56"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15647,32 +15647,32 @@
       <c r="M66" s="63"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="698" t="s">
+      <c r="A67" s="795" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="699"/>
-      <c r="C67" s="699"/>
-      <c r="D67" s="699"/>
-      <c r="E67" s="699"/>
-      <c r="F67" s="699"/>
-      <c r="G67" s="699"/>
-      <c r="H67" s="699"/>
-      <c r="I67" s="699"/>
-      <c r="J67" s="699"/>
-      <c r="K67" s="699"/>
-      <c r="L67" s="699"/>
-      <c r="M67" s="700"/>
+      <c r="B67" s="796"/>
+      <c r="C67" s="796"/>
+      <c r="D67" s="796"/>
+      <c r="E67" s="796"/>
+      <c r="F67" s="796"/>
+      <c r="G67" s="796"/>
+      <c r="H67" s="796"/>
+      <c r="I67" s="796"/>
+      <c r="J67" s="796"/>
+      <c r="K67" s="796"/>
+      <c r="L67" s="796"/>
+      <c r="M67" s="797"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54"/>
       <c r="B68" s="57"/>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
-      <c r="E68" s="695"/>
-      <c r="F68" s="696"/>
-      <c r="G68" s="696"/>
-      <c r="H68" s="696"/>
-      <c r="I68" s="697"/>
+      <c r="E68" s="792"/>
+      <c r="F68" s="793"/>
+      <c r="G68" s="793"/>
+      <c r="H68" s="793"/>
+      <c r="I68" s="794"/>
       <c r="J68" s="115"/>
       <c r="K68" s="115"/>
       <c r="L68" s="65"/>
@@ -15683,13 +15683,13 @@
       <c r="B69" s="57"/>
       <c r="C69" s="238"/>
       <c r="D69" s="238"/>
-      <c r="E69" s="692" t="s">
+      <c r="E69" s="789" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="693"/>
-      <c r="G69" s="693"/>
-      <c r="H69" s="693"/>
-      <c r="I69" s="694"/>
+      <c r="F69" s="790"/>
+      <c r="G69" s="790"/>
+      <c r="H69" s="790"/>
+      <c r="I69" s="791"/>
       <c r="J69" s="117"/>
       <c r="K69" s="116"/>
       <c r="L69" s="66"/>
@@ -15711,21 +15711,21 @@
       <c r="M70" s="69"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="691" t="s">
+      <c r="A71" s="788" t="s">
         <v>380</v>
       </c>
-      <c r="B71" s="691"/>
-      <c r="C71" s="691"/>
-      <c r="D71" s="691"/>
-      <c r="E71" s="691"/>
-      <c r="F71" s="691"/>
-      <c r="G71" s="691"/>
-      <c r="H71" s="691"/>
-      <c r="I71" s="691"/>
-      <c r="J71" s="691"/>
-      <c r="K71" s="691"/>
-      <c r="L71" s="691"/>
-      <c r="M71" s="691"/>
+      <c r="B71" s="788"/>
+      <c r="C71" s="788"/>
+      <c r="D71" s="788"/>
+      <c r="E71" s="788"/>
+      <c r="F71" s="788"/>
+      <c r="G71" s="788"/>
+      <c r="H71" s="788"/>
+      <c r="I71" s="788"/>
+      <c r="J71" s="788"/>
+      <c r="K71" s="788"/>
+      <c r="L71" s="788"/>
+      <c r="M71" s="788"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -15738,38 +15738,48 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="90">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="J50:M55"/>
@@ -15786,48 +15796,38 @@
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="C55:H57"/>
     <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/export_excel_parts/pds.xlsx
+++ b/export_excel_parts/pds.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Xampp\htdocs\hrsystem2\export_excel_parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E9F079-3E9F-4DEB-B92B-4828E529F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AD1440-FD2B-4A20-BBA7-462BAAF3CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -1400,14 +1400,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="166" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1519,12 +1520,6 @@
       <i/>
       <sz val="8"/>
       <color indexed="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1698,12 +1693,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="8"/>
@@ -1722,6 +1711,14 @@
       <b/>
       <i/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2668,17 +2665,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="864">
+  <cellXfs count="833">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -2876,10 +2873,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3014,14 +3011,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3032,7 +3021,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -3071,10 +3060,10 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3101,10 +3090,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3147,7 +3136,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3201,14 +3190,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3216,11 +3205,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3233,7 +3222,7 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="36" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3278,7 +3267,7 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3340,26 +3329,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3402,73 +3391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3482,106 +3404,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3598,32 +3456,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3636,19 +3468,76 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3656,44 +3545,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3703,43 +3590,35 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3759,11 +3638,11 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3776,11 +3655,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3790,14 +3669,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3816,24 +3687,16 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3851,24 +3714,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3886,29 +3740,29 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3921,30 +3775,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3966,28 +3803,19 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4005,13 +3833,13 @@
     <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4035,10 +3863,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4053,26 +3881,18 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4081,10 +3901,6 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4106,7 +3922,7 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4116,36 +3932,36 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4182,67 +3998,58 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4266,32 +4073,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4304,15 +4111,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4327,36 +4125,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4404,14 +4190,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4460,16 +4238,16 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4529,40 +4307,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4602,13 +4347,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4680,85 +4425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4774,18 +4440,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4806,13 +4460,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4825,26 +4479,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4881,10 +4515,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4893,6 +4527,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4932,30 +4584,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4983,13 +4617,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5022,13 +4656,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5070,7 +4704,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5091,13 +4725,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5274,34 +4908,275 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7185,8 +7060,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54:K58"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7211,38 +7086,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="442"/>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
+      <c r="L1" s="394"/>
+      <c r="M1" s="394"/>
+      <c r="N1" s="395"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="151"/>
       <c r="O2" s="72" t="s">
         <v>111</v>
       </c>
@@ -7254,80 +7129,80 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="445" t="s">
+      <c r="A3" s="396" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="446"/>
-      <c r="C3" s="446"/>
-      <c r="D3" s="446"/>
-      <c r="E3" s="446"/>
-      <c r="F3" s="446"/>
-      <c r="G3" s="446"/>
-      <c r="H3" s="446"/>
-      <c r="I3" s="446"/>
-      <c r="J3" s="446"/>
-      <c r="K3" s="446"/>
-      <c r="L3" s="446"/>
-      <c r="M3" s="446"/>
-      <c r="N3" s="447"/>
+      <c r="B3" s="397"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="397"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="397"/>
+      <c r="I3" s="397"/>
+      <c r="J3" s="397"/>
+      <c r="K3" s="397"/>
+      <c r="L3" s="397"/>
+      <c r="M3" s="397"/>
+      <c r="N3" s="398"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="430" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="483"/>
-      <c r="E4" s="483"/>
-      <c r="F4" s="483"/>
-      <c r="G4" s="483"/>
-      <c r="H4" s="483"/>
-      <c r="I4" s="483"/>
-      <c r="J4" s="483"/>
-      <c r="K4" s="483"/>
-      <c r="L4" s="483"/>
-      <c r="M4" s="483"/>
-      <c r="N4" s="484"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="431"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="431"/>
+      <c r="M4" s="431"/>
+      <c r="N4" s="432"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="355" t="s">
+      <c r="A5" s="321" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="356"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
-      <c r="J5" s="356"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="356"/>
-      <c r="N5" s="357"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="323"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="189"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="191"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="189"/>
     </row>
     <row r="7" spans="1:18" s="75" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="152" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="217"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -7339,112 +7214,112 @@
       <c r="K7" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="451" t="s">
+      <c r="L7" s="402" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="452"/>
-      <c r="N7" s="453"/>
+      <c r="M7" s="403"/>
+      <c r="N7" s="404"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="147"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="145"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="448" t="s">
+      <c r="A9" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="449"/>
-      <c r="C9" s="449"/>
-      <c r="D9" s="449"/>
-      <c r="E9" s="449"/>
-      <c r="F9" s="449"/>
-      <c r="G9" s="449"/>
-      <c r="H9" s="449"/>
-      <c r="I9" s="449"/>
-      <c r="J9" s="449"/>
-      <c r="K9" s="449"/>
-      <c r="L9" s="449"/>
-      <c r="M9" s="449"/>
-      <c r="N9" s="450"/>
+      <c r="B9" s="400"/>
+      <c r="C9" s="400"/>
+      <c r="D9" s="400"/>
+      <c r="E9" s="400"/>
+      <c r="F9" s="400"/>
+      <c r="G9" s="400"/>
+      <c r="H9" s="400"/>
+      <c r="I9" s="400"/>
+      <c r="J9" s="400"/>
+      <c r="K9" s="400"/>
+      <c r="L9" s="400"/>
+      <c r="M9" s="400"/>
+      <c r="N9" s="401"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="469" t="s">
+      <c r="B10" s="417" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="385"/>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
-      <c r="F10" s="462"/>
-      <c r="G10" s="462"/>
-      <c r="H10" s="462"/>
-      <c r="I10" s="462"/>
-      <c r="J10" s="462"/>
-      <c r="K10" s="462"/>
-      <c r="L10" s="462"/>
-      <c r="M10" s="462"/>
-      <c r="N10" s="463"/>
+      <c r="C10" s="349"/>
+      <c r="D10" s="413"/>
+      <c r="E10" s="413"/>
+      <c r="F10" s="413"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="413"/>
+      <c r="I10" s="413"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="413"/>
+      <c r="M10" s="413"/>
+      <c r="N10" s="414"/>
       <c r="P10" s="76" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="156"/>
-      <c r="B11" s="470" t="s">
+      <c r="A11" s="154"/>
+      <c r="B11" s="418" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="471"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="386" t="s">
+      <c r="C11" s="419"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="350" t="s">
         <v>407</v>
       </c>
-      <c r="M11" s="387"/>
-      <c r="N11" s="388"/>
+      <c r="M11" s="351"/>
+      <c r="N11" s="352"/>
       <c r="P11" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="128" t="s">
+      <c r="Q11" s="126" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
-      <c r="B12" s="472" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="420" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="473"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="200"/>
+      <c r="C12" s="421"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="198"/>
       <c r="P12" s="77" t="s">
         <v>117</v>
       </c>
@@ -7453,26 +7328,26 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="235" t="s">
+      <c r="A13" s="233" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="384" t="s">
+      <c r="B13" s="348" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="385"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="390"/>
+      <c r="C13" s="349"/>
+      <c r="D13" s="758"/>
+      <c r="E13" s="758"/>
+      <c r="F13" s="759"/>
       <c r="G13" s="83" t="s">
         <v>371</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="396"/>
-      <c r="K13" s="397"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="397"/>
-      <c r="N13" s="398"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="808"/>
+      <c r="K13" s="809"/>
+      <c r="L13" s="809"/>
+      <c r="M13" s="809"/>
+      <c r="N13" s="810"/>
       <c r="P13" s="77" t="s">
         <v>53</v>
       </c>
@@ -7481,48 +7356,48 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="231"/>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="233"/>
-      <c r="N14" s="234"/>
+      <c r="A14" s="229"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="760"/>
+      <c r="E14" s="761"/>
+      <c r="F14" s="761"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="231"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="231"/>
+      <c r="N14" s="232"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="156" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="78"/>
-      <c r="D15" s="418" t="s">
+      <c r="D15" s="762" t="s">
         <v>401</v>
       </c>
-      <c r="E15" s="418"/>
-      <c r="F15" s="419"/>
-      <c r="G15" s="394" t="s">
+      <c r="E15" s="762"/>
+      <c r="F15" s="763"/>
+      <c r="G15" s="356" t="s">
         <v>385</v>
       </c>
-      <c r="H15" s="395"/>
-      <c r="I15" s="395"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="402" t="s">
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="361" t="s">
         <v>392</v>
       </c>
-      <c r="M15" s="402"/>
-      <c r="N15" s="403"/>
+      <c r="M15" s="361"/>
+      <c r="N15" s="362"/>
       <c r="P15" s="77" t="s">
         <v>118</v>
       </c>
@@ -7531,26 +7406,26 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="157" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="79"/>
-      <c r="D16" s="464"/>
-      <c r="E16" s="464"/>
-      <c r="F16" s="465"/>
-      <c r="G16" s="391" t="s">
+      <c r="D16" s="756"/>
+      <c r="E16" s="756"/>
+      <c r="F16" s="757"/>
+      <c r="G16" s="353" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="392"/>
-      <c r="I16" s="393"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="422"/>
-      <c r="L16" s="422"/>
-      <c r="M16" s="422"/>
-      <c r="N16" s="147"/>
+      <c r="H16" s="354"/>
+      <c r="I16" s="355"/>
+      <c r="J16" s="812"/>
+      <c r="K16" s="811"/>
+      <c r="L16" s="811"/>
+      <c r="M16" s="811"/>
+      <c r="N16" s="813"/>
       <c r="P16" s="77" t="s">
         <v>119</v>
       </c>
@@ -7559,437 +7434,437 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="371">
+      <c r="A17" s="337">
         <v>6</v>
       </c>
-      <c r="B17" s="380" t="s">
+      <c r="B17" s="344" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="381"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="378"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="335"/>
+      <c r="E17" s="335"/>
+      <c r="F17" s="335"/>
       <c r="G17" s="84" t="s">
         <v>372</v>
       </c>
       <c r="H17" s="85"/>
-      <c r="I17" s="414"/>
-      <c r="J17" s="404"/>
-      <c r="K17" s="404"/>
-      <c r="L17" s="404"/>
-      <c r="M17" s="404"/>
-      <c r="N17" s="405"/>
+      <c r="I17" s="373"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="363"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="364"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="372"/>
-      <c r="B18" s="382"/>
-      <c r="C18" s="383"/>
+      <c r="A18" s="338"/>
+      <c r="B18" s="346"/>
+      <c r="C18" s="347"/>
       <c r="D18" s="379"/>
       <c r="E18" s="379"/>
       <c r="F18" s="379"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="86"/>
-      <c r="I18" s="409" t="s">
+      <c r="I18" s="368" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="358"/>
-      <c r="K18" s="358"/>
-      <c r="L18" s="358" t="s">
+      <c r="J18" s="324"/>
+      <c r="K18" s="324"/>
+      <c r="L18" s="324" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="358"/>
-      <c r="N18" s="359"/>
+      <c r="M18" s="324"/>
+      <c r="N18" s="325"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="141"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="86"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="361"/>
-      <c r="L19" s="364"/>
-      <c r="M19" s="361"/>
-      <c r="N19" s="365"/>
+      <c r="I19" s="326"/>
+      <c r="J19" s="327"/>
+      <c r="K19" s="327"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="327"/>
+      <c r="N19" s="331"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="372"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="338"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
+      <c r="D20" s="297"/>
       <c r="E20" s="379"/>
       <c r="F20" s="379"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="362"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="363"/>
-      <c r="L20" s="363"/>
-      <c r="M20" s="363"/>
-      <c r="N20" s="366"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="329"/>
+      <c r="K20" s="329"/>
+      <c r="L20" s="329"/>
+      <c r="M20" s="329"/>
+      <c r="N20" s="332"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="373"/>
-      <c r="B21" s="219"/>
+      <c r="A21" s="339"/>
+      <c r="B21" s="217"/>
       <c r="C21" s="119"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="468"/>
-      <c r="F21" s="468"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="146"/>
-      <c r="J21" s="338" t="s">
+      <c r="D21" s="298"/>
+      <c r="E21" s="336"/>
+      <c r="F21" s="336"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="144"/>
+      <c r="J21" s="288" t="s">
         <v>402</v>
       </c>
-      <c r="K21" s="311"/>
-      <c r="L21" s="505" t="s">
+      <c r="K21" s="273"/>
+      <c r="L21" s="453" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="506"/>
-      <c r="N21" s="507"/>
+      <c r="M21" s="454"/>
+      <c r="N21" s="455"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="376" t="s">
+      <c r="A22" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="426" t="s">
+      <c r="B22" s="380" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="427"/>
-      <c r="D22" s="425"/>
-      <c r="E22" s="425"/>
-      <c r="F22" s="425"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="414"/>
-      <c r="J22" s="404"/>
-      <c r="K22" s="404"/>
-      <c r="L22" s="404"/>
-      <c r="M22" s="404"/>
-      <c r="N22" s="405"/>
+      <c r="C22" s="381"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="379"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="373"/>
+      <c r="J22" s="363"/>
+      <c r="K22" s="363"/>
+      <c r="L22" s="363"/>
+      <c r="M22" s="363"/>
+      <c r="N22" s="364"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="377"/>
-      <c r="B23" s="428"/>
-      <c r="C23" s="429"/>
-      <c r="D23" s="370"/>
-      <c r="E23" s="370"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="510" t="s">
+      <c r="A23" s="343"/>
+      <c r="B23" s="382"/>
+      <c r="C23" s="383"/>
+      <c r="D23" s="336"/>
+      <c r="E23" s="336"/>
+      <c r="F23" s="336"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="458" t="s">
         <v>403</v>
       </c>
-      <c r="J23" s="511"/>
-      <c r="K23" s="511"/>
-      <c r="L23" s="508" t="s">
+      <c r="J23" s="459"/>
+      <c r="K23" s="459"/>
+      <c r="L23" s="456" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="508"/>
-      <c r="N23" s="509"/>
+      <c r="M23" s="456"/>
+      <c r="N23" s="457"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="154" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="430" t="s">
+      <c r="B24" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="431"/>
-      <c r="D24" s="406"/>
-      <c r="E24" s="407"/>
-      <c r="F24" s="408"/>
-      <c r="G24" s="474" t="s">
+      <c r="C24" s="385"/>
+      <c r="D24" s="365"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="367"/>
+      <c r="G24" s="422" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="475"/>
-      <c r="I24" s="415"/>
-      <c r="J24" s="416"/>
-      <c r="K24" s="416"/>
-      <c r="L24" s="416"/>
-      <c r="M24" s="416"/>
-      <c r="N24" s="417"/>
+      <c r="H24" s="423"/>
+      <c r="I24" s="374"/>
+      <c r="J24" s="375"/>
+      <c r="K24" s="375"/>
+      <c r="L24" s="375"/>
+      <c r="M24" s="375"/>
+      <c r="N24" s="376"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="367" t="s">
+      <c r="A25" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="426" t="s">
+      <c r="B25" s="380" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="427"/>
-      <c r="D25" s="369"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="369"/>
+      <c r="C25" s="381"/>
+      <c r="D25" s="335"/>
+      <c r="E25" s="335"/>
+      <c r="F25" s="335"/>
       <c r="G25" s="92" t="s">
         <v>373</v>
       </c>
       <c r="H25" s="80"/>
-      <c r="I25" s="420"/>
-      <c r="J25" s="421"/>
-      <c r="K25" s="421"/>
-      <c r="L25" s="421"/>
-      <c r="M25" s="421"/>
-      <c r="N25" s="514"/>
+      <c r="I25" s="377"/>
+      <c r="J25" s="378"/>
+      <c r="K25" s="378"/>
+      <c r="L25" s="378"/>
+      <c r="M25" s="378"/>
+      <c r="N25" s="462"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="368"/>
-      <c r="B26" s="428"/>
-      <c r="C26" s="429"/>
-      <c r="D26" s="370"/>
-      <c r="E26" s="370"/>
-      <c r="F26" s="370"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="409" t="s">
+      <c r="A26" s="334"/>
+      <c r="B26" s="382"/>
+      <c r="C26" s="383"/>
+      <c r="D26" s="336"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="336"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="368" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="358"/>
-      <c r="K26" s="358"/>
-      <c r="L26" s="358" t="s">
+      <c r="J26" s="324"/>
+      <c r="K26" s="324"/>
+      <c r="L26" s="324" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="358"/>
-      <c r="N26" s="359"/>
+      <c r="M26" s="324"/>
+      <c r="N26" s="325"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="367" t="s">
+      <c r="A27" s="333" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="426" t="s">
+      <c r="B27" s="380" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="427"/>
-      <c r="D27" s="369"/>
-      <c r="E27" s="369"/>
-      <c r="F27" s="369"/>
-      <c r="G27" s="141"/>
+      <c r="C27" s="381"/>
+      <c r="D27" s="335"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="335"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="420"/>
-      <c r="J27" s="421"/>
-      <c r="K27" s="421"/>
-      <c r="L27" s="421"/>
-      <c r="M27" s="421"/>
-      <c r="N27" s="514"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="462"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="368"/>
-      <c r="B28" s="428"/>
-      <c r="C28" s="429"/>
-      <c r="D28" s="370"/>
-      <c r="E28" s="370"/>
-      <c r="F28" s="370"/>
-      <c r="G28" s="141"/>
+      <c r="A28" s="334"/>
+      <c r="B28" s="382"/>
+      <c r="C28" s="383"/>
+      <c r="D28" s="336"/>
+      <c r="E28" s="336"/>
+      <c r="F28" s="336"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="86"/>
-      <c r="I28" s="410" t="s">
+      <c r="I28" s="369" t="s">
         <v>404</v>
       </c>
-      <c r="J28" s="411"/>
-      <c r="K28" s="411"/>
-      <c r="L28" s="412" t="s">
+      <c r="J28" s="370"/>
+      <c r="K28" s="370"/>
+      <c r="L28" s="371" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="411"/>
-      <c r="N28" s="413"/>
+      <c r="M28" s="370"/>
+      <c r="N28" s="372"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="367" t="s">
+      <c r="A29" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="426" t="s">
+      <c r="B29" s="380" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="427"/>
-      <c r="D29" s="369"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="369"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="432"/>
-      <c r="M29" s="432"/>
-      <c r="N29" s="433"/>
+      <c r="C29" s="381"/>
+      <c r="D29" s="335"/>
+      <c r="E29" s="335"/>
+      <c r="F29" s="335"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="386"/>
+      <c r="M29" s="386"/>
+      <c r="N29" s="387"/>
       <c r="Q29" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="368"/>
-      <c r="B30" s="428"/>
-      <c r="C30" s="429"/>
-      <c r="D30" s="370"/>
-      <c r="E30" s="370"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="512" t="s">
+      <c r="A30" s="334"/>
+      <c r="B30" s="382"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="336"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="336"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="460" t="s">
         <v>403</v>
       </c>
-      <c r="J30" s="512"/>
-      <c r="K30" s="512"/>
-      <c r="L30" s="512" t="s">
+      <c r="J30" s="460"/>
+      <c r="K30" s="460"/>
+      <c r="L30" s="460" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="512"/>
-      <c r="N30" s="513"/>
+      <c r="M30" s="460"/>
+      <c r="N30" s="461"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="156" t="s">
         <v>334</v>
       </c>
       <c r="B31" s="78" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="79"/>
-      <c r="D31" s="399"/>
-      <c r="E31" s="400"/>
-      <c r="F31" s="401"/>
-      <c r="G31" s="474" t="s">
+      <c r="D31" s="358"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="360"/>
+      <c r="G31" s="422" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="475"/>
-      <c r="I31" s="423"/>
-      <c r="J31" s="424"/>
-      <c r="K31" s="424"/>
-      <c r="L31" s="424"/>
-      <c r="M31" s="424"/>
-      <c r="N31" s="424"/>
+      <c r="H31" s="423"/>
+      <c r="I31" s="828"/>
+      <c r="J31" s="829"/>
+      <c r="K31" s="829"/>
+      <c r="L31" s="829"/>
+      <c r="M31" s="829"/>
+      <c r="N31" s="829"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="154" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="78" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="79"/>
-      <c r="D32" s="407"/>
-      <c r="E32" s="407"/>
-      <c r="F32" s="407"/>
-      <c r="G32" s="138" t="s">
+      <c r="D32" s="366"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="366"/>
+      <c r="G32" s="136" t="s">
         <v>374</v>
       </c>
-      <c r="H32" s="142"/>
-      <c r="I32" s="515"/>
-      <c r="J32" s="516"/>
-      <c r="K32" s="516"/>
-      <c r="L32" s="516"/>
-      <c r="M32" s="516"/>
-      <c r="N32" s="517"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="764"/>
+      <c r="J32" s="389"/>
+      <c r="K32" s="389"/>
+      <c r="L32" s="389"/>
+      <c r="M32" s="389"/>
+      <c r="N32" s="390"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="477" t="s">
+      <c r="A33" s="425" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="431"/>
-      <c r="C33" s="478"/>
-      <c r="D33" s="407"/>
-      <c r="E33" s="407"/>
-      <c r="F33" s="407"/>
-      <c r="G33" s="196" t="s">
+      <c r="B33" s="385"/>
+      <c r="C33" s="426"/>
+      <c r="D33" s="366"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="366"/>
+      <c r="G33" s="194" t="s">
         <v>375</v>
       </c>
-      <c r="H33" s="140"/>
-      <c r="I33" s="434"/>
-      <c r="J33" s="435"/>
-      <c r="K33" s="435"/>
-      <c r="L33" s="435"/>
-      <c r="M33" s="435"/>
-      <c r="N33" s="436"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="388"/>
+      <c r="J33" s="389"/>
+      <c r="K33" s="389"/>
+      <c r="L33" s="389"/>
+      <c r="M33" s="389"/>
+      <c r="N33" s="390"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="220"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="369"/>
-      <c r="E34" s="369"/>
-      <c r="F34" s="369"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="335"/>
+      <c r="F34" s="335"/>
       <c r="G34" s="92" t="s">
         <v>376</v>
       </c>
       <c r="H34" s="80"/>
-      <c r="I34" s="437"/>
-      <c r="J34" s="438"/>
-      <c r="K34" s="438"/>
-      <c r="L34" s="438"/>
-      <c r="M34" s="438"/>
-      <c r="N34" s="439"/>
+      <c r="I34" s="765"/>
+      <c r="J34" s="766"/>
+      <c r="K34" s="766"/>
+      <c r="L34" s="766"/>
+      <c r="M34" s="766"/>
+      <c r="N34" s="767"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="208"/>
-      <c r="L35" s="208"/>
-      <c r="M35" s="208"/>
-      <c r="N35" s="209"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="207"/>
       <c r="Q35" s="3" t="s">
         <v>143</v>
       </c>
@@ -7998,132 +7873,132 @@
       <c r="A36" s="83" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="223" t="s">
+      <c r="B36" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="224"/>
-      <c r="D36" s="374"/>
-      <c r="E36" s="374"/>
-      <c r="F36" s="374"/>
-      <c r="G36" s="374"/>
-      <c r="H36" s="374"/>
-      <c r="I36" s="440" t="s">
+      <c r="C36" s="222"/>
+      <c r="D36" s="340"/>
+      <c r="E36" s="340"/>
+      <c r="F36" s="340"/>
+      <c r="G36" s="340"/>
+      <c r="H36" s="340"/>
+      <c r="I36" s="391" t="s">
         <v>378</v>
       </c>
-      <c r="J36" s="440"/>
-      <c r="K36" s="440"/>
-      <c r="L36" s="441"/>
-      <c r="M36" s="456" t="s">
+      <c r="J36" s="391"/>
+      <c r="K36" s="391"/>
+      <c r="L36" s="392"/>
+      <c r="M36" s="407" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="457"/>
+      <c r="N36" s="408"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="139"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="211"/>
-      <c r="D37" s="479"/>
-      <c r="E37" s="480"/>
-      <c r="F37" s="481"/>
-      <c r="G37" s="476" t="s">
+      <c r="C37" s="209"/>
+      <c r="D37" s="427"/>
+      <c r="E37" s="428"/>
+      <c r="F37" s="429"/>
+      <c r="G37" s="424" t="s">
         <v>405</v>
       </c>
-      <c r="H37" s="476"/>
-      <c r="I37" s="344"/>
-      <c r="J37" s="344"/>
-      <c r="K37" s="344"/>
-      <c r="L37" s="345"/>
-      <c r="M37" s="349"/>
-      <c r="N37" s="350"/>
+      <c r="H37" s="424"/>
+      <c r="I37" s="312"/>
+      <c r="J37" s="312"/>
+      <c r="K37" s="312"/>
+      <c r="L37" s="313"/>
+      <c r="M37" s="768"/>
+      <c r="N37" s="769"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="162"/>
-      <c r="B38" s="216" t="s">
+      <c r="A38" s="160"/>
+      <c r="B38" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="212"/>
-      <c r="D38" s="479"/>
-      <c r="E38" s="480"/>
-      <c r="F38" s="480"/>
-      <c r="G38" s="480"/>
-      <c r="H38" s="481"/>
-      <c r="I38" s="344"/>
-      <c r="J38" s="344"/>
-      <c r="K38" s="344"/>
-      <c r="L38" s="345"/>
-      <c r="M38" s="349"/>
-      <c r="N38" s="350"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="427"/>
+      <c r="E38" s="428"/>
+      <c r="F38" s="428"/>
+      <c r="G38" s="428"/>
+      <c r="H38" s="429"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="312"/>
+      <c r="K38" s="312"/>
+      <c r="L38" s="313"/>
+      <c r="M38" s="768"/>
+      <c r="N38" s="769"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="163"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="78" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="79"/>
-      <c r="D39" s="375"/>
-      <c r="E39" s="375"/>
-      <c r="F39" s="375"/>
-      <c r="G39" s="375"/>
-      <c r="H39" s="375"/>
-      <c r="I39" s="344"/>
-      <c r="J39" s="344"/>
-      <c r="K39" s="344"/>
-      <c r="L39" s="345"/>
-      <c r="M39" s="349"/>
-      <c r="N39" s="350"/>
+      <c r="D39" s="341"/>
+      <c r="E39" s="341"/>
+      <c r="F39" s="341"/>
+      <c r="G39" s="341"/>
+      <c r="H39" s="341"/>
+      <c r="I39" s="312"/>
+      <c r="J39" s="312"/>
+      <c r="K39" s="312"/>
+      <c r="L39" s="313"/>
+      <c r="M39" s="768"/>
+      <c r="N39" s="769"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="163"/>
+      <c r="A40" s="161"/>
       <c r="B40" s="78" t="s">
         <v>367</v>
       </c>
       <c r="C40" s="79"/>
-      <c r="D40" s="375"/>
-      <c r="E40" s="375"/>
-      <c r="F40" s="375"/>
-      <c r="G40" s="375"/>
-      <c r="H40" s="375"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="345"/>
-      <c r="M40" s="349"/>
-      <c r="N40" s="350"/>
+      <c r="D40" s="341"/>
+      <c r="E40" s="341"/>
+      <c r="F40" s="341"/>
+      <c r="G40" s="341"/>
+      <c r="H40" s="341"/>
+      <c r="I40" s="312"/>
+      <c r="J40" s="312"/>
+      <c r="K40" s="312"/>
+      <c r="L40" s="313"/>
+      <c r="M40" s="768"/>
+      <c r="N40" s="769"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="163"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="79"/>
-      <c r="D41" s="375"/>
-      <c r="E41" s="375"/>
-      <c r="F41" s="375"/>
-      <c r="G41" s="375"/>
-      <c r="H41" s="375"/>
-      <c r="I41" s="344"/>
-      <c r="J41" s="344"/>
-      <c r="K41" s="344"/>
-      <c r="L41" s="345"/>
-      <c r="M41" s="349"/>
-      <c r="N41" s="350"/>
+      <c r="D41" s="341"/>
+      <c r="E41" s="341"/>
+      <c r="F41" s="341"/>
+      <c r="G41" s="341"/>
+      <c r="H41" s="341"/>
+      <c r="I41" s="312"/>
+      <c r="J41" s="312"/>
+      <c r="K41" s="312"/>
+      <c r="L41" s="313"/>
+      <c r="M41" s="768"/>
+      <c r="N41" s="769"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -8134,228 +8009,228 @@
         <v>36</v>
       </c>
       <c r="C42" s="120"/>
-      <c r="D42" s="375"/>
-      <c r="E42" s="375"/>
-      <c r="F42" s="375"/>
-      <c r="G42" s="375"/>
-      <c r="H42" s="375"/>
-      <c r="I42" s="344"/>
-      <c r="J42" s="344"/>
-      <c r="K42" s="344"/>
-      <c r="L42" s="345"/>
-      <c r="M42" s="349"/>
-      <c r="N42" s="350"/>
+      <c r="D42" s="341"/>
+      <c r="E42" s="341"/>
+      <c r="F42" s="341"/>
+      <c r="G42" s="341"/>
+      <c r="H42" s="341"/>
+      <c r="I42" s="312"/>
+      <c r="J42" s="312"/>
+      <c r="K42" s="312"/>
+      <c r="L42" s="313"/>
+      <c r="M42" s="768"/>
+      <c r="N42" s="769"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="210" t="s">
+      <c r="A43" s="208" t="s">
         <v>379</v>
       </c>
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="219" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="85"/>
-      <c r="D43" s="535"/>
-      <c r="E43" s="535"/>
-      <c r="F43" s="535"/>
-      <c r="G43" s="535"/>
-      <c r="H43" s="535"/>
-      <c r="I43" s="344"/>
-      <c r="J43" s="344"/>
-      <c r="K43" s="344"/>
-      <c r="L43" s="345"/>
-      <c r="M43" s="349"/>
-      <c r="N43" s="350"/>
+      <c r="D43" s="480"/>
+      <c r="E43" s="480"/>
+      <c r="F43" s="480"/>
+      <c r="G43" s="480"/>
+      <c r="H43" s="480"/>
+      <c r="I43" s="312"/>
+      <c r="J43" s="312"/>
+      <c r="K43" s="312"/>
+      <c r="L43" s="313"/>
+      <c r="M43" s="768"/>
+      <c r="N43" s="769"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="139"/>
-      <c r="B44" s="203" t="s">
+      <c r="A44" s="137"/>
+      <c r="B44" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="213"/>
-      <c r="D44" s="479"/>
-      <c r="E44" s="480"/>
-      <c r="F44" s="481"/>
-      <c r="G44" s="476" t="s">
+      <c r="C44" s="211"/>
+      <c r="D44" s="427"/>
+      <c r="E44" s="428"/>
+      <c r="F44" s="429"/>
+      <c r="G44" s="424" t="s">
         <v>406</v>
       </c>
-      <c r="H44" s="476"/>
-      <c r="I44" s="344"/>
-      <c r="J44" s="344"/>
-      <c r="K44" s="344"/>
-      <c r="L44" s="345"/>
-      <c r="M44" s="349"/>
-      <c r="N44" s="350"/>
+      <c r="H44" s="424"/>
+      <c r="I44" s="312"/>
+      <c r="J44" s="312"/>
+      <c r="K44" s="312"/>
+      <c r="L44" s="313"/>
+      <c r="M44" s="768"/>
+      <c r="N44" s="769"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="162"/>
-      <c r="B45" s="204" t="s">
+      <c r="A45" s="160"/>
+      <c r="B45" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="215"/>
-      <c r="D45" s="479"/>
-      <c r="E45" s="480"/>
-      <c r="F45" s="480"/>
-      <c r="G45" s="480"/>
-      <c r="H45" s="481"/>
-      <c r="I45" s="344"/>
-      <c r="J45" s="344"/>
-      <c r="K45" s="344"/>
-      <c r="L45" s="345"/>
-      <c r="M45" s="349"/>
-      <c r="N45" s="350"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="427"/>
+      <c r="E45" s="428"/>
+      <c r="F45" s="428"/>
+      <c r="G45" s="428"/>
+      <c r="H45" s="429"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="313"/>
+      <c r="M45" s="768"/>
+      <c r="N45" s="769"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="B46" s="203" t="s">
+      <c r="B46" s="201" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="86"/>
-      <c r="D46" s="536"/>
-      <c r="E46" s="536"/>
-      <c r="F46" s="536"/>
-      <c r="G46" s="536"/>
-      <c r="H46" s="536"/>
-      <c r="I46" s="344"/>
-      <c r="J46" s="344"/>
-      <c r="K46" s="344"/>
-      <c r="L46" s="345"/>
-      <c r="M46" s="349"/>
-      <c r="N46" s="350"/>
+      <c r="D46" s="481"/>
+      <c r="E46" s="481"/>
+      <c r="F46" s="481"/>
+      <c r="G46" s="481"/>
+      <c r="H46" s="481"/>
+      <c r="I46" s="312"/>
+      <c r="J46" s="312"/>
+      <c r="K46" s="312"/>
+      <c r="L46" s="313"/>
+      <c r="M46" s="768"/>
+      <c r="N46" s="769"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="139"/>
-      <c r="B47" s="203" t="s">
+      <c r="A47" s="137"/>
+      <c r="B47" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="213"/>
-      <c r="D47" s="536"/>
-      <c r="E47" s="536"/>
-      <c r="F47" s="536"/>
-      <c r="G47" s="536"/>
-      <c r="H47" s="536"/>
-      <c r="I47" s="344"/>
-      <c r="J47" s="344"/>
-      <c r="K47" s="344"/>
-      <c r="L47" s="345"/>
-      <c r="M47" s="349"/>
-      <c r="N47" s="350"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="481"/>
+      <c r="E47" s="481"/>
+      <c r="F47" s="481"/>
+      <c r="G47" s="481"/>
+      <c r="H47" s="481"/>
+      <c r="I47" s="312"/>
+      <c r="J47" s="312"/>
+      <c r="K47" s="312"/>
+      <c r="L47" s="313"/>
+      <c r="M47" s="768"/>
+      <c r="N47" s="769"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="139"/>
-      <c r="B48" s="203" t="s">
+      <c r="A48" s="137"/>
+      <c r="B48" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="213"/>
-      <c r="D48" s="536"/>
-      <c r="E48" s="536"/>
-      <c r="F48" s="536"/>
-      <c r="G48" s="536"/>
-      <c r="H48" s="536"/>
-      <c r="I48" s="344"/>
-      <c r="J48" s="344"/>
-      <c r="K48" s="344"/>
-      <c r="L48" s="345"/>
-      <c r="M48" s="349"/>
-      <c r="N48" s="350"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="481"/>
+      <c r="E48" s="481"/>
+      <c r="F48" s="481"/>
+      <c r="G48" s="481"/>
+      <c r="H48" s="481"/>
+      <c r="I48" s="312"/>
+      <c r="J48" s="312"/>
+      <c r="K48" s="312"/>
+      <c r="L48" s="313"/>
+      <c r="M48" s="768"/>
+      <c r="N48" s="769"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
-      <c r="B49" s="206" t="s">
+      <c r="A49" s="162"/>
+      <c r="B49" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="214"/>
-      <c r="D49" s="348"/>
-      <c r="E49" s="348"/>
-      <c r="F49" s="348"/>
-      <c r="G49" s="348"/>
-      <c r="H49" s="348"/>
-      <c r="I49" s="346" t="s">
+      <c r="C49" s="212"/>
+      <c r="D49" s="316"/>
+      <c r="E49" s="316"/>
+      <c r="F49" s="316"/>
+      <c r="G49" s="316"/>
+      <c r="H49" s="316"/>
+      <c r="I49" s="314" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="346"/>
-      <c r="K49" s="346"/>
-      <c r="L49" s="346"/>
-      <c r="M49" s="346"/>
-      <c r="N49" s="347"/>
+      <c r="J49" s="314"/>
+      <c r="K49" s="314"/>
+      <c r="L49" s="314"/>
+      <c r="M49" s="314"/>
+      <c r="N49" s="315"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="165"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="81"/>
       <c r="D50" s="82"/>
       <c r="E50" s="82"/>
       <c r="F50" s="82"/>
       <c r="G50" s="82"/>
       <c r="H50" s="82"/>
-      <c r="I50" s="466" t="s">
+      <c r="I50" s="415" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="466"/>
-      <c r="K50" s="466"/>
-      <c r="L50" s="466"/>
-      <c r="M50" s="466"/>
-      <c r="N50" s="467"/>
+      <c r="J50" s="415"/>
+      <c r="K50" s="415"/>
+      <c r="L50" s="415"/>
+      <c r="M50" s="415"/>
+      <c r="N50" s="416"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="458" t="s">
+      <c r="A51" s="409" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="488" t="s">
+      <c r="B51" s="436" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="488"/>
-      <c r="D51" s="491" t="s">
+      <c r="C51" s="436"/>
+      <c r="D51" s="439" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="492"/>
-      <c r="F51" s="493"/>
-      <c r="G51" s="491" t="s">
+      <c r="E51" s="440"/>
+      <c r="F51" s="441"/>
+      <c r="G51" s="439" t="s">
         <v>383</v>
       </c>
-      <c r="H51" s="492"/>
-      <c r="I51" s="537"/>
-      <c r="J51" s="351" t="s">
+      <c r="H51" s="440"/>
+      <c r="I51" s="482"/>
+      <c r="J51" s="317" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="352"/>
-      <c r="L51" s="533" t="s">
+      <c r="K51" s="318"/>
+      <c r="L51" s="478" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="460" t="s">
+      <c r="M51" s="411" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="454" t="s">
+      <c r="N51" s="405" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -8363,43 +8238,43 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="459"/>
-      <c r="B52" s="489"/>
-      <c r="C52" s="489"/>
-      <c r="D52" s="494"/>
-      <c r="E52" s="495"/>
-      <c r="F52" s="496"/>
-      <c r="G52" s="494"/>
-      <c r="H52" s="495"/>
-      <c r="I52" s="538"/>
-      <c r="J52" s="353"/>
-      <c r="K52" s="354"/>
-      <c r="L52" s="533"/>
-      <c r="M52" s="460"/>
-      <c r="N52" s="454"/>
+      <c r="A52" s="410"/>
+      <c r="B52" s="437"/>
+      <c r="C52" s="437"/>
+      <c r="D52" s="442"/>
+      <c r="E52" s="443"/>
+      <c r="F52" s="444"/>
+      <c r="G52" s="442"/>
+      <c r="H52" s="443"/>
+      <c r="I52" s="483"/>
+      <c r="J52" s="319"/>
+      <c r="K52" s="320"/>
+      <c r="L52" s="478"/>
+      <c r="M52" s="411"/>
+      <c r="N52" s="405"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="222"/>
-      <c r="B53" s="490"/>
-      <c r="C53" s="490"/>
-      <c r="D53" s="497"/>
-      <c r="E53" s="498"/>
-      <c r="F53" s="475"/>
-      <c r="G53" s="497"/>
-      <c r="H53" s="498"/>
-      <c r="I53" s="539"/>
+      <c r="A53" s="220"/>
+      <c r="B53" s="438"/>
+      <c r="C53" s="438"/>
+      <c r="D53" s="445"/>
+      <c r="E53" s="446"/>
+      <c r="F53" s="423"/>
+      <c r="G53" s="445"/>
+      <c r="H53" s="446"/>
+      <c r="I53" s="484"/>
       <c r="J53" s="87" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="534"/>
-      <c r="M53" s="461"/>
-      <c r="N53" s="455"/>
+      <c r="L53" s="479"/>
+      <c r="M53" s="412"/>
+      <c r="N53" s="406"/>
       <c r="O53" s="89"/>
       <c r="P53" s="89"/>
       <c r="Q53" s="3" t="s">
@@ -8407,178 +8282,178 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="225"/>
-      <c r="B54" s="256" t="s">
+      <c r="A54" s="223"/>
+      <c r="B54" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="226"/>
-      <c r="D54" s="499"/>
-      <c r="E54" s="500"/>
-      <c r="F54" s="501"/>
-      <c r="G54" s="341"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="343"/>
-      <c r="J54" s="858"/>
-      <c r="K54" s="859"/>
-      <c r="L54" s="297"/>
-      <c r="M54" s="298"/>
-      <c r="N54" s="299"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="447"/>
+      <c r="E54" s="448"/>
+      <c r="F54" s="449"/>
+      <c r="G54" s="309"/>
+      <c r="H54" s="310"/>
+      <c r="I54" s="311"/>
+      <c r="J54" s="291"/>
+      <c r="K54" s="292"/>
+      <c r="L54" s="267"/>
+      <c r="M54" s="268"/>
+      <c r="N54" s="269"/>
       <c r="Q54" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="225"/>
-      <c r="B55" s="256" t="s">
+      <c r="A55" s="223"/>
+      <c r="B55" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="499"/>
-      <c r="E55" s="500"/>
-      <c r="F55" s="501"/>
-      <c r="G55" s="341"/>
-      <c r="H55" s="342"/>
-      <c r="I55" s="343"/>
-      <c r="J55" s="858"/>
-      <c r="K55" s="859"/>
-      <c r="L55" s="297"/>
-      <c r="M55" s="300"/>
-      <c r="N55" s="299"/>
+      <c r="C55" s="224"/>
+      <c r="D55" s="447"/>
+      <c r="E55" s="448"/>
+      <c r="F55" s="449"/>
+      <c r="G55" s="309"/>
+      <c r="H55" s="310"/>
+      <c r="I55" s="311"/>
+      <c r="J55" s="291"/>
+      <c r="K55" s="292"/>
+      <c r="L55" s="267"/>
+      <c r="M55" s="270"/>
+      <c r="N55" s="269"/>
       <c r="Q55" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="225"/>
-      <c r="B56" s="256" t="s">
+      <c r="A56" s="223"/>
+      <c r="B56" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="226"/>
-      <c r="D56" s="499"/>
-      <c r="E56" s="500"/>
-      <c r="F56" s="501"/>
-      <c r="G56" s="341"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="343"/>
-      <c r="J56" s="860"/>
-      <c r="K56" s="861"/>
-      <c r="L56" s="297"/>
-      <c r="M56" s="301"/>
-      <c r="N56" s="299"/>
+      <c r="C56" s="224"/>
+      <c r="D56" s="447"/>
+      <c r="E56" s="448"/>
+      <c r="F56" s="449"/>
+      <c r="G56" s="309"/>
+      <c r="H56" s="310"/>
+      <c r="I56" s="311"/>
+      <c r="J56" s="293"/>
+      <c r="K56" s="294"/>
+      <c r="L56" s="267"/>
+      <c r="M56" s="271"/>
+      <c r="N56" s="269"/>
       <c r="Q56" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="225"/>
-      <c r="B57" s="256" t="s">
+      <c r="A57" s="223"/>
+      <c r="B57" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="226"/>
-      <c r="D57" s="499"/>
-      <c r="E57" s="500"/>
-      <c r="F57" s="501"/>
-      <c r="G57" s="341"/>
-      <c r="H57" s="342"/>
-      <c r="I57" s="343"/>
-      <c r="J57" s="858"/>
-      <c r="K57" s="859"/>
-      <c r="L57" s="297"/>
-      <c r="M57" s="300"/>
-      <c r="N57" s="299"/>
+      <c r="C57" s="224"/>
+      <c r="D57" s="447"/>
+      <c r="E57" s="448"/>
+      <c r="F57" s="449"/>
+      <c r="G57" s="309"/>
+      <c r="H57" s="310"/>
+      <c r="I57" s="311"/>
+      <c r="J57" s="291"/>
+      <c r="K57" s="292"/>
+      <c r="L57" s="267"/>
+      <c r="M57" s="270"/>
+      <c r="N57" s="269"/>
       <c r="Q57" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="227"/>
-      <c r="B58" s="257" t="s">
+      <c r="A58" s="225"/>
+      <c r="B58" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="228"/>
-      <c r="D58" s="502"/>
-      <c r="E58" s="503"/>
-      <c r="F58" s="504"/>
-      <c r="G58" s="485"/>
-      <c r="H58" s="486"/>
-      <c r="I58" s="487"/>
-      <c r="J58" s="862"/>
-      <c r="K58" s="863"/>
-      <c r="L58" s="297"/>
-      <c r="M58" s="302"/>
-      <c r="N58" s="299"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="450"/>
+      <c r="E58" s="451"/>
+      <c r="F58" s="452"/>
+      <c r="G58" s="433"/>
+      <c r="H58" s="434"/>
+      <c r="I58" s="435"/>
+      <c r="J58" s="295"/>
+      <c r="K58" s="296"/>
+      <c r="L58" s="267"/>
+      <c r="M58" s="272"/>
+      <c r="N58" s="269"/>
       <c r="Q58" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="522" t="s">
+      <c r="A59" s="467" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="523"/>
-      <c r="C59" s="523"/>
-      <c r="D59" s="523"/>
-      <c r="E59" s="523"/>
-      <c r="F59" s="523"/>
-      <c r="G59" s="523"/>
-      <c r="H59" s="523"/>
-      <c r="I59" s="523"/>
-      <c r="J59" s="523"/>
-      <c r="K59" s="523"/>
-      <c r="L59" s="523"/>
-      <c r="M59" s="523"/>
-      <c r="N59" s="524"/>
+      <c r="B59" s="468"/>
+      <c r="C59" s="468"/>
+      <c r="D59" s="468"/>
+      <c r="E59" s="468"/>
+      <c r="F59" s="468"/>
+      <c r="G59" s="468"/>
+      <c r="H59" s="468"/>
+      <c r="I59" s="468"/>
+      <c r="J59" s="468"/>
+      <c r="K59" s="468"/>
+      <c r="L59" s="468"/>
+      <c r="M59" s="468"/>
+      <c r="N59" s="469"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="519" t="s">
+      <c r="A60" s="464" t="s">
         <v>390</v>
       </c>
-      <c r="B60" s="520"/>
-      <c r="C60" s="521"/>
-      <c r="D60" s="528"/>
-      <c r="E60" s="529"/>
-      <c r="F60" s="529"/>
-      <c r="G60" s="529"/>
-      <c r="H60" s="529"/>
-      <c r="I60" s="530"/>
-      <c r="J60" s="531" t="s">
+      <c r="B60" s="465"/>
+      <c r="C60" s="466"/>
+      <c r="D60" s="473"/>
+      <c r="E60" s="474"/>
+      <c r="F60" s="474"/>
+      <c r="G60" s="474"/>
+      <c r="H60" s="474"/>
+      <c r="I60" s="475"/>
+      <c r="J60" s="476" t="s">
         <v>391</v>
       </c>
-      <c r="K60" s="532"/>
-      <c r="L60" s="525"/>
-      <c r="M60" s="526"/>
-      <c r="N60" s="527"/>
+      <c r="K60" s="477"/>
+      <c r="L60" s="470"/>
+      <c r="M60" s="471"/>
+      <c r="N60" s="472"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
       <c r="R60" s="90"/>
       <c r="S60" s="90"/>
     </row>
-    <row r="61" spans="1:19" s="242" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="518" t="s">
+    <row r="61" spans="1:19" s="240" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="463" t="s">
         <v>394</v>
       </c>
-      <c r="B61" s="518"/>
-      <c r="C61" s="518"/>
-      <c r="D61" s="518"/>
-      <c r="E61" s="518"/>
-      <c r="F61" s="518"/>
-      <c r="G61" s="518"/>
-      <c r="H61" s="518"/>
-      <c r="I61" s="518"/>
-      <c r="J61" s="518"/>
-      <c r="K61" s="518"/>
-      <c r="L61" s="518"/>
-      <c r="M61" s="518"/>
-      <c r="N61" s="518"/>
-      <c r="Q61" s="243" t="s">
+      <c r="B61" s="463"/>
+      <c r="C61" s="463"/>
+      <c r="D61" s="463"/>
+      <c r="E61" s="463"/>
+      <c r="F61" s="463"/>
+      <c r="G61" s="463"/>
+      <c r="H61" s="463"/>
+      <c r="I61" s="463"/>
+      <c r="J61" s="463"/>
+      <c r="K61" s="463"/>
+      <c r="L61" s="463"/>
+      <c r="M61" s="463"/>
+      <c r="N61" s="463"/>
+      <c r="Q61" s="241" t="s">
         <v>395</v>
       </c>
-      <c r="R61" s="128"/>
-      <c r="S61" s="128"/>
+      <c r="R61" s="126"/>
+      <c r="S61" s="126"/>
     </row>
     <row r="62" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="91"/>
@@ -12348,6 +12223,8 @@
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A9:N9"/>
@@ -12372,8 +12249,6 @@
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I40:L40"/>
     <mergeCell ref="D22:F23"/>
@@ -12664,8 +12539,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A57" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12686,76 +12561,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="590"/>
-      <c r="B1" s="591"/>
-      <c r="C1" s="591"/>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
-      <c r="K1" s="591"/>
-      <c r="L1" s="591"/>
-      <c r="M1" s="592"/>
+      <c r="A1" s="527"/>
+      <c r="B1" s="528"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
+      <c r="E1" s="528"/>
+      <c r="F1" s="528"/>
+      <c r="G1" s="528"/>
+      <c r="H1" s="528"/>
+      <c r="I1" s="528"/>
+      <c r="J1" s="528"/>
+      <c r="K1" s="528"/>
+      <c r="L1" s="528"/>
+      <c r="M1" s="529"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="600" t="s">
+      <c r="A2" s="537" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="601"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="601"/>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="601"/>
-      <c r="J2" s="601"/>
-      <c r="K2" s="601"/>
-      <c r="L2" s="601"/>
-      <c r="M2" s="602"/>
+      <c r="B2" s="538"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="538"/>
+      <c r="E2" s="538"/>
+      <c r="F2" s="538"/>
+      <c r="G2" s="538"/>
+      <c r="H2" s="538"/>
+      <c r="I2" s="538"/>
+      <c r="J2" s="538"/>
+      <c r="K2" s="538"/>
+      <c r="L2" s="538"/>
+      <c r="M2" s="539"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="593" t="s">
+      <c r="B3" s="530" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="593"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="594"/>
-      <c r="F3" s="598" t="s">
+      <c r="C3" s="530"/>
+      <c r="D3" s="530"/>
+      <c r="E3" s="531"/>
+      <c r="F3" s="535" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="595" t="s">
+      <c r="G3" s="532" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="594"/>
-      <c r="I3" s="595" t="s">
+      <c r="H3" s="531"/>
+      <c r="I3" s="532" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="593"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="596" t="s">
+      <c r="J3" s="530"/>
+      <c r="K3" s="531"/>
+      <c r="L3" s="533" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="597"/>
+      <c r="M3" s="534"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="567"/>
-      <c r="E4" s="568"/>
-      <c r="F4" s="599"/>
-      <c r="G4" s="581"/>
-      <c r="H4" s="568"/>
-      <c r="I4" s="581"/>
-      <c r="J4" s="567"/>
-      <c r="K4" s="568"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="536"/>
+      <c r="G4" s="518"/>
+      <c r="H4" s="507"/>
+      <c r="I4" s="518"/>
+      <c r="J4" s="506"/>
+      <c r="K4" s="507"/>
       <c r="L4" s="6" t="s">
         <v>91</v>
       </c>
@@ -12764,146 +12639,146 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="579"/>
-      <c r="B5" s="546"/>
-      <c r="C5" s="546"/>
-      <c r="D5" s="546"/>
-      <c r="E5" s="546"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="582"/>
-      <c r="J5" s="582"/>
-      <c r="K5" s="582"/>
-      <c r="L5" s="307"/>
-      <c r="M5" s="284"/>
+      <c r="A5" s="516"/>
+      <c r="B5" s="488"/>
+      <c r="C5" s="488"/>
+      <c r="D5" s="488"/>
+      <c r="E5" s="488"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="489"/>
+      <c r="H5" s="489"/>
+      <c r="I5" s="519"/>
+      <c r="J5" s="519"/>
+      <c r="K5" s="519"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="264"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="579"/>
-      <c r="B6" s="546"/>
-      <c r="C6" s="546"/>
-      <c r="D6" s="546"/>
-      <c r="E6" s="546"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="609"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="582"/>
-      <c r="J6" s="582"/>
-      <c r="K6" s="582"/>
-      <c r="L6" s="307"/>
-      <c r="M6" s="284"/>
+      <c r="A6" s="516"/>
+      <c r="B6" s="488"/>
+      <c r="C6" s="488"/>
+      <c r="D6" s="488"/>
+      <c r="E6" s="488"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="546"/>
+      <c r="H6" s="494"/>
+      <c r="I6" s="519"/>
+      <c r="J6" s="519"/>
+      <c r="K6" s="519"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="264"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="579"/>
-      <c r="B7" s="546"/>
-      <c r="C7" s="546"/>
-      <c r="D7" s="546"/>
-      <c r="E7" s="546"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="548"/>
-      <c r="H7" s="548"/>
-      <c r="I7" s="582"/>
-      <c r="J7" s="582"/>
-      <c r="K7" s="582"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="284"/>
+      <c r="A7" s="516"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="488"/>
+      <c r="D7" s="488"/>
+      <c r="E7" s="488"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="489"/>
+      <c r="H7" s="489"/>
+      <c r="I7" s="519"/>
+      <c r="J7" s="519"/>
+      <c r="K7" s="519"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="264"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="579"/>
-      <c r="B8" s="546"/>
-      <c r="C8" s="546"/>
-      <c r="D8" s="546"/>
-      <c r="E8" s="546"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="548"/>
-      <c r="H8" s="548"/>
-      <c r="I8" s="582"/>
-      <c r="J8" s="582"/>
-      <c r="K8" s="582"/>
-      <c r="L8" s="307"/>
-      <c r="M8" s="284"/>
+      <c r="A8" s="516"/>
+      <c r="B8" s="488"/>
+      <c r="C8" s="488"/>
+      <c r="D8" s="488"/>
+      <c r="E8" s="488"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="489"/>
+      <c r="H8" s="489"/>
+      <c r="I8" s="519"/>
+      <c r="J8" s="519"/>
+      <c r="K8" s="519"/>
+      <c r="L8" s="300"/>
+      <c r="M8" s="264"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="579"/>
-      <c r="B9" s="546"/>
-      <c r="C9" s="546"/>
-      <c r="D9" s="546"/>
-      <c r="E9" s="546"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="548"/>
-      <c r="H9" s="548"/>
-      <c r="I9" s="582"/>
-      <c r="J9" s="582"/>
-      <c r="K9" s="582"/>
-      <c r="L9" s="307"/>
-      <c r="M9" s="284"/>
+      <c r="A9" s="516"/>
+      <c r="B9" s="488"/>
+      <c r="C9" s="488"/>
+      <c r="D9" s="488"/>
+      <c r="E9" s="488"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="489"/>
+      <c r="H9" s="489"/>
+      <c r="I9" s="519"/>
+      <c r="J9" s="519"/>
+      <c r="K9" s="519"/>
+      <c r="L9" s="300"/>
+      <c r="M9" s="264"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="579"/>
-      <c r="B10" s="546"/>
-      <c r="C10" s="546"/>
-      <c r="D10" s="546"/>
-      <c r="E10" s="546"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="548"/>
-      <c r="H10" s="548"/>
-      <c r="I10" s="582"/>
-      <c r="J10" s="582"/>
-      <c r="K10" s="582"/>
-      <c r="L10" s="307"/>
-      <c r="M10" s="284"/>
+      <c r="A10" s="516"/>
+      <c r="B10" s="488"/>
+      <c r="C10" s="488"/>
+      <c r="D10" s="488"/>
+      <c r="E10" s="488"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="489"/>
+      <c r="H10" s="489"/>
+      <c r="I10" s="519"/>
+      <c r="J10" s="519"/>
+      <c r="K10" s="519"/>
+      <c r="L10" s="300"/>
+      <c r="M10" s="264"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="564"/>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="553"/>
-      <c r="H11" s="553"/>
-      <c r="I11" s="583"/>
-      <c r="J11" s="583"/>
-      <c r="K11" s="583"/>
-      <c r="L11" s="334"/>
-      <c r="M11" s="340"/>
+      <c r="A11" s="503"/>
+      <c r="B11" s="498"/>
+      <c r="C11" s="498"/>
+      <c r="D11" s="498"/>
+      <c r="E11" s="498"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="493"/>
+      <c r="H11" s="493"/>
+      <c r="I11" s="520"/>
+      <c r="J11" s="520"/>
+      <c r="K11" s="520"/>
+      <c r="L11" s="303"/>
+      <c r="M11" s="290"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="571" t="s">
+      <c r="A12" s="508" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="572"/>
-      <c r="C12" s="572"/>
-      <c r="D12" s="572"/>
-      <c r="E12" s="572"/>
-      <c r="F12" s="572"/>
-      <c r="G12" s="572"/>
-      <c r="H12" s="572"/>
-      <c r="I12" s="572"/>
-      <c r="J12" s="572"/>
-      <c r="K12" s="572"/>
-      <c r="L12" s="572"/>
-      <c r="M12" s="573"/>
+      <c r="B12" s="509"/>
+      <c r="C12" s="509"/>
+      <c r="D12" s="509"/>
+      <c r="E12" s="509"/>
+      <c r="F12" s="509"/>
+      <c r="G12" s="509"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="509"/>
+      <c r="K12" s="509"/>
+      <c r="L12" s="509"/>
+      <c r="M12" s="510"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="574" t="s">
+      <c r="A13" s="511" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="575"/>
-      <c r="C13" s="575"/>
-      <c r="D13" s="575"/>
-      <c r="E13" s="575"/>
-      <c r="F13" s="575"/>
-      <c r="G13" s="575"/>
-      <c r="H13" s="575"/>
-      <c r="I13" s="575"/>
-      <c r="J13" s="575"/>
-      <c r="K13" s="575"/>
-      <c r="L13" s="575"/>
-      <c r="M13" s="576"/>
-    </row>
-    <row r="14" spans="1:13" s="195" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="202" t="s">
+      <c r="B13" s="512"/>
+      <c r="C13" s="512"/>
+      <c r="D13" s="512"/>
+      <c r="E13" s="512"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="512"/>
+      <c r="K13" s="512"/>
+      <c r="L13" s="512"/>
+      <c r="M13" s="513"/>
+    </row>
+    <row r="14" spans="1:13" s="193" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="200" t="s">
         <v>386</v>
       </c>
       <c r="B14" s="82"/>
@@ -12917,547 +12792,547 @@
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
       <c r="L14" s="82"/>
-      <c r="M14" s="201"/>
+      <c r="M14" s="199"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="565" t="s">
+      <c r="B15" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="566"/>
-      <c r="D15" s="580" t="s">
+      <c r="C15" s="505"/>
+      <c r="D15" s="517" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="565"/>
-      <c r="F15" s="566"/>
-      <c r="G15" s="580" t="s">
+      <c r="E15" s="504"/>
+      <c r="F15" s="505"/>
+      <c r="G15" s="517" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="565"/>
-      <c r="I15" s="566"/>
-      <c r="J15" s="584" t="s">
+      <c r="H15" s="504"/>
+      <c r="I15" s="505"/>
+      <c r="J15" s="521" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="605" t="s">
+      <c r="K15" s="542" t="s">
         <v>347</v>
       </c>
-      <c r="L15" s="577" t="s">
+      <c r="L15" s="514" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="603" t="s">
+      <c r="M15" s="540" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="567"/>
-      <c r="C16" s="568"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="565"/>
-      <c r="F16" s="566"/>
-      <c r="G16" s="580"/>
-      <c r="H16" s="565"/>
-      <c r="I16" s="566"/>
-      <c r="J16" s="584"/>
-      <c r="K16" s="605"/>
-      <c r="L16" s="577"/>
-      <c r="M16" s="603"/>
+      <c r="B16" s="506"/>
+      <c r="C16" s="507"/>
+      <c r="D16" s="517"/>
+      <c r="E16" s="504"/>
+      <c r="F16" s="505"/>
+      <c r="G16" s="517"/>
+      <c r="H16" s="504"/>
+      <c r="I16" s="505"/>
+      <c r="J16" s="521"/>
+      <c r="K16" s="542"/>
+      <c r="L16" s="514"/>
+      <c r="M16" s="540"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="607" t="s">
+      <c r="A17" s="544" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="608"/>
+      <c r="B17" s="545"/>
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="581"/>
-      <c r="E17" s="567"/>
-      <c r="F17" s="568"/>
-      <c r="G17" s="581"/>
-      <c r="H17" s="567"/>
-      <c r="I17" s="568"/>
-      <c r="J17" s="585"/>
-      <c r="K17" s="606"/>
-      <c r="L17" s="578"/>
-      <c r="M17" s="604"/>
-    </row>
-    <row r="18" spans="1:13" s="261" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="543"/>
-      <c r="B18" s="544"/>
-      <c r="C18" s="326"/>
-      <c r="D18" s="540"/>
-      <c r="E18" s="541"/>
-      <c r="F18" s="542"/>
-      <c r="G18" s="545"/>
-      <c r="H18" s="545"/>
-      <c r="I18" s="545"/>
-      <c r="J18" s="327"/>
-      <c r="K18" s="328"/>
-      <c r="L18" s="329"/>
-      <c r="M18" s="292"/>
+      <c r="D17" s="518"/>
+      <c r="E17" s="506"/>
+      <c r="F17" s="507"/>
+      <c r="G17" s="518"/>
+      <c r="H17" s="506"/>
+      <c r="I17" s="507"/>
+      <c r="J17" s="522"/>
+      <c r="K17" s="543"/>
+      <c r="L17" s="515"/>
+      <c r="M17" s="541"/>
+    </row>
+    <row r="18" spans="1:13" s="259" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="485"/>
+      <c r="B18" s="486"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="814"/>
+      <c r="E18" s="815"/>
+      <c r="F18" s="816"/>
+      <c r="G18" s="487"/>
+      <c r="H18" s="487"/>
+      <c r="I18" s="487"/>
+      <c r="J18" s="281"/>
+      <c r="K18" s="282"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="265"/>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="569"/>
-      <c r="B19" s="570"/>
-      <c r="C19" s="306"/>
-      <c r="D19" s="545"/>
-      <c r="E19" s="545"/>
-      <c r="F19" s="545"/>
-      <c r="G19" s="545"/>
-      <c r="H19" s="545"/>
-      <c r="I19" s="545"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="294"/>
+      <c r="A19" s="817"/>
+      <c r="B19" s="818"/>
+      <c r="C19" s="819"/>
+      <c r="D19" s="487"/>
+      <c r="E19" s="487"/>
+      <c r="F19" s="487"/>
+      <c r="G19" s="487"/>
+      <c r="H19" s="487"/>
+      <c r="I19" s="487"/>
+      <c r="J19" s="820"/>
+      <c r="K19" s="302"/>
+      <c r="L19" s="302"/>
+      <c r="M19" s="266"/>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="569"/>
-      <c r="B20" s="570"/>
-      <c r="C20" s="306"/>
-      <c r="D20" s="545"/>
-      <c r="E20" s="545"/>
-      <c r="F20" s="545"/>
-      <c r="G20" s="545"/>
-      <c r="H20" s="545"/>
-      <c r="I20" s="545"/>
-      <c r="J20" s="296"/>
-      <c r="K20" s="303"/>
-      <c r="L20" s="295"/>
-      <c r="M20" s="294"/>
+      <c r="A20" s="817"/>
+      <c r="B20" s="818"/>
+      <c r="C20" s="819"/>
+      <c r="D20" s="487"/>
+      <c r="E20" s="487"/>
+      <c r="F20" s="487"/>
+      <c r="G20" s="487"/>
+      <c r="H20" s="487"/>
+      <c r="I20" s="487"/>
+      <c r="J20" s="821"/>
+      <c r="K20" s="302"/>
+      <c r="L20" s="302"/>
+      <c r="M20" s="266"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="547"/>
-      <c r="B21" s="548"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="546"/>
-      <c r="E21" s="546"/>
-      <c r="F21" s="546"/>
-      <c r="G21" s="546"/>
-      <c r="H21" s="546"/>
-      <c r="I21" s="546"/>
-      <c r="J21" s="330"/>
-      <c r="K21" s="307"/>
-      <c r="L21" s="307"/>
-      <c r="M21" s="331"/>
+      <c r="A21" s="822"/>
+      <c r="B21" s="519"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="488"/>
+      <c r="E21" s="488"/>
+      <c r="F21" s="488"/>
+      <c r="G21" s="488"/>
+      <c r="H21" s="488"/>
+      <c r="I21" s="488"/>
+      <c r="J21" s="823"/>
+      <c r="K21" s="300"/>
+      <c r="L21" s="300"/>
+      <c r="M21" s="284"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="547"/>
-      <c r="B22" s="548"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="546"/>
-      <c r="E22" s="546"/>
-      <c r="F22" s="546"/>
-      <c r="G22" s="546"/>
-      <c r="H22" s="546"/>
-      <c r="I22" s="546"/>
-      <c r="J22" s="330"/>
-      <c r="K22" s="307"/>
-      <c r="L22" s="332"/>
-      <c r="M22" s="331"/>
+      <c r="A22" s="822"/>
+      <c r="B22" s="519"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="488"/>
+      <c r="E22" s="488"/>
+      <c r="F22" s="488"/>
+      <c r="G22" s="488"/>
+      <c r="H22" s="488"/>
+      <c r="I22" s="488"/>
+      <c r="J22" s="823"/>
+      <c r="K22" s="300"/>
+      <c r="L22" s="300"/>
+      <c r="M22" s="284"/>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="547"/>
-      <c r="B23" s="548"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="546"/>
-      <c r="E23" s="546"/>
-      <c r="F23" s="546"/>
-      <c r="G23" s="546"/>
-      <c r="H23" s="546"/>
-      <c r="I23" s="546"/>
-      <c r="J23" s="330"/>
-      <c r="K23" s="307"/>
-      <c r="L23" s="307"/>
-      <c r="M23" s="331"/>
+      <c r="A23" s="822"/>
+      <c r="B23" s="519"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="488"/>
+      <c r="E23" s="488"/>
+      <c r="F23" s="488"/>
+      <c r="G23" s="488"/>
+      <c r="H23" s="488"/>
+      <c r="I23" s="488"/>
+      <c r="J23" s="823"/>
+      <c r="K23" s="300"/>
+      <c r="L23" s="300"/>
+      <c r="M23" s="284"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="547"/>
-      <c r="B24" s="548"/>
-      <c r="C24" s="304"/>
-      <c r="D24" s="546"/>
-      <c r="E24" s="546"/>
-      <c r="F24" s="546"/>
-      <c r="G24" s="546"/>
-      <c r="H24" s="546"/>
-      <c r="I24" s="546"/>
-      <c r="J24" s="330"/>
-      <c r="K24" s="307"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="331"/>
+      <c r="A24" s="822"/>
+      <c r="B24" s="519"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="488"/>
+      <c r="E24" s="488"/>
+      <c r="F24" s="488"/>
+      <c r="G24" s="488"/>
+      <c r="H24" s="488"/>
+      <c r="I24" s="488"/>
+      <c r="J24" s="823"/>
+      <c r="K24" s="300"/>
+      <c r="L24" s="300"/>
+      <c r="M24" s="284"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="547"/>
-      <c r="B25" s="548"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="546"/>
-      <c r="E25" s="546"/>
-      <c r="F25" s="546"/>
-      <c r="G25" s="546"/>
-      <c r="H25" s="546"/>
-      <c r="I25" s="546"/>
-      <c r="J25" s="330"/>
-      <c r="K25" s="307"/>
-      <c r="L25" s="307"/>
-      <c r="M25" s="331"/>
+      <c r="A25" s="822"/>
+      <c r="B25" s="519"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="488"/>
+      <c r="E25" s="488"/>
+      <c r="F25" s="488"/>
+      <c r="G25" s="488"/>
+      <c r="H25" s="488"/>
+      <c r="I25" s="488"/>
+      <c r="J25" s="823"/>
+      <c r="K25" s="300"/>
+      <c r="L25" s="300"/>
+      <c r="M25" s="284"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="547"/>
-      <c r="B26" s="548"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="546"/>
-      <c r="E26" s="546"/>
-      <c r="F26" s="546"/>
-      <c r="G26" s="546"/>
-      <c r="H26" s="546"/>
-      <c r="I26" s="546"/>
-      <c r="J26" s="330"/>
-      <c r="K26" s="307"/>
-      <c r="L26" s="307"/>
-      <c r="M26" s="331"/>
+      <c r="A26" s="822"/>
+      <c r="B26" s="519"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="488"/>
+      <c r="E26" s="488"/>
+      <c r="F26" s="488"/>
+      <c r="G26" s="488"/>
+      <c r="H26" s="488"/>
+      <c r="I26" s="488"/>
+      <c r="J26" s="823"/>
+      <c r="K26" s="300"/>
+      <c r="L26" s="300"/>
+      <c r="M26" s="284"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="547"/>
-      <c r="B27" s="548"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="546"/>
-      <c r="E27" s="546"/>
-      <c r="F27" s="546"/>
-      <c r="G27" s="546"/>
-      <c r="H27" s="546"/>
-      <c r="I27" s="546"/>
-      <c r="J27" s="330"/>
-      <c r="K27" s="307"/>
-      <c r="L27" s="307"/>
-      <c r="M27" s="331"/>
+      <c r="A27" s="822"/>
+      <c r="B27" s="519"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="488"/>
+      <c r="E27" s="488"/>
+      <c r="F27" s="488"/>
+      <c r="G27" s="488"/>
+      <c r="H27" s="488"/>
+      <c r="I27" s="488"/>
+      <c r="J27" s="823"/>
+      <c r="K27" s="300"/>
+      <c r="L27" s="300"/>
+      <c r="M27" s="284"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="547"/>
-      <c r="B28" s="548"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="546"/>
-      <c r="E28" s="546"/>
-      <c r="F28" s="546"/>
-      <c r="G28" s="546"/>
-      <c r="H28" s="546"/>
-      <c r="I28" s="546"/>
-      <c r="J28" s="330"/>
-      <c r="K28" s="307"/>
-      <c r="L28" s="307"/>
-      <c r="M28" s="331"/>
+      <c r="A28" s="822"/>
+      <c r="B28" s="519"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="488"/>
+      <c r="E28" s="488"/>
+      <c r="F28" s="488"/>
+      <c r="G28" s="488"/>
+      <c r="H28" s="488"/>
+      <c r="I28" s="488"/>
+      <c r="J28" s="823"/>
+      <c r="K28" s="300"/>
+      <c r="L28" s="300"/>
+      <c r="M28" s="284"/>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="547"/>
-      <c r="B29" s="548"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="546"/>
-      <c r="E29" s="546"/>
-      <c r="F29" s="546"/>
-      <c r="G29" s="546"/>
-      <c r="H29" s="546"/>
-      <c r="I29" s="546"/>
-      <c r="J29" s="330"/>
-      <c r="K29" s="307"/>
-      <c r="L29" s="307"/>
-      <c r="M29" s="331"/>
+      <c r="A29" s="822"/>
+      <c r="B29" s="519"/>
+      <c r="C29" s="299"/>
+      <c r="D29" s="488"/>
+      <c r="E29" s="488"/>
+      <c r="F29" s="488"/>
+      <c r="G29" s="488"/>
+      <c r="H29" s="488"/>
+      <c r="I29" s="488"/>
+      <c r="J29" s="823"/>
+      <c r="K29" s="300"/>
+      <c r="L29" s="300"/>
+      <c r="M29" s="284"/>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="547"/>
-      <c r="B30" s="548"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="546"/>
-      <c r="E30" s="546"/>
-      <c r="F30" s="546"/>
-      <c r="G30" s="546"/>
-      <c r="H30" s="546"/>
-      <c r="I30" s="546"/>
-      <c r="J30" s="330"/>
-      <c r="K30" s="307"/>
-      <c r="L30" s="307"/>
-      <c r="M30" s="331"/>
+      <c r="A30" s="822"/>
+      <c r="B30" s="519"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="488"/>
+      <c r="E30" s="488"/>
+      <c r="F30" s="488"/>
+      <c r="G30" s="488"/>
+      <c r="H30" s="488"/>
+      <c r="I30" s="488"/>
+      <c r="J30" s="823"/>
+      <c r="K30" s="300"/>
+      <c r="L30" s="300"/>
+      <c r="M30" s="284"/>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="554"/>
-      <c r="B31" s="555"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="556"/>
-      <c r="E31" s="557"/>
-      <c r="F31" s="558"/>
-      <c r="G31" s="556"/>
-      <c r="H31" s="557"/>
-      <c r="I31" s="558"/>
-      <c r="J31" s="330"/>
-      <c r="K31" s="307"/>
-      <c r="L31" s="307"/>
-      <c r="M31" s="331"/>
+      <c r="A31" s="824"/>
+      <c r="B31" s="825"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="495"/>
+      <c r="E31" s="496"/>
+      <c r="F31" s="497"/>
+      <c r="G31" s="495"/>
+      <c r="H31" s="496"/>
+      <c r="I31" s="497"/>
+      <c r="J31" s="823"/>
+      <c r="K31" s="300"/>
+      <c r="L31" s="300"/>
+      <c r="M31" s="284"/>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="554"/>
-      <c r="B32" s="555"/>
-      <c r="C32" s="304"/>
-      <c r="D32" s="556"/>
-      <c r="E32" s="557"/>
-      <c r="F32" s="558"/>
-      <c r="G32" s="556"/>
-      <c r="H32" s="557"/>
-      <c r="I32" s="558"/>
-      <c r="J32" s="330"/>
-      <c r="K32" s="307"/>
-      <c r="L32" s="307"/>
-      <c r="M32" s="331"/>
+      <c r="A32" s="824"/>
+      <c r="B32" s="825"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="495"/>
+      <c r="E32" s="496"/>
+      <c r="F32" s="497"/>
+      <c r="G32" s="495"/>
+      <c r="H32" s="496"/>
+      <c r="I32" s="497"/>
+      <c r="J32" s="823"/>
+      <c r="K32" s="300"/>
+      <c r="L32" s="300"/>
+      <c r="M32" s="284"/>
     </row>
     <row r="33" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="547"/>
-      <c r="B33" s="548"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="546"/>
-      <c r="E33" s="546"/>
-      <c r="F33" s="546"/>
-      <c r="G33" s="546"/>
-      <c r="H33" s="546"/>
-      <c r="I33" s="546"/>
-      <c r="J33" s="330"/>
-      <c r="K33" s="307"/>
-      <c r="L33" s="307"/>
-      <c r="M33" s="331"/>
+      <c r="A33" s="822"/>
+      <c r="B33" s="519"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="488"/>
+      <c r="E33" s="488"/>
+      <c r="F33" s="488"/>
+      <c r="G33" s="488"/>
+      <c r="H33" s="488"/>
+      <c r="I33" s="488"/>
+      <c r="J33" s="823"/>
+      <c r="K33" s="300"/>
+      <c r="L33" s="300"/>
+      <c r="M33" s="284"/>
     </row>
     <row r="34" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="547"/>
-      <c r="B34" s="548"/>
-      <c r="C34" s="304"/>
-      <c r="D34" s="546"/>
-      <c r="E34" s="546"/>
-      <c r="F34" s="546"/>
-      <c r="G34" s="546"/>
-      <c r="H34" s="546"/>
-      <c r="I34" s="546"/>
-      <c r="J34" s="330"/>
-      <c r="K34" s="307"/>
-      <c r="L34" s="307"/>
-      <c r="M34" s="331"/>
+      <c r="A34" s="822"/>
+      <c r="B34" s="519"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="488"/>
+      <c r="E34" s="488"/>
+      <c r="F34" s="488"/>
+      <c r="G34" s="488"/>
+      <c r="H34" s="488"/>
+      <c r="I34" s="488"/>
+      <c r="J34" s="823"/>
+      <c r="K34" s="300"/>
+      <c r="L34" s="300"/>
+      <c r="M34" s="284"/>
     </row>
     <row r="35" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="547"/>
-      <c r="B35" s="548"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="546"/>
-      <c r="E35" s="546"/>
-      <c r="F35" s="546"/>
-      <c r="G35" s="546"/>
-      <c r="H35" s="546"/>
-      <c r="I35" s="546"/>
-      <c r="J35" s="330"/>
-      <c r="K35" s="307"/>
-      <c r="L35" s="307"/>
-      <c r="M35" s="331"/>
+      <c r="A35" s="822"/>
+      <c r="B35" s="519"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="488"/>
+      <c r="E35" s="488"/>
+      <c r="F35" s="488"/>
+      <c r="G35" s="488"/>
+      <c r="H35" s="488"/>
+      <c r="I35" s="488"/>
+      <c r="J35" s="823"/>
+      <c r="K35" s="300"/>
+      <c r="L35" s="300"/>
+      <c r="M35" s="284"/>
     </row>
     <row r="36" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="547"/>
-      <c r="B36" s="548"/>
-      <c r="C36" s="304"/>
-      <c r="D36" s="546"/>
-      <c r="E36" s="546"/>
-      <c r="F36" s="546"/>
-      <c r="G36" s="546"/>
-      <c r="H36" s="546"/>
-      <c r="I36" s="546"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="307"/>
-      <c r="L36" s="307"/>
-      <c r="M36" s="331"/>
+      <c r="A36" s="822"/>
+      <c r="B36" s="519"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="488"/>
+      <c r="E36" s="488"/>
+      <c r="F36" s="488"/>
+      <c r="G36" s="488"/>
+      <c r="H36" s="488"/>
+      <c r="I36" s="488"/>
+      <c r="J36" s="823"/>
+      <c r="K36" s="300"/>
+      <c r="L36" s="300"/>
+      <c r="M36" s="284"/>
     </row>
     <row r="37" spans="1:14" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="547"/>
-      <c r="B37" s="548"/>
-      <c r="C37" s="304"/>
-      <c r="D37" s="546"/>
-      <c r="E37" s="546"/>
-      <c r="F37" s="546"/>
-      <c r="G37" s="546"/>
-      <c r="H37" s="546"/>
-      <c r="I37" s="546"/>
-      <c r="J37" s="330"/>
-      <c r="K37" s="307"/>
-      <c r="L37" s="307"/>
-      <c r="M37" s="331"/>
+      <c r="A37" s="822"/>
+      <c r="B37" s="519"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="488"/>
+      <c r="E37" s="488"/>
+      <c r="F37" s="488"/>
+      <c r="G37" s="488"/>
+      <c r="H37" s="488"/>
+      <c r="I37" s="488"/>
+      <c r="J37" s="823"/>
+      <c r="K37" s="300"/>
+      <c r="L37" s="300"/>
+      <c r="M37" s="284"/>
     </row>
     <row r="38" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="547"/>
-      <c r="B38" s="548"/>
-      <c r="C38" s="304"/>
-      <c r="D38" s="546"/>
-      <c r="E38" s="546"/>
-      <c r="F38" s="546"/>
-      <c r="G38" s="546"/>
-      <c r="H38" s="546"/>
-      <c r="I38" s="546"/>
-      <c r="J38" s="330"/>
-      <c r="K38" s="307"/>
-      <c r="L38" s="307"/>
-      <c r="M38" s="331"/>
+      <c r="A38" s="822"/>
+      <c r="B38" s="519"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="488"/>
+      <c r="E38" s="488"/>
+      <c r="F38" s="488"/>
+      <c r="G38" s="488"/>
+      <c r="H38" s="488"/>
+      <c r="I38" s="488"/>
+      <c r="J38" s="823"/>
+      <c r="K38" s="300"/>
+      <c r="L38" s="300"/>
+      <c r="M38" s="284"/>
     </row>
     <row r="39" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="547"/>
-      <c r="B39" s="548"/>
-      <c r="C39" s="304"/>
-      <c r="D39" s="546"/>
-      <c r="E39" s="546"/>
-      <c r="F39" s="546"/>
-      <c r="G39" s="546"/>
-      <c r="H39" s="546"/>
-      <c r="I39" s="546"/>
-      <c r="J39" s="330"/>
-      <c r="K39" s="307"/>
-      <c r="L39" s="307"/>
-      <c r="M39" s="331"/>
+      <c r="A39" s="822"/>
+      <c r="B39" s="519"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="488"/>
+      <c r="E39" s="488"/>
+      <c r="F39" s="488"/>
+      <c r="G39" s="488"/>
+      <c r="H39" s="488"/>
+      <c r="I39" s="488"/>
+      <c r="J39" s="823"/>
+      <c r="K39" s="300"/>
+      <c r="L39" s="300"/>
+      <c r="M39" s="284"/>
     </row>
     <row r="40" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="547"/>
-      <c r="B40" s="548"/>
-      <c r="C40" s="304"/>
-      <c r="D40" s="546"/>
-      <c r="E40" s="546"/>
-      <c r="F40" s="546"/>
-      <c r="G40" s="546"/>
-      <c r="H40" s="546"/>
-      <c r="I40" s="546"/>
-      <c r="J40" s="330"/>
-      <c r="K40" s="307"/>
-      <c r="L40" s="307"/>
-      <c r="M40" s="331"/>
+      <c r="A40" s="822"/>
+      <c r="B40" s="519"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="488"/>
+      <c r="E40" s="488"/>
+      <c r="F40" s="488"/>
+      <c r="G40" s="488"/>
+      <c r="H40" s="488"/>
+      <c r="I40" s="488"/>
+      <c r="J40" s="823"/>
+      <c r="K40" s="300"/>
+      <c r="L40" s="300"/>
+      <c r="M40" s="284"/>
     </row>
     <row r="41" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="547"/>
-      <c r="B41" s="548"/>
-      <c r="C41" s="304"/>
-      <c r="D41" s="546"/>
-      <c r="E41" s="546"/>
-      <c r="F41" s="546"/>
-      <c r="G41" s="546"/>
-      <c r="H41" s="546"/>
-      <c r="I41" s="546"/>
-      <c r="J41" s="330"/>
-      <c r="K41" s="307"/>
-      <c r="L41" s="307"/>
-      <c r="M41" s="331"/>
+      <c r="A41" s="822"/>
+      <c r="B41" s="519"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="488"/>
+      <c r="E41" s="488"/>
+      <c r="F41" s="488"/>
+      <c r="G41" s="488"/>
+      <c r="H41" s="488"/>
+      <c r="I41" s="488"/>
+      <c r="J41" s="823"/>
+      <c r="K41" s="300"/>
+      <c r="L41" s="300"/>
+      <c r="M41" s="284"/>
     </row>
     <row r="42" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="547"/>
-      <c r="B42" s="548"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="546"/>
-      <c r="E42" s="546"/>
-      <c r="F42" s="546"/>
-      <c r="G42" s="546"/>
-      <c r="H42" s="546"/>
-      <c r="I42" s="546"/>
-      <c r="J42" s="330"/>
-      <c r="K42" s="307"/>
-      <c r="L42" s="307"/>
-      <c r="M42" s="331"/>
+      <c r="A42" s="822"/>
+      <c r="B42" s="519"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="488"/>
+      <c r="E42" s="488"/>
+      <c r="F42" s="488"/>
+      <c r="G42" s="488"/>
+      <c r="H42" s="488"/>
+      <c r="I42" s="488"/>
+      <c r="J42" s="823"/>
+      <c r="K42" s="300"/>
+      <c r="L42" s="300"/>
+      <c r="M42" s="284"/>
     </row>
     <row r="43" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="547"/>
-      <c r="B43" s="548"/>
-      <c r="C43" s="304"/>
-      <c r="D43" s="546"/>
-      <c r="E43" s="546"/>
-      <c r="F43" s="546"/>
-      <c r="G43" s="546"/>
-      <c r="H43" s="546"/>
-      <c r="I43" s="546"/>
-      <c r="J43" s="330"/>
-      <c r="K43" s="307"/>
-      <c r="L43" s="307"/>
-      <c r="M43" s="331"/>
+      <c r="A43" s="822"/>
+      <c r="B43" s="519"/>
+      <c r="C43" s="299"/>
+      <c r="D43" s="488"/>
+      <c r="E43" s="488"/>
+      <c r="F43" s="488"/>
+      <c r="G43" s="488"/>
+      <c r="H43" s="488"/>
+      <c r="I43" s="488"/>
+      <c r="J43" s="823"/>
+      <c r="K43" s="300"/>
+      <c r="L43" s="300"/>
+      <c r="M43" s="284"/>
     </row>
     <row r="44" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="547"/>
-      <c r="B44" s="548"/>
-      <c r="C44" s="304"/>
-      <c r="D44" s="546"/>
-      <c r="E44" s="546"/>
-      <c r="F44" s="546"/>
-      <c r="G44" s="546"/>
-      <c r="H44" s="546"/>
-      <c r="I44" s="546"/>
-      <c r="J44" s="330"/>
-      <c r="K44" s="307"/>
-      <c r="L44" s="307"/>
-      <c r="M44" s="331"/>
+      <c r="A44" s="822"/>
+      <c r="B44" s="519"/>
+      <c r="C44" s="299"/>
+      <c r="D44" s="488"/>
+      <c r="E44" s="488"/>
+      <c r="F44" s="488"/>
+      <c r="G44" s="488"/>
+      <c r="H44" s="488"/>
+      <c r="I44" s="488"/>
+      <c r="J44" s="823"/>
+      <c r="K44" s="300"/>
+      <c r="L44" s="300"/>
+      <c r="M44" s="284"/>
     </row>
     <row r="45" spans="1:14" s="11" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="552"/>
-      <c r="B45" s="553"/>
-      <c r="C45" s="305"/>
-      <c r="D45" s="559"/>
-      <c r="E45" s="559"/>
-      <c r="F45" s="559"/>
-      <c r="G45" s="559"/>
-      <c r="H45" s="559"/>
-      <c r="I45" s="559"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="334"/>
-      <c r="L45" s="334"/>
-      <c r="M45" s="335"/>
+      <c r="A45" s="826"/>
+      <c r="B45" s="520"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="498"/>
+      <c r="E45" s="498"/>
+      <c r="F45" s="498"/>
+      <c r="G45" s="498"/>
+      <c r="H45" s="498"/>
+      <c r="I45" s="498"/>
+      <c r="J45" s="827"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="285"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="560" t="s">
+      <c r="A46" s="499" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="561"/>
-      <c r="C46" s="561"/>
-      <c r="D46" s="561"/>
-      <c r="E46" s="561"/>
-      <c r="F46" s="561"/>
-      <c r="G46" s="561"/>
-      <c r="H46" s="561"/>
-      <c r="I46" s="561"/>
-      <c r="J46" s="561"/>
-      <c r="K46" s="562"/>
-      <c r="L46" s="562"/>
-      <c r="M46" s="563"/>
+      <c r="B46" s="500"/>
+      <c r="C46" s="500"/>
+      <c r="D46" s="500"/>
+      <c r="E46" s="500"/>
+      <c r="F46" s="500"/>
+      <c r="G46" s="500"/>
+      <c r="H46" s="500"/>
+      <c r="I46" s="500"/>
+      <c r="J46" s="500"/>
+      <c r="K46" s="501"/>
+      <c r="L46" s="501"/>
+      <c r="M46" s="502"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="519" t="s">
+      <c r="A47" s="464" t="s">
         <v>390</v>
       </c>
-      <c r="B47" s="520"/>
-      <c r="C47" s="521"/>
-      <c r="D47" s="587"/>
-      <c r="E47" s="588"/>
-      <c r="F47" s="588"/>
-      <c r="G47" s="588"/>
-      <c r="H47" s="589"/>
-      <c r="I47" s="239" t="s">
+      <c r="B47" s="465"/>
+      <c r="C47" s="466"/>
+      <c r="D47" s="524"/>
+      <c r="E47" s="525"/>
+      <c r="F47" s="525"/>
+      <c r="G47" s="525"/>
+      <c r="H47" s="526"/>
+      <c r="I47" s="237" t="s">
         <v>391</v>
       </c>
-      <c r="J47" s="549"/>
-      <c r="K47" s="550"/>
-      <c r="L47" s="550"/>
-      <c r="M47" s="551"/>
-      <c r="N47" s="240"/>
+      <c r="J47" s="490"/>
+      <c r="K47" s="491"/>
+      <c r="L47" s="491"/>
+      <c r="M47" s="492"/>
+      <c r="N47" s="238"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="586" t="s">
+      <c r="A48" s="523" t="s">
         <v>396</v>
       </c>
-      <c r="B48" s="586"/>
-      <c r="C48" s="586"/>
-      <c r="D48" s="586"/>
-      <c r="E48" s="586"/>
-      <c r="F48" s="586"/>
-      <c r="G48" s="586"/>
-      <c r="H48" s="586"/>
-      <c r="I48" s="586"/>
-      <c r="J48" s="586"/>
-      <c r="K48" s="586"/>
-      <c r="L48" s="586"/>
-      <c r="M48" s="586"/>
-      <c r="N48" s="244"/>
+      <c r="B48" s="523"/>
+      <c r="C48" s="523"/>
+      <c r="D48" s="523"/>
+      <c r="E48" s="523"/>
+      <c r="F48" s="523"/>
+      <c r="G48" s="523"/>
+      <c r="H48" s="523"/>
+      <c r="I48" s="523"/>
+      <c r="J48" s="523"/>
+      <c r="K48" s="523"/>
+      <c r="L48" s="523"/>
+      <c r="M48" s="523"/>
+      <c r="N48" s="242"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -13614,8 +13489,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13636,758 +13511,758 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="627"/>
-      <c r="B1" s="628"/>
-      <c r="C1" s="628"/>
-      <c r="D1" s="628"/>
-      <c r="E1" s="628"/>
-      <c r="F1" s="628"/>
-      <c r="G1" s="628"/>
-      <c r="H1" s="628"/>
-      <c r="I1" s="628"/>
-      <c r="J1" s="628"/>
-      <c r="K1" s="629"/>
+      <c r="A1" s="555"/>
+      <c r="B1" s="556"/>
+      <c r="C1" s="556"/>
+      <c r="D1" s="556"/>
+      <c r="E1" s="556"/>
+      <c r="F1" s="556"/>
+      <c r="G1" s="556"/>
+      <c r="H1" s="556"/>
+      <c r="I1" s="556"/>
+      <c r="J1" s="556"/>
+      <c r="K1" s="557"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="660" t="s">
+      <c r="A2" s="588" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="661"/>
-      <c r="C2" s="661"/>
-      <c r="D2" s="661"/>
-      <c r="E2" s="661"/>
-      <c r="F2" s="661"/>
-      <c r="G2" s="661"/>
-      <c r="H2" s="661"/>
-      <c r="I2" s="661"/>
-      <c r="J2" s="661"/>
-      <c r="K2" s="662"/>
+      <c r="B2" s="589"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="589"/>
+      <c r="E2" s="589"/>
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="589"/>
+      <c r="J2" s="589"/>
+      <c r="K2" s="590"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="619" t="s">
+      <c r="A3" s="547" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="642" t="s">
+      <c r="B3" s="570" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="642"/>
-      <c r="D3" s="643"/>
-      <c r="E3" s="593" t="s">
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="530" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="594"/>
-      <c r="G3" s="700" t="s">
+      <c r="F3" s="531"/>
+      <c r="G3" s="604" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="595" t="s">
+      <c r="H3" s="532" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="652"/>
-      <c r="J3" s="652"/>
-      <c r="K3" s="653"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="581"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="620"/>
-      <c r="B4" s="644"/>
-      <c r="C4" s="644"/>
-      <c r="D4" s="645"/>
-      <c r="E4" s="567"/>
-      <c r="F4" s="568"/>
-      <c r="G4" s="605"/>
-      <c r="H4" s="654"/>
-      <c r="I4" s="655"/>
-      <c r="J4" s="655"/>
-      <c r="K4" s="656"/>
+      <c r="A4" s="548"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
+      <c r="E4" s="506"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="542"/>
+      <c r="H4" s="582"/>
+      <c r="I4" s="583"/>
+      <c r="J4" s="583"/>
+      <c r="K4" s="584"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="698"/>
-      <c r="C5" s="698"/>
-      <c r="D5" s="699"/>
-      <c r="E5" s="281" t="s">
+      <c r="B5" s="602"/>
+      <c r="C5" s="602"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="261" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="606"/>
-      <c r="H5" s="657"/>
-      <c r="I5" s="658"/>
-      <c r="J5" s="658"/>
-      <c r="K5" s="659"/>
+      <c r="G5" s="543"/>
+      <c r="H5" s="585"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="649"/>
-      <c r="B6" s="650"/>
-      <c r="C6" s="650"/>
-      <c r="D6" s="651"/>
+      <c r="A6" s="577"/>
+      <c r="B6" s="578"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="579"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="639"/>
-      <c r="I6" s="640"/>
-      <c r="J6" s="640"/>
-      <c r="K6" s="641"/>
+      <c r="H6" s="567"/>
+      <c r="I6" s="568"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="569"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="649"/>
-      <c r="B7" s="650"/>
-      <c r="C7" s="650"/>
-      <c r="D7" s="651"/>
+      <c r="A7" s="577"/>
+      <c r="B7" s="578"/>
+      <c r="C7" s="578"/>
+      <c r="D7" s="579"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="639"/>
-      <c r="I7" s="640"/>
-      <c r="J7" s="640"/>
-      <c r="K7" s="641"/>
+      <c r="H7" s="567"/>
+      <c r="I7" s="568"/>
+      <c r="J7" s="568"/>
+      <c r="K7" s="569"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="649"/>
-      <c r="B8" s="650"/>
-      <c r="C8" s="650"/>
-      <c r="D8" s="651"/>
+      <c r="A8" s="577"/>
+      <c r="B8" s="578"/>
+      <c r="C8" s="578"/>
+      <c r="D8" s="579"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="639"/>
-      <c r="I8" s="640"/>
-      <c r="J8" s="640"/>
-      <c r="K8" s="641"/>
+      <c r="H8" s="567"/>
+      <c r="I8" s="568"/>
+      <c r="J8" s="568"/>
+      <c r="K8" s="569"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="649"/>
-      <c r="B9" s="650"/>
-      <c r="C9" s="650"/>
-      <c r="D9" s="651"/>
+      <c r="A9" s="577"/>
+      <c r="B9" s="578"/>
+      <c r="C9" s="578"/>
+      <c r="D9" s="579"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="639"/>
-      <c r="I9" s="640"/>
-      <c r="J9" s="640"/>
-      <c r="K9" s="641"/>
+      <c r="H9" s="567"/>
+      <c r="I9" s="568"/>
+      <c r="J9" s="568"/>
+      <c r="K9" s="569"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="649"/>
-      <c r="B10" s="650"/>
-      <c r="C10" s="650"/>
-      <c r="D10" s="651"/>
+      <c r="A10" s="577"/>
+      <c r="B10" s="578"/>
+      <c r="C10" s="578"/>
+      <c r="D10" s="579"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="639"/>
-      <c r="I10" s="640"/>
-      <c r="J10" s="640"/>
-      <c r="K10" s="641"/>
+      <c r="H10" s="567"/>
+      <c r="I10" s="568"/>
+      <c r="J10" s="568"/>
+      <c r="K10" s="569"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="646"/>
-      <c r="B11" s="647"/>
-      <c r="C11" s="647"/>
-      <c r="D11" s="648"/>
+      <c r="A11" s="574"/>
+      <c r="B11" s="575"/>
+      <c r="C11" s="575"/>
+      <c r="D11" s="576"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="621"/>
-      <c r="I11" s="622"/>
-      <c r="J11" s="622"/>
-      <c r="K11" s="623"/>
+      <c r="H11" s="549"/>
+      <c r="I11" s="550"/>
+      <c r="J11" s="550"/>
+      <c r="K11" s="551"/>
     </row>
     <row r="12" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="571" t="s">
+      <c r="A12" s="508" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="572"/>
-      <c r="C12" s="572"/>
-      <c r="D12" s="572"/>
-      <c r="E12" s="572"/>
-      <c r="F12" s="572"/>
-      <c r="G12" s="572"/>
-      <c r="H12" s="572"/>
-      <c r="I12" s="572"/>
-      <c r="J12" s="572"/>
-      <c r="K12" s="573"/>
-    </row>
-    <row r="13" spans="1:11" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="624" t="s">
+      <c r="B12" s="509"/>
+      <c r="C12" s="509"/>
+      <c r="D12" s="509"/>
+      <c r="E12" s="509"/>
+      <c r="F12" s="509"/>
+      <c r="G12" s="509"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="509"/>
+      <c r="K12" s="510"/>
+    </row>
+    <row r="13" spans="1:11" s="125" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="552" t="s">
         <v>342</v>
       </c>
-      <c r="B13" s="625"/>
-      <c r="C13" s="625"/>
-      <c r="D13" s="625"/>
-      <c r="E13" s="625"/>
-      <c r="F13" s="625"/>
-      <c r="G13" s="625"/>
-      <c r="H13" s="625"/>
-      <c r="I13" s="625"/>
-      <c r="J13" s="625"/>
-      <c r="K13" s="626"/>
+      <c r="B13" s="553"/>
+      <c r="C13" s="553"/>
+      <c r="D13" s="553"/>
+      <c r="E13" s="553"/>
+      <c r="F13" s="553"/>
+      <c r="G13" s="553"/>
+      <c r="H13" s="553"/>
+      <c r="I13" s="553"/>
+      <c r="J13" s="553"/>
+      <c r="K13" s="554"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="636" t="s">
+      <c r="A14" s="564" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="637"/>
-      <c r="C14" s="637"/>
-      <c r="D14" s="637"/>
-      <c r="E14" s="637"/>
-      <c r="F14" s="637"/>
-      <c r="G14" s="637"/>
-      <c r="H14" s="637"/>
-      <c r="I14" s="637"/>
-      <c r="J14" s="637"/>
-      <c r="K14" s="638"/>
+      <c r="B14" s="565"/>
+      <c r="C14" s="565"/>
+      <c r="D14" s="565"/>
+      <c r="E14" s="565"/>
+      <c r="F14" s="565"/>
+      <c r="G14" s="565"/>
+      <c r="H14" s="565"/>
+      <c r="I14" s="565"/>
+      <c r="J14" s="565"/>
+      <c r="K14" s="566"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="619" t="s">
+      <c r="A15" s="547" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="593" t="s">
+      <c r="B15" s="530" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="630"/>
-      <c r="D15" s="631"/>
-      <c r="E15" s="565" t="s">
+      <c r="C15" s="558"/>
+      <c r="D15" s="559"/>
+      <c r="E15" s="504" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="566"/>
-      <c r="G15" s="605" t="s">
+      <c r="F15" s="505"/>
+      <c r="G15" s="542" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="584" t="s">
+      <c r="H15" s="521" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="580" t="s">
+      <c r="I15" s="517" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="632"/>
-      <c r="K15" s="663"/>
+      <c r="J15" s="560"/>
+      <c r="K15" s="591"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="620"/>
-      <c r="B16" s="632"/>
-      <c r="C16" s="632"/>
-      <c r="D16" s="633"/>
-      <c r="E16" s="567"/>
-      <c r="F16" s="568"/>
-      <c r="G16" s="605"/>
-      <c r="H16" s="584"/>
-      <c r="I16" s="664"/>
-      <c r="J16" s="632"/>
-      <c r="K16" s="663"/>
+      <c r="A16" s="548"/>
+      <c r="B16" s="560"/>
+      <c r="C16" s="560"/>
+      <c r="D16" s="561"/>
+      <c r="E16" s="506"/>
+      <c r="F16" s="507"/>
+      <c r="G16" s="542"/>
+      <c r="H16" s="521"/>
+      <c r="I16" s="592"/>
+      <c r="J16" s="560"/>
+      <c r="K16" s="591"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="634"/>
-      <c r="C17" s="634"/>
-      <c r="D17" s="635"/>
-      <c r="E17" s="281" t="s">
+      <c r="B17" s="562"/>
+      <c r="C17" s="562"/>
+      <c r="D17" s="563"/>
+      <c r="E17" s="261" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="606"/>
-      <c r="H17" s="585"/>
-      <c r="I17" s="665"/>
-      <c r="J17" s="634"/>
-      <c r="K17" s="666"/>
-    </row>
-    <row r="18" spans="1:11" s="261" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="610"/>
-      <c r="B18" s="611"/>
-      <c r="C18" s="318"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="616"/>
-      <c r="J18" s="617"/>
-      <c r="K18" s="618"/>
-    </row>
-    <row r="19" spans="1:11" s="260" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="610"/>
-      <c r="B19" s="611"/>
-      <c r="C19" s="611"/>
-      <c r="D19" s="615"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="263"/>
-      <c r="H19" s="263"/>
-      <c r="I19" s="616"/>
-      <c r="J19" s="617"/>
-      <c r="K19" s="618"/>
-    </row>
-    <row r="20" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="610"/>
-      <c r="B20" s="611"/>
-      <c r="C20" s="611"/>
-      <c r="D20" s="615"/>
-      <c r="E20" s="277"/>
-      <c r="F20" s="277"/>
-      <c r="G20" s="263"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="616"/>
-      <c r="J20" s="617"/>
-      <c r="K20" s="618"/>
-    </row>
-    <row r="21" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="610"/>
-      <c r="B21" s="611"/>
-      <c r="C21" s="611"/>
-      <c r="D21" s="615"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="263"/>
-      <c r="H21" s="263"/>
-      <c r="I21" s="616"/>
-      <c r="J21" s="617"/>
-      <c r="K21" s="618"/>
-    </row>
-    <row r="22" spans="1:11" s="280" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="610"/>
-      <c r="B22" s="611"/>
-      <c r="C22" s="611"/>
-      <c r="D22" s="615"/>
-      <c r="E22" s="277"/>
-      <c r="F22" s="277"/>
-      <c r="G22" s="263"/>
-      <c r="H22" s="263"/>
-      <c r="I22" s="616"/>
-      <c r="J22" s="617"/>
-      <c r="K22" s="618"/>
-    </row>
-    <row r="23" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="610"/>
-      <c r="B23" s="611"/>
-      <c r="C23" s="611"/>
-      <c r="D23" s="615"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="616"/>
-      <c r="J23" s="617"/>
-      <c r="K23" s="618"/>
+      <c r="G17" s="543"/>
+      <c r="H17" s="522"/>
+      <c r="I17" s="593"/>
+      <c r="J17" s="562"/>
+      <c r="K17" s="594"/>
+    </row>
+    <row r="18" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="771"/>
+      <c r="B18" s="772"/>
+      <c r="C18" s="773"/>
+      <c r="D18" s="774"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="282"/>
+      <c r="H18" s="282"/>
+      <c r="I18" s="775"/>
+      <c r="J18" s="776"/>
+      <c r="K18" s="777"/>
+    </row>
+    <row r="19" spans="1:11" s="258" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="771"/>
+      <c r="B19" s="772"/>
+      <c r="C19" s="772"/>
+      <c r="D19" s="778"/>
+      <c r="E19" s="779"/>
+      <c r="F19" s="780"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="775"/>
+      <c r="J19" s="776"/>
+      <c r="K19" s="777"/>
+    </row>
+    <row r="20" spans="1:11" s="257" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="771"/>
+      <c r="B20" s="772"/>
+      <c r="C20" s="772"/>
+      <c r="D20" s="778"/>
+      <c r="E20" s="779"/>
+      <c r="F20" s="779"/>
+      <c r="G20" s="282"/>
+      <c r="H20" s="282"/>
+      <c r="I20" s="775"/>
+      <c r="J20" s="776"/>
+      <c r="K20" s="777"/>
+    </row>
+    <row r="21" spans="1:11" s="257" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="771"/>
+      <c r="B21" s="772"/>
+      <c r="C21" s="772"/>
+      <c r="D21" s="778"/>
+      <c r="E21" s="779"/>
+      <c r="F21" s="779"/>
+      <c r="G21" s="282"/>
+      <c r="H21" s="282"/>
+      <c r="I21" s="775"/>
+      <c r="J21" s="776"/>
+      <c r="K21" s="777"/>
+    </row>
+    <row r="22" spans="1:11" s="260" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="771"/>
+      <c r="B22" s="772"/>
+      <c r="C22" s="772"/>
+      <c r="D22" s="778"/>
+      <c r="E22" s="779"/>
+      <c r="F22" s="779"/>
+      <c r="G22" s="282"/>
+      <c r="H22" s="282"/>
+      <c r="I22" s="775"/>
+      <c r="J22" s="776"/>
+      <c r="K22" s="777"/>
+    </row>
+    <row r="23" spans="1:11" s="257" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="771"/>
+      <c r="B23" s="772"/>
+      <c r="C23" s="772"/>
+      <c r="D23" s="778"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="282"/>
+      <c r="I23" s="775"/>
+      <c r="J23" s="776"/>
+      <c r="K23" s="777"/>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="610"/>
-      <c r="B24" s="611"/>
-      <c r="C24" s="611"/>
-      <c r="D24" s="615"/>
-      <c r="E24" s="262"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="263"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="612"/>
-      <c r="J24" s="613"/>
-      <c r="K24" s="614"/>
+      <c r="A24" s="771"/>
+      <c r="B24" s="772"/>
+      <c r="C24" s="772"/>
+      <c r="D24" s="778"/>
+      <c r="E24" s="780"/>
+      <c r="F24" s="780"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="282"/>
+      <c r="I24" s="495"/>
+      <c r="J24" s="496"/>
+      <c r="K24" s="781"/>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="610"/>
-      <c r="B25" s="611"/>
-      <c r="C25" s="611"/>
-      <c r="D25" s="615"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="263"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="612"/>
-      <c r="J25" s="613"/>
-      <c r="K25" s="614"/>
-    </row>
-    <row r="26" spans="1:11" s="195" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="308"/>
-      <c r="B26" s="309"/>
-      <c r="C26" s="309"/>
-      <c r="D26" s="310"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="612"/>
-      <c r="J26" s="613"/>
-      <c r="K26" s="614"/>
-    </row>
-    <row r="27" spans="1:11" s="261" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="308"/>
-      <c r="B27" s="309"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="310"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="612"/>
-      <c r="J27" s="613"/>
-      <c r="K27" s="614"/>
+      <c r="A25" s="771"/>
+      <c r="B25" s="772"/>
+      <c r="C25" s="772"/>
+      <c r="D25" s="778"/>
+      <c r="E25" s="780"/>
+      <c r="F25" s="780"/>
+      <c r="G25" s="282"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="495"/>
+      <c r="J25" s="496"/>
+      <c r="K25" s="781"/>
+    </row>
+    <row r="26" spans="1:11" s="193" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="782"/>
+      <c r="B26" s="783"/>
+      <c r="C26" s="783"/>
+      <c r="D26" s="784"/>
+      <c r="E26" s="780"/>
+      <c r="F26" s="780"/>
+      <c r="G26" s="282"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="495"/>
+      <c r="J26" s="496"/>
+      <c r="K26" s="781"/>
+    </row>
+    <row r="27" spans="1:11" s="259" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="782"/>
+      <c r="B27" s="783"/>
+      <c r="C27" s="783"/>
+      <c r="D27" s="784"/>
+      <c r="E27" s="780"/>
+      <c r="F27" s="780"/>
+      <c r="G27" s="282"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="495"/>
+      <c r="J27" s="496"/>
+      <c r="K27" s="781"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="320"/>
-      <c r="B28" s="321"/>
-      <c r="C28" s="322"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="288"/>
+      <c r="A28" s="785"/>
+      <c r="B28" s="786"/>
+      <c r="C28" s="787"/>
+      <c r="D28" s="788"/>
+      <c r="E28" s="801"/>
+      <c r="F28" s="801"/>
+      <c r="G28" s="789"/>
+      <c r="H28" s="789"/>
+      <c r="I28" s="790"/>
+      <c r="J28" s="791"/>
+      <c r="K28" s="792"/>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="673"/>
-      <c r="B29" s="674"/>
-      <c r="C29" s="674"/>
-      <c r="D29" s="675"/>
-      <c r="E29" s="278"/>
-      <c r="F29" s="278"/>
-      <c r="G29" s="275"/>
-      <c r="H29" s="276"/>
-      <c r="I29" s="612"/>
-      <c r="J29" s="613"/>
-      <c r="K29" s="614"/>
-    </row>
-    <row r="30" spans="1:11" s="258" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="673"/>
-      <c r="B30" s="674"/>
-      <c r="C30" s="674"/>
-      <c r="D30" s="675"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
-      <c r="I30" s="612"/>
-      <c r="J30" s="613"/>
-      <c r="K30" s="614"/>
+      <c r="A29" s="577"/>
+      <c r="B29" s="578"/>
+      <c r="C29" s="578"/>
+      <c r="D29" s="579"/>
+      <c r="E29" s="793"/>
+      <c r="F29" s="793"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="794"/>
+      <c r="I29" s="495"/>
+      <c r="J29" s="496"/>
+      <c r="K29" s="781"/>
+    </row>
+    <row r="30" spans="1:11" s="256" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="577"/>
+      <c r="B30" s="578"/>
+      <c r="C30" s="578"/>
+      <c r="D30" s="579"/>
+      <c r="E30" s="793"/>
+      <c r="F30" s="793"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="794"/>
+      <c r="I30" s="495"/>
+      <c r="J30" s="496"/>
+      <c r="K30" s="781"/>
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="673"/>
-      <c r="B31" s="674"/>
-      <c r="C31" s="674"/>
-      <c r="D31" s="675"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="276"/>
-      <c r="I31" s="612"/>
-      <c r="J31" s="613"/>
-      <c r="K31" s="614"/>
+      <c r="A31" s="577"/>
+      <c r="B31" s="578"/>
+      <c r="C31" s="578"/>
+      <c r="D31" s="579"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="794"/>
+      <c r="I31" s="495"/>
+      <c r="J31" s="496"/>
+      <c r="K31" s="781"/>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="673"/>
-      <c r="B32" s="674"/>
-      <c r="C32" s="674"/>
-      <c r="D32" s="675"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="276"/>
-      <c r="I32" s="612"/>
-      <c r="J32" s="613"/>
-      <c r="K32" s="614"/>
+      <c r="A32" s="577"/>
+      <c r="B32" s="578"/>
+      <c r="C32" s="578"/>
+      <c r="D32" s="579"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="794"/>
+      <c r="I32" s="495"/>
+      <c r="J32" s="496"/>
+      <c r="K32" s="781"/>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="673"/>
-      <c r="B33" s="674"/>
-      <c r="C33" s="674"/>
-      <c r="D33" s="675"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="275"/>
-      <c r="H33" s="276"/>
-      <c r="I33" s="612"/>
-      <c r="J33" s="613"/>
-      <c r="K33" s="614"/>
+      <c r="A33" s="577"/>
+      <c r="B33" s="578"/>
+      <c r="C33" s="578"/>
+      <c r="D33" s="579"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="794"/>
+      <c r="I33" s="495"/>
+      <c r="J33" s="496"/>
+      <c r="K33" s="781"/>
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="673"/>
-      <c r="B34" s="674"/>
-      <c r="C34" s="674"/>
-      <c r="D34" s="675"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="276"/>
-      <c r="I34" s="685"/>
-      <c r="J34" s="686"/>
-      <c r="K34" s="687"/>
+      <c r="A34" s="577"/>
+      <c r="B34" s="578"/>
+      <c r="C34" s="578"/>
+      <c r="D34" s="579"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="794"/>
+      <c r="I34" s="795"/>
+      <c r="J34" s="796"/>
+      <c r="K34" s="797"/>
     </row>
     <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="673"/>
-      <c r="B35" s="674"/>
-      <c r="C35" s="674"/>
-      <c r="D35" s="675"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="275"/>
-      <c r="H35" s="276"/>
-      <c r="I35" s="682"/>
-      <c r="J35" s="683"/>
-      <c r="K35" s="684"/>
+      <c r="A35" s="577"/>
+      <c r="B35" s="578"/>
+      <c r="C35" s="578"/>
+      <c r="D35" s="579"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="794"/>
+      <c r="I35" s="798"/>
+      <c r="J35" s="799"/>
+      <c r="K35" s="800"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="673"/>
-      <c r="B36" s="674"/>
-      <c r="C36" s="674"/>
-      <c r="D36" s="675"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="276"/>
-      <c r="I36" s="612"/>
-      <c r="J36" s="613"/>
-      <c r="K36" s="614"/>
-    </row>
-    <row r="37" spans="1:11" s="188" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="673"/>
-      <c r="B37" s="674"/>
-      <c r="C37" s="674"/>
-      <c r="D37" s="675"/>
-      <c r="E37" s="274"/>
-      <c r="F37" s="274"/>
-      <c r="G37" s="275"/>
-      <c r="H37" s="276"/>
-      <c r="I37" s="612"/>
-      <c r="J37" s="613"/>
-      <c r="K37" s="614"/>
-    </row>
-    <row r="38" spans="1:11" s="188" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="679"/>
-      <c r="B38" s="680"/>
-      <c r="C38" s="680"/>
-      <c r="D38" s="681"/>
-      <c r="E38" s="265"/>
-      <c r="F38" s="265"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="267"/>
-      <c r="I38" s="676"/>
-      <c r="J38" s="677"/>
-      <c r="K38" s="678"/>
-    </row>
-    <row r="39" spans="1:11" s="259" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="268"/>
-      <c r="B39" s="269"/>
-      <c r="C39" s="269"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="267"/>
-      <c r="I39" s="271"/>
-      <c r="J39" s="324"/>
-      <c r="K39" s="325"/>
-    </row>
-    <row r="40" spans="1:11" s="188" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="268"/>
-      <c r="B40" s="269"/>
-      <c r="C40" s="269"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="265"/>
-      <c r="F40" s="265"/>
-      <c r="G40" s="266"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="271"/>
-      <c r="J40" s="324"/>
-      <c r="K40" s="325"/>
-    </row>
-    <row r="41" spans="1:11" s="188" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="268"/>
-      <c r="B41" s="269"/>
-      <c r="C41" s="269"/>
-      <c r="D41" s="270"/>
-      <c r="E41" s="265"/>
-      <c r="F41" s="265"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="267"/>
-      <c r="I41" s="271"/>
-      <c r="J41" s="324"/>
-      <c r="K41" s="325"/>
+      <c r="A36" s="577"/>
+      <c r="B36" s="578"/>
+      <c r="C36" s="578"/>
+      <c r="D36" s="579"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="794"/>
+      <c r="I36" s="495"/>
+      <c r="J36" s="496"/>
+      <c r="K36" s="781"/>
+    </row>
+    <row r="37" spans="1:11" s="186" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="577"/>
+      <c r="B37" s="578"/>
+      <c r="C37" s="578"/>
+      <c r="D37" s="579"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="794"/>
+      <c r="I37" s="495"/>
+      <c r="J37" s="496"/>
+      <c r="K37" s="781"/>
+    </row>
+    <row r="38" spans="1:11" s="186" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="577"/>
+      <c r="B38" s="578"/>
+      <c r="C38" s="578"/>
+      <c r="D38" s="579"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="794"/>
+      <c r="I38" s="495"/>
+      <c r="J38" s="496"/>
+      <c r="K38" s="781"/>
+    </row>
+    <row r="39" spans="1:11" s="257" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="306"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="307"/>
+      <c r="D39" s="308"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="794"/>
+      <c r="I39" s="304"/>
+      <c r="J39" s="802"/>
+      <c r="K39" s="803"/>
+    </row>
+    <row r="40" spans="1:11" s="186" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="306"/>
+      <c r="B40" s="307"/>
+      <c r="C40" s="307"/>
+      <c r="D40" s="308"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="794"/>
+      <c r="I40" s="304"/>
+      <c r="J40" s="802"/>
+      <c r="K40" s="803"/>
+    </row>
+    <row r="41" spans="1:11" s="186" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="306"/>
+      <c r="B41" s="307"/>
+      <c r="C41" s="307"/>
+      <c r="D41" s="308"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="794"/>
+      <c r="I41" s="304"/>
+      <c r="J41" s="802"/>
+      <c r="K41" s="803"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="667"/>
-      <c r="B42" s="668"/>
-      <c r="C42" s="668"/>
-      <c r="D42" s="669"/>
-      <c r="E42" s="265"/>
-      <c r="F42" s="265"/>
-      <c r="G42" s="272"/>
-      <c r="H42" s="273"/>
-      <c r="I42" s="670"/>
-      <c r="J42" s="671"/>
-      <c r="K42" s="672"/>
+      <c r="A42" s="574"/>
+      <c r="B42" s="575"/>
+      <c r="C42" s="575"/>
+      <c r="D42" s="576"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="804"/>
+      <c r="I42" s="805"/>
+      <c r="J42" s="806"/>
+      <c r="K42" s="807"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="522" t="s">
+      <c r="A43" s="467" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="523"/>
-      <c r="C43" s="523"/>
-      <c r="D43" s="523"/>
-      <c r="E43" s="523"/>
-      <c r="F43" s="523"/>
-      <c r="G43" s="523"/>
-      <c r="H43" s="523"/>
-      <c r="I43" s="523"/>
-      <c r="J43" s="523"/>
-      <c r="K43" s="524"/>
+      <c r="B43" s="468"/>
+      <c r="C43" s="468"/>
+      <c r="D43" s="468"/>
+      <c r="E43" s="468"/>
+      <c r="F43" s="468"/>
+      <c r="G43" s="468"/>
+      <c r="H43" s="468"/>
+      <c r="I43" s="468"/>
+      <c r="J43" s="468"/>
+      <c r="K43" s="469"/>
     </row>
     <row r="44" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="688" t="s">
+      <c r="A44" s="595" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="689"/>
-      <c r="C44" s="689"/>
-      <c r="D44" s="689"/>
-      <c r="E44" s="689"/>
-      <c r="F44" s="689"/>
-      <c r="G44" s="689"/>
-      <c r="H44" s="689"/>
-      <c r="I44" s="689"/>
-      <c r="J44" s="689"/>
-      <c r="K44" s="690"/>
+      <c r="B44" s="596"/>
+      <c r="C44" s="596"/>
+      <c r="D44" s="596"/>
+      <c r="E44" s="596"/>
+      <c r="F44" s="596"/>
+      <c r="G44" s="596"/>
+      <c r="H44" s="596"/>
+      <c r="I44" s="596"/>
+      <c r="J44" s="596"/>
+      <c r="K44" s="597"/>
     </row>
     <row r="45" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="123" t="s">
         <v>362</v>
       </c>
-      <c r="B45" s="282" t="s">
+      <c r="B45" s="262" t="s">
         <v>346</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="691" t="s">
+      <c r="D45" s="598" t="s">
         <v>364</v>
       </c>
-      <c r="E45" s="691"/>
-      <c r="F45" s="691"/>
-      <c r="G45" s="691"/>
-      <c r="H45" s="692"/>
-      <c r="I45" s="126" t="s">
+      <c r="E45" s="598"/>
+      <c r="F45" s="598"/>
+      <c r="G45" s="598"/>
+      <c r="H45" s="599"/>
+      <c r="I45" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="691" t="s">
+      <c r="J45" s="598" t="s">
         <v>86</v>
       </c>
-      <c r="K45" s="701"/>
+      <c r="K45" s="605"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="696"/>
-      <c r="B46" s="697"/>
-      <c r="C46" s="556"/>
-      <c r="D46" s="557"/>
-      <c r="E46" s="557"/>
-      <c r="F46" s="557"/>
-      <c r="G46" s="557"/>
-      <c r="H46" s="558"/>
-      <c r="I46" s="705"/>
-      <c r="J46" s="706"/>
-      <c r="K46" s="707"/>
+      <c r="A46" s="600"/>
+      <c r="B46" s="601"/>
+      <c r="C46" s="495"/>
+      <c r="D46" s="496"/>
+      <c r="E46" s="496"/>
+      <c r="F46" s="496"/>
+      <c r="G46" s="496"/>
+      <c r="H46" s="497"/>
+      <c r="I46" s="830"/>
+      <c r="J46" s="831"/>
+      <c r="K46" s="832"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="696"/>
-      <c r="B47" s="697"/>
-      <c r="C47" s="556"/>
-      <c r="D47" s="557"/>
-      <c r="E47" s="557"/>
-      <c r="F47" s="557"/>
-      <c r="G47" s="557"/>
-      <c r="H47" s="558"/>
-      <c r="I47" s="693"/>
-      <c r="J47" s="694"/>
-      <c r="K47" s="695"/>
+      <c r="A47" s="600"/>
+      <c r="B47" s="601"/>
+      <c r="C47" s="495"/>
+      <c r="D47" s="496"/>
+      <c r="E47" s="496"/>
+      <c r="F47" s="496"/>
+      <c r="G47" s="496"/>
+      <c r="H47" s="497"/>
+      <c r="I47" s="609"/>
+      <c r="J47" s="610"/>
+      <c r="K47" s="611"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="696"/>
-      <c r="B48" s="697"/>
-      <c r="C48" s="556"/>
-      <c r="D48" s="557"/>
-      <c r="E48" s="557"/>
-      <c r="F48" s="557"/>
-      <c r="G48" s="557"/>
-      <c r="H48" s="558"/>
-      <c r="I48" s="693"/>
-      <c r="J48" s="694"/>
-      <c r="K48" s="695"/>
+      <c r="A48" s="600"/>
+      <c r="B48" s="601"/>
+      <c r="C48" s="495"/>
+      <c r="D48" s="496"/>
+      <c r="E48" s="496"/>
+      <c r="F48" s="496"/>
+      <c r="G48" s="496"/>
+      <c r="H48" s="497"/>
+      <c r="I48" s="609"/>
+      <c r="J48" s="610"/>
+      <c r="K48" s="611"/>
     </row>
     <row r="49" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="696"/>
-      <c r="B49" s="697"/>
-      <c r="C49" s="556"/>
-      <c r="D49" s="557"/>
-      <c r="E49" s="557"/>
-      <c r="F49" s="557"/>
-      <c r="G49" s="557"/>
-      <c r="H49" s="558"/>
-      <c r="I49" s="693"/>
-      <c r="J49" s="694"/>
-      <c r="K49" s="695"/>
+      <c r="A49" s="600"/>
+      <c r="B49" s="601"/>
+      <c r="C49" s="495"/>
+      <c r="D49" s="496"/>
+      <c r="E49" s="496"/>
+      <c r="F49" s="496"/>
+      <c r="G49" s="496"/>
+      <c r="H49" s="497"/>
+      <c r="I49" s="609"/>
+      <c r="J49" s="610"/>
+      <c r="K49" s="611"/>
     </row>
     <row r="50" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="696"/>
-      <c r="B50" s="697"/>
-      <c r="C50" s="556"/>
-      <c r="D50" s="557"/>
-      <c r="E50" s="557"/>
-      <c r="F50" s="557"/>
-      <c r="G50" s="557"/>
-      <c r="H50" s="558"/>
-      <c r="I50" s="693"/>
-      <c r="J50" s="694"/>
-      <c r="K50" s="695"/>
+      <c r="A50" s="600"/>
+      <c r="B50" s="601"/>
+      <c r="C50" s="495"/>
+      <c r="D50" s="496"/>
+      <c r="E50" s="496"/>
+      <c r="F50" s="496"/>
+      <c r="G50" s="496"/>
+      <c r="H50" s="497"/>
+      <c r="I50" s="609"/>
+      <c r="J50" s="610"/>
+      <c r="K50" s="611"/>
     </row>
     <row r="51" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="708"/>
-      <c r="B51" s="709"/>
-      <c r="C51" s="710"/>
-      <c r="D51" s="711"/>
-      <c r="E51" s="711"/>
-      <c r="F51" s="711"/>
-      <c r="G51" s="711"/>
-      <c r="H51" s="712"/>
-      <c r="I51" s="693"/>
-      <c r="J51" s="694"/>
-      <c r="K51" s="695"/>
+      <c r="A51" s="600"/>
+      <c r="B51" s="601"/>
+      <c r="C51" s="495"/>
+      <c r="D51" s="496"/>
+      <c r="E51" s="496"/>
+      <c r="F51" s="496"/>
+      <c r="G51" s="496"/>
+      <c r="H51" s="497"/>
+      <c r="I51" s="609"/>
+      <c r="J51" s="610"/>
+      <c r="K51" s="611"/>
     </row>
     <row r="52" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="522" t="s">
+      <c r="A52" s="467" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="523"/>
-      <c r="C52" s="523"/>
-      <c r="D52" s="523"/>
-      <c r="E52" s="523"/>
-      <c r="F52" s="523"/>
-      <c r="G52" s="523"/>
-      <c r="H52" s="523"/>
-      <c r="I52" s="523"/>
-      <c r="J52" s="523"/>
-      <c r="K52" s="573"/>
+      <c r="B52" s="468"/>
+      <c r="C52" s="468"/>
+      <c r="D52" s="468"/>
+      <c r="E52" s="468"/>
+      <c r="F52" s="468"/>
+      <c r="G52" s="468"/>
+      <c r="H52" s="468"/>
+      <c r="I52" s="468"/>
+      <c r="J52" s="468"/>
+      <c r="K52" s="510"/>
     </row>
     <row r="53" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="519" t="s">
+      <c r="A53" s="464" t="s">
         <v>390</v>
       </c>
-      <c r="B53" s="521"/>
-      <c r="C53" s="587"/>
-      <c r="D53" s="588"/>
-      <c r="E53" s="588"/>
-      <c r="F53" s="589"/>
-      <c r="G53" s="702" t="s">
+      <c r="B53" s="466"/>
+      <c r="C53" s="524"/>
+      <c r="D53" s="525"/>
+      <c r="E53" s="525"/>
+      <c r="F53" s="526"/>
+      <c r="G53" s="606" t="s">
         <v>391</v>
       </c>
-      <c r="H53" s="703"/>
-      <c r="I53" s="704"/>
-      <c r="J53" s="588"/>
-      <c r="K53" s="589"/>
-      <c r="L53" s="241"/>
-      <c r="M53" s="241"/>
+      <c r="H53" s="607"/>
+      <c r="I53" s="608"/>
+      <c r="J53" s="525"/>
+      <c r="K53" s="526"/>
+      <c r="L53" s="239"/>
+      <c r="M53" s="239"/>
     </row>
     <row r="54" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K54" s="245" t="s">
+      <c r="K54" s="243" t="s">
         <v>397</v>
       </c>
     </row>
@@ -14516,8 +14391,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:I54"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14528,7 +14403,7 @@
     <col min="5" max="5" width="3" style="4" customWidth="1"/>
     <col min="6" max="6" width="27" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7" style="237" customWidth="1"/>
+    <col min="8" max="8" width="7" style="235" customWidth="1"/>
     <col min="9" max="9" width="3" style="4" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" style="4" customWidth="1"/>
@@ -14538,35 +14413,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="719"/>
-      <c r="B1" s="720"/>
-      <c r="C1" s="720"/>
-      <c r="D1" s="720"/>
-      <c r="E1" s="720"/>
-      <c r="F1" s="720"/>
-      <c r="G1" s="720"/>
-      <c r="H1" s="720"/>
-      <c r="I1" s="720"/>
-      <c r="J1" s="720"/>
-      <c r="K1" s="720"/>
-      <c r="L1" s="720"/>
-      <c r="M1" s="721"/>
+      <c r="A1" s="618"/>
+      <c r="B1" s="619"/>
+      <c r="C1" s="619"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="620"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="743" t="s">
+      <c r="A2" s="625" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="744"/>
-      <c r="C2" s="724" t="s">
+      <c r="B2" s="626"/>
+      <c r="C2" s="623" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="724"/>
-      <c r="E2" s="724"/>
-      <c r="F2" s="725"/>
+      <c r="D2" s="623"/>
+      <c r="E2" s="623"/>
+      <c r="F2" s="624"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="722"/>
-      <c r="J2" s="722"/>
+      <c r="I2" s="621"/>
+      <c r="J2" s="621"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
@@ -14574,16 +14449,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="728" t="s">
+      <c r="C3" s="627" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="728"/>
-      <c r="E3" s="728"/>
-      <c r="F3" s="729"/>
+      <c r="D3" s="627"/>
+      <c r="E3" s="627"/>
+      <c r="F3" s="628"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="723"/>
-      <c r="J3" s="723"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="622"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
@@ -14591,159 +14466,159 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="728" t="s">
+      <c r="C4" s="627" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="728"/>
-      <c r="E4" s="728"/>
-      <c r="F4" s="729"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
+      <c r="D4" s="627"/>
+      <c r="E4" s="627"/>
+      <c r="F4" s="628"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="728"/>
-      <c r="D5" s="728"/>
-      <c r="E5" s="728"/>
-      <c r="F5" s="729"/>
-      <c r="G5" s="717"/>
-      <c r="H5" s="717"/>
-      <c r="I5" s="717"/>
-      <c r="J5" s="717"/>
-      <c r="K5" s="717"/>
-      <c r="L5" s="717"/>
+      <c r="C5" s="627"/>
+      <c r="D5" s="627"/>
+      <c r="E5" s="627"/>
+      <c r="F5" s="628"/>
+      <c r="G5" s="616"/>
+      <c r="H5" s="616"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="616"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="728" t="s">
+      <c r="C6" s="627" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="728"/>
-      <c r="E6" s="728"/>
-      <c r="F6" s="729"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="748"/>
-      <c r="J6" s="748"/>
-      <c r="K6" s="748"/>
-      <c r="L6" s="748"/>
+      <c r="D6" s="627"/>
+      <c r="E6" s="627"/>
+      <c r="F6" s="628"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="630"/>
+      <c r="J6" s="630"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="630"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" s="134" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="132" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="728" t="s">
+      <c r="C8" s="627" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="728"/>
-      <c r="E8" s="728"/>
-      <c r="F8" s="729"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
+      <c r="D8" s="627"/>
+      <c r="E8" s="627"/>
+      <c r="F8" s="628"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="134" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="132" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="728"/>
-      <c r="D10" s="728"/>
-      <c r="E10" s="728"/>
-      <c r="F10" s="729"/>
-      <c r="G10" s="717" t="s">
+      <c r="C10" s="627"/>
+      <c r="D10" s="627"/>
+      <c r="E10" s="627"/>
+      <c r="F10" s="628"/>
+      <c r="G10" s="616" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="717"/>
-      <c r="I10" s="717"/>
-      <c r="J10" s="717"/>
-      <c r="K10" s="717"/>
-      <c r="L10" s="717"/>
+      <c r="H10" s="616"/>
+      <c r="I10" s="616"/>
+      <c r="J10" s="616"/>
+      <c r="K10" s="616"/>
+      <c r="L10" s="616"/>
       <c r="M10" s="71"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="728"/>
-      <c r="D11" s="728"/>
-      <c r="E11" s="728"/>
-      <c r="F11" s="729"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="749"/>
-      <c r="I11" s="749"/>
-      <c r="J11" s="749"/>
-      <c r="K11" s="749"/>
-      <c r="L11" s="749"/>
+      <c r="C11" s="627"/>
+      <c r="D11" s="627"/>
+      <c r="E11" s="627"/>
+      <c r="F11" s="628"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="631"/>
+      <c r="I11" s="631"/>
+      <c r="J11" s="631"/>
+      <c r="K11" s="631"/>
+      <c r="L11" s="631"/>
       <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="745"/>
-      <c r="D12" s="745"/>
-      <c r="E12" s="745"/>
-      <c r="F12" s="746"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="747"/>
-      <c r="J12" s="747"/>
-      <c r="K12" s="747"/>
-      <c r="L12" s="747"/>
+      <c r="C12" s="647"/>
+      <c r="D12" s="647"/>
+      <c r="E12" s="647"/>
+      <c r="F12" s="648"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="629"/>
+      <c r="J12" s="629"/>
+      <c r="K12" s="629"/>
+      <c r="L12" s="629"/>
       <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="713" t="s">
+      <c r="A13" s="612" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="714"/>
-      <c r="C13" s="715" t="s">
+      <c r="B13" s="613"/>
+      <c r="C13" s="614" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="715"/>
-      <c r="E13" s="632"/>
-      <c r="F13" s="633"/>
+      <c r="D13" s="614"/>
+      <c r="E13" s="560"/>
+      <c r="F13" s="561"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="314"/>
+      <c r="H13" s="276"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -14753,48 +14628,48 @@
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
-      <c r="C14" s="715"/>
-      <c r="D14" s="715"/>
-      <c r="E14" s="632"/>
-      <c r="F14" s="633"/>
-      <c r="G14" s="716" t="s">
+      <c r="C14" s="614"/>
+      <c r="D14" s="614"/>
+      <c r="E14" s="560"/>
+      <c r="F14" s="561"/>
+      <c r="G14" s="615" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="717"/>
-      <c r="I14" s="717"/>
-      <c r="J14" s="717"/>
-      <c r="K14" s="717"/>
-      <c r="L14" s="717"/>
+      <c r="H14" s="616"/>
+      <c r="I14" s="616"/>
+      <c r="J14" s="616"/>
+      <c r="K14" s="616"/>
+      <c r="L14" s="616"/>
       <c r="M14" s="111"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
-      <c r="C15" s="715"/>
-      <c r="D15" s="715"/>
-      <c r="E15" s="632"/>
-      <c r="F15" s="633"/>
+      <c r="C15" s="614"/>
+      <c r="D15" s="614"/>
+      <c r="E15" s="560"/>
+      <c r="F15" s="561"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="822"/>
-      <c r="I15" s="822"/>
-      <c r="J15" s="822"/>
-      <c r="K15" s="822"/>
-      <c r="L15" s="822"/>
+      <c r="H15" s="721"/>
+      <c r="I15" s="721"/>
+      <c r="J15" s="721"/>
+      <c r="K15" s="721"/>
+      <c r="L15" s="721"/>
       <c r="M15" s="111"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="632"/>
-      <c r="D16" s="632"/>
-      <c r="E16" s="632"/>
-      <c r="F16" s="633"/>
+      <c r="C16" s="560"/>
+      <c r="D16" s="560"/>
+      <c r="E16" s="560"/>
+      <c r="F16" s="561"/>
       <c r="G16" s="108"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="718"/>
-      <c r="J16" s="718"/>
-      <c r="K16" s="718"/>
-      <c r="L16" s="718"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="617"/>
+      <c r="J16" s="617"/>
+      <c r="K16" s="617"/>
+      <c r="L16" s="617"/>
       <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14815,14 +14690,14 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="845" t="s">
+      <c r="C18" s="744" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="845"/>
-      <c r="E18" s="846"/>
-      <c r="F18" s="847"/>
+      <c r="D18" s="744"/>
+      <c r="E18" s="745"/>
+      <c r="F18" s="746"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="315"/>
+      <c r="H18" s="277"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -14832,84 +14707,84 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="845"/>
-      <c r="D19" s="845"/>
-      <c r="E19" s="846"/>
-      <c r="F19" s="847"/>
-      <c r="G19" s="853" t="s">
+      <c r="C19" s="744"/>
+      <c r="D19" s="744"/>
+      <c r="E19" s="745"/>
+      <c r="F19" s="746"/>
+      <c r="G19" s="752" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="854"/>
-      <c r="I19" s="854"/>
-      <c r="J19" s="854"/>
-      <c r="K19" s="855"/>
-      <c r="L19" s="855"/>
+      <c r="H19" s="753"/>
+      <c r="I19" s="753"/>
+      <c r="J19" s="753"/>
+      <c r="K19" s="754"/>
+      <c r="L19" s="754"/>
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="845"/>
-      <c r="D20" s="845"/>
-      <c r="E20" s="846"/>
-      <c r="F20" s="847"/>
+      <c r="C20" s="744"/>
+      <c r="D20" s="744"/>
+      <c r="E20" s="745"/>
+      <c r="F20" s="746"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="823" t="s">
+      <c r="H20" s="722" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="823"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="856"/>
-      <c r="L20" s="856"/>
+      <c r="I20" s="722"/>
+      <c r="J20" s="253"/>
+      <c r="K20" s="770"/>
+      <c r="L20" s="770"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" s="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="845"/>
-      <c r="D21" s="845"/>
-      <c r="E21" s="846"/>
-      <c r="F21" s="847"/>
-      <c r="G21" s="824" t="s">
+      <c r="C21" s="744"/>
+      <c r="D21" s="744"/>
+      <c r="E21" s="745"/>
+      <c r="F21" s="746"/>
+      <c r="G21" s="723" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="825"/>
-      <c r="I21" s="825"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="857"/>
-      <c r="L21" s="857"/>
+      <c r="H21" s="724"/>
+      <c r="I21" s="724"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="755"/>
+      <c r="L21" s="755"/>
       <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="848"/>
-      <c r="D22" s="848"/>
-      <c r="E22" s="848"/>
-      <c r="F22" s="849"/>
+      <c r="C22" s="747"/>
+      <c r="D22" s="747"/>
+      <c r="E22" s="747"/>
+      <c r="F22" s="748"/>
       <c r="G22" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="246"/>
-      <c r="I22" s="850"/>
-      <c r="J22" s="850"/>
-      <c r="K22" s="850"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="749"/>
+      <c r="J22" s="749"/>
+      <c r="K22" s="749"/>
       <c r="L22" s="113"/>
       <c r="M22" s="109"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="750" t="s">
+      <c r="A23" s="649" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="751"/>
-      <c r="C23" s="739" t="s">
+      <c r="B23" s="650"/>
+      <c r="C23" s="643" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="739"/>
-      <c r="E23" s="739"/>
-      <c r="F23" s="740"/>
+      <c r="D23" s="643"/>
+      <c r="E23" s="643"/>
+      <c r="F23" s="644"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="314"/>
+      <c r="H23" s="276"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -14919,63 +14794,63 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="731"/>
-      <c r="D24" s="731"/>
-      <c r="E24" s="731"/>
-      <c r="F24" s="730"/>
-      <c r="G24" s="716" t="s">
+      <c r="C24" s="635"/>
+      <c r="D24" s="635"/>
+      <c r="E24" s="635"/>
+      <c r="F24" s="634"/>
+      <c r="G24" s="615" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="717"/>
-      <c r="I24" s="717"/>
-      <c r="J24" s="717"/>
-      <c r="K24" s="717"/>
-      <c r="L24" s="717"/>
+      <c r="H24" s="616"/>
+      <c r="I24" s="616"/>
+      <c r="J24" s="616"/>
+      <c r="K24" s="616"/>
+      <c r="L24" s="616"/>
       <c r="M24" s="107"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="731"/>
-      <c r="D25" s="731"/>
-      <c r="E25" s="731"/>
-      <c r="F25" s="730"/>
+      <c r="C25" s="635"/>
+      <c r="D25" s="635"/>
+      <c r="E25" s="635"/>
+      <c r="F25" s="634"/>
       <c r="G25" s="106"/>
-      <c r="H25" s="852"/>
-      <c r="I25" s="852"/>
-      <c r="J25" s="852"/>
-      <c r="K25" s="852"/>
-      <c r="L25" s="852"/>
+      <c r="H25" s="751"/>
+      <c r="I25" s="751"/>
+      <c r="J25" s="751"/>
+      <c r="K25" s="751"/>
+      <c r="L25" s="751"/>
       <c r="M25" s="107"/>
     </row>
     <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="741"/>
-      <c r="D26" s="741"/>
-      <c r="E26" s="741"/>
-      <c r="F26" s="742"/>
+      <c r="C26" s="645"/>
+      <c r="D26" s="645"/>
+      <c r="E26" s="645"/>
+      <c r="F26" s="646"/>
       <c r="G26" s="108"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="718"/>
-      <c r="J26" s="718"/>
-      <c r="K26" s="718"/>
-      <c r="L26" s="718"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="617"/>
+      <c r="J26" s="617"/>
+      <c r="K26" s="617"/>
+      <c r="L26" s="617"/>
       <c r="M26" s="109"/>
     </row>
     <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="750" t="s">
+      <c r="A27" s="649" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="751"/>
-      <c r="C27" s="739" t="s">
+      <c r="B27" s="650"/>
+      <c r="C27" s="643" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="739"/>
-      <c r="E27" s="739"/>
-      <c r="F27" s="740"/>
+      <c r="D27" s="643"/>
+      <c r="E27" s="643"/>
+      <c r="F27" s="644"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="314"/>
+      <c r="H27" s="276"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -14985,163 +14860,163 @@
     <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="731"/>
-      <c r="D28" s="731"/>
-      <c r="E28" s="731"/>
-      <c r="F28" s="730"/>
-      <c r="G28" s="716" t="s">
+      <c r="C28" s="635"/>
+      <c r="D28" s="635"/>
+      <c r="E28" s="635"/>
+      <c r="F28" s="634"/>
+      <c r="G28" s="615" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="717"/>
-      <c r="I28" s="717"/>
-      <c r="J28" s="717"/>
-      <c r="K28" s="717"/>
-      <c r="L28" s="717"/>
-      <c r="M28" s="174"/>
+      <c r="H28" s="616"/>
+      <c r="I28" s="616"/>
+      <c r="J28" s="616"/>
+      <c r="K28" s="616"/>
+      <c r="L28" s="616"/>
+      <c r="M28" s="172"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="731"/>
-      <c r="D29" s="731"/>
-      <c r="E29" s="731"/>
-      <c r="F29" s="730"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="752"/>
-      <c r="I29" s="752"/>
-      <c r="J29" s="752"/>
-      <c r="K29" s="752"/>
-      <c r="L29" s="752"/>
+      <c r="C29" s="635"/>
+      <c r="D29" s="635"/>
+      <c r="E29" s="635"/>
+      <c r="F29" s="634"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="651"/>
+      <c r="I29" s="651"/>
+      <c r="J29" s="651"/>
+      <c r="K29" s="651"/>
+      <c r="L29" s="651"/>
       <c r="M29" s="107"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="741"/>
-      <c r="D30" s="741"/>
-      <c r="E30" s="741"/>
-      <c r="F30" s="742"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
+      <c r="C30" s="645"/>
+      <c r="D30" s="645"/>
+      <c r="E30" s="645"/>
+      <c r="F30" s="646"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
       <c r="M30" s="109"/>
     </row>
-    <row r="31" spans="1:13" s="129" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="750" t="s">
+    <row r="31" spans="1:13" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="751"/>
-      <c r="C31" s="739" t="s">
+      <c r="B31" s="650"/>
+      <c r="C31" s="643" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="739"/>
-      <c r="E31" s="739"/>
-      <c r="F31" s="740"/>
+      <c r="D31" s="643"/>
+      <c r="E31" s="643"/>
+      <c r="F31" s="644"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="314"/>
+      <c r="H31" s="276"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="28"/>
     </row>
-    <row r="32" spans="1:13" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="127" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="731"/>
-      <c r="D32" s="731"/>
-      <c r="E32" s="731"/>
-      <c r="F32" s="730"/>
-      <c r="G32" s="786" t="s">
+      <c r="C32" s="635"/>
+      <c r="D32" s="635"/>
+      <c r="E32" s="635"/>
+      <c r="F32" s="634"/>
+      <c r="G32" s="685" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="787"/>
-      <c r="I32" s="787"/>
-      <c r="J32" s="787"/>
-      <c r="K32" s="752"/>
-      <c r="L32" s="752"/>
+      <c r="H32" s="686"/>
+      <c r="I32" s="686"/>
+      <c r="J32" s="686"/>
+      <c r="K32" s="651"/>
+      <c r="L32" s="651"/>
       <c r="M32" s="107"/>
     </row>
-    <row r="33" spans="1:14" s="175" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="173" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="179"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="177"/>
       <c r="G33" s="110"/>
       <c r="H33" s="51"/>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
       <c r="M33" s="107"/>
     </row>
-    <row r="34" spans="1:14" s="129" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="731" t="s">
+      <c r="C34" s="635" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="731"/>
-      <c r="E34" s="731"/>
-      <c r="F34" s="730"/>
+      <c r="D34" s="635"/>
+      <c r="E34" s="635"/>
+      <c r="F34" s="634"/>
       <c r="G34" s="106"/>
-      <c r="H34" s="316"/>
-      <c r="I34" s="851"/>
-      <c r="J34" s="851"/>
-      <c r="K34" s="851"/>
-      <c r="L34" s="851"/>
+      <c r="H34" s="278"/>
+      <c r="I34" s="750"/>
+      <c r="J34" s="750"/>
+      <c r="K34" s="750"/>
+      <c r="L34" s="750"/>
       <c r="M34" s="107"/>
     </row>
-    <row r="35" spans="1:14" s="175" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="173" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="731"/>
-      <c r="D35" s="731"/>
-      <c r="E35" s="731"/>
-      <c r="F35" s="730"/>
-      <c r="G35" s="786" t="s">
+      <c r="C35" s="635"/>
+      <c r="D35" s="635"/>
+      <c r="E35" s="635"/>
+      <c r="F35" s="634"/>
+      <c r="G35" s="685" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="787"/>
-      <c r="I35" s="787"/>
-      <c r="J35" s="787"/>
-      <c r="K35" s="752"/>
-      <c r="L35" s="752"/>
+      <c r="H35" s="686"/>
+      <c r="I35" s="686"/>
+      <c r="J35" s="686"/>
+      <c r="K35" s="651"/>
+      <c r="L35" s="651"/>
       <c r="M35" s="107"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="741"/>
-      <c r="D36" s="741"/>
-      <c r="E36" s="741"/>
-      <c r="F36" s="742"/>
+      <c r="C36" s="645"/>
+      <c r="D36" s="645"/>
+      <c r="E36" s="645"/>
+      <c r="F36" s="646"/>
       <c r="G36" s="110"/>
       <c r="H36" s="51"/>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
-      <c r="K36" s="173"/>
+      <c r="K36" s="171"/>
       <c r="L36" s="105"/>
       <c r="M36" s="109"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="750" t="s">
+      <c r="A37" s="649" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="751"/>
-      <c r="C37" s="734" t="s">
+      <c r="B37" s="650"/>
+      <c r="C37" s="638" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="734"/>
-      <c r="E37" s="734"/>
-      <c r="F37" s="735"/>
+      <c r="D37" s="638"/>
+      <c r="E37" s="638"/>
+      <c r="F37" s="639"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="314"/>
+      <c r="H37" s="276"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -15151,61 +15026,61 @@
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="715"/>
-      <c r="D38" s="715"/>
-      <c r="E38" s="715"/>
-      <c r="F38" s="736"/>
-      <c r="G38" s="716" t="s">
+      <c r="C38" s="614"/>
+      <c r="D38" s="614"/>
+      <c r="E38" s="614"/>
+      <c r="F38" s="640"/>
+      <c r="G38" s="615" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="717"/>
-      <c r="I38" s="717"/>
-      <c r="J38" s="717"/>
-      <c r="K38" s="717"/>
-      <c r="L38" s="717"/>
-      <c r="M38" s="844"/>
+      <c r="H38" s="616"/>
+      <c r="I38" s="616"/>
+      <c r="J38" s="616"/>
+      <c r="K38" s="616"/>
+      <c r="L38" s="616"/>
+      <c r="M38" s="743"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="715"/>
-      <c r="D39" s="715"/>
-      <c r="E39" s="715"/>
-      <c r="F39" s="736"/>
+      <c r="C39" s="614"/>
+      <c r="D39" s="614"/>
+      <c r="E39" s="614"/>
+      <c r="F39" s="640"/>
       <c r="G39" s="106"/>
-      <c r="H39" s="852"/>
-      <c r="I39" s="852"/>
-      <c r="J39" s="852"/>
-      <c r="K39" s="852"/>
-      <c r="L39" s="852"/>
+      <c r="H39" s="751"/>
+      <c r="I39" s="751"/>
+      <c r="J39" s="751"/>
+      <c r="K39" s="751"/>
+      <c r="L39" s="751"/>
       <c r="M39" s="107"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="737"/>
-      <c r="D40" s="737"/>
-      <c r="E40" s="737"/>
-      <c r="F40" s="738"/>
+      <c r="C40" s="641"/>
+      <c r="D40" s="641"/>
+      <c r="E40" s="641"/>
+      <c r="F40" s="642"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="246"/>
-      <c r="I40" s="718"/>
-      <c r="J40" s="718"/>
-      <c r="K40" s="718"/>
-      <c r="L40" s="718"/>
+      <c r="H40" s="244"/>
+      <c r="I40" s="617"/>
+      <c r="J40" s="617"/>
+      <c r="K40" s="617"/>
+      <c r="L40" s="617"/>
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="732" t="s">
+      <c r="A41" s="636" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="733"/>
-      <c r="C41" s="731" t="s">
+      <c r="B41" s="637"/>
+      <c r="C41" s="635" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="731"/>
-      <c r="E41" s="731"/>
-      <c r="F41" s="730"/>
+      <c r="D41" s="635"/>
+      <c r="E41" s="635"/>
+      <c r="F41" s="634"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="46"/>
@@ -15217,10 +15092,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
-      <c r="C42" s="731"/>
-      <c r="D42" s="731"/>
-      <c r="E42" s="731"/>
-      <c r="F42" s="730"/>
+      <c r="C42" s="635"/>
+      <c r="D42" s="635"/>
+      <c r="E42" s="635"/>
+      <c r="F42" s="634"/>
       <c r="G42" s="49"/>
       <c r="H42" s="49"/>
       <c r="I42" s="49"/>
@@ -15235,36 +15110,36 @@
         <v>80</v>
       </c>
       <c r="B43" s="45"/>
-      <c r="C43" s="731" t="s">
+      <c r="C43" s="635" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="731"/>
-      <c r="E43" s="731"/>
-      <c r="F43" s="730"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="174"/>
+      <c r="D43" s="635"/>
+      <c r="E43" s="635"/>
+      <c r="F43" s="634"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="171"/>
+      <c r="M43" s="172"/>
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44"/>
       <c r="B44" s="45"/>
-      <c r="C44" s="731"/>
-      <c r="D44" s="731"/>
-      <c r="E44" s="731"/>
-      <c r="F44" s="730"/>
-      <c r="G44" s="185" t="s">
+      <c r="C44" s="635"/>
+      <c r="D44" s="635"/>
+      <c r="E44" s="635"/>
+      <c r="F44" s="634"/>
+      <c r="G44" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="H44" s="248"/>
+      <c r="H44" s="246"/>
       <c r="I44" s="101"/>
       <c r="J44" s="101"/>
-      <c r="K44" s="752"/>
-      <c r="L44" s="752"/>
+      <c r="K44" s="651"/>
+      <c r="L44" s="651"/>
       <c r="M44" s="102"/>
       <c r="N44" s="51"/>
     </row>
@@ -15273,36 +15148,36 @@
         <v>81</v>
       </c>
       <c r="B45" s="45"/>
-      <c r="C45" s="730" t="s">
+      <c r="C45" s="634" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="730"/>
-      <c r="E45" s="730"/>
-      <c r="F45" s="730"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="317"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="174"/>
+      <c r="D45" s="634"/>
+      <c r="E45" s="634"/>
+      <c r="F45" s="634"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="279"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="172"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="44"/>
       <c r="B46" s="45"/>
-      <c r="C46" s="730"/>
-      <c r="D46" s="730"/>
-      <c r="E46" s="730"/>
-      <c r="F46" s="730"/>
-      <c r="G46" s="186" t="s">
+      <c r="C46" s="634"/>
+      <c r="D46" s="634"/>
+      <c r="E46" s="634"/>
+      <c r="F46" s="634"/>
+      <c r="G46" s="184" t="s">
         <v>328</v>
       </c>
-      <c r="H46" s="249"/>
+      <c r="H46" s="247"/>
       <c r="I46" s="101"/>
       <c r="J46" s="101"/>
       <c r="K46" s="101"/>
-      <c r="L46" s="312"/>
+      <c r="L46" s="274"/>
       <c r="M46" s="102"/>
       <c r="N46" s="51"/>
     </row>
@@ -15311,46 +15186,46 @@
         <v>83</v>
       </c>
       <c r="B47" s="45"/>
-      <c r="C47" s="731" t="s">
+      <c r="C47" s="635" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="731"/>
+      <c r="D47" s="635"/>
       <c r="E47" s="98"/>
       <c r="F47" s="99"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="173"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="174"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="279"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="172"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="765"/>
-      <c r="B48" s="766"/>
-      <c r="C48" s="766"/>
-      <c r="D48" s="766"/>
-      <c r="E48" s="766"/>
-      <c r="F48" s="767"/>
-      <c r="G48" s="187" t="s">
+      <c r="A48" s="664"/>
+      <c r="B48" s="665"/>
+      <c r="C48" s="665"/>
+      <c r="D48" s="665"/>
+      <c r="E48" s="665"/>
+      <c r="F48" s="666"/>
+      <c r="G48" s="185" t="s">
         <v>328</v>
       </c>
-      <c r="H48" s="250"/>
+      <c r="H48" s="248"/>
       <c r="I48" s="103"/>
       <c r="J48" s="103"/>
       <c r="K48" s="103"/>
-      <c r="L48" s="312"/>
+      <c r="L48" s="274"/>
       <c r="M48" s="104"/>
       <c r="N48" s="51"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="768"/>
-      <c r="B49" s="769"/>
-      <c r="C49" s="769"/>
-      <c r="D49" s="769"/>
-      <c r="E49" s="769"/>
-      <c r="F49" s="770"/>
+      <c r="A49" s="667"/>
+      <c r="B49" s="668"/>
+      <c r="C49" s="668"/>
+      <c r="D49" s="668"/>
+      <c r="E49" s="668"/>
+      <c r="F49" s="669"/>
       <c r="G49" s="100"/>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
@@ -15361,274 +15236,274 @@
       <c r="N49" s="51"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="842" t="s">
+      <c r="A50" s="741" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="843"/>
-      <c r="C50" s="183" t="s">
+      <c r="B50" s="742"/>
+      <c r="C50" s="181" t="s">
         <v>381</v>
       </c>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="184"/>
-      <c r="J50" s="753"/>
-      <c r="K50" s="754"/>
-      <c r="L50" s="754"/>
-      <c r="M50" s="755"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="652"/>
+      <c r="K50" s="653"/>
+      <c r="L50" s="653"/>
+      <c r="M50" s="654"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="762" t="s">
+      <c r="A51" s="661" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="763"/>
-      <c r="C51" s="763"/>
-      <c r="D51" s="763"/>
-      <c r="E51" s="764"/>
-      <c r="F51" s="172" t="s">
+      <c r="B51" s="662"/>
+      <c r="C51" s="662"/>
+      <c r="D51" s="662"/>
+      <c r="E51" s="663"/>
+      <c r="F51" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="771" t="s">
+      <c r="G51" s="670" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="691"/>
-      <c r="I51" s="701"/>
-      <c r="J51" s="756"/>
-      <c r="K51" s="757"/>
-      <c r="L51" s="757"/>
-      <c r="M51" s="758"/>
+      <c r="H51" s="598"/>
+      <c r="I51" s="605"/>
+      <c r="J51" s="655"/>
+      <c r="K51" s="656"/>
+      <c r="L51" s="656"/>
+      <c r="M51" s="657"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="779"/>
-      <c r="B52" s="780"/>
-      <c r="C52" s="782"/>
-      <c r="D52" s="782"/>
-      <c r="E52" s="783"/>
-      <c r="F52" s="336"/>
-      <c r="G52" s="772"/>
-      <c r="H52" s="773"/>
-      <c r="I52" s="774"/>
-      <c r="J52" s="756"/>
-      <c r="K52" s="757"/>
-      <c r="L52" s="757"/>
-      <c r="M52" s="758"/>
+      <c r="A52" s="678"/>
+      <c r="B52" s="679"/>
+      <c r="C52" s="681"/>
+      <c r="D52" s="681"/>
+      <c r="E52" s="682"/>
+      <c r="F52" s="286"/>
+      <c r="G52" s="671"/>
+      <c r="H52" s="672"/>
+      <c r="I52" s="673"/>
+      <c r="J52" s="655"/>
+      <c r="K52" s="656"/>
+      <c r="L52" s="656"/>
+      <c r="M52" s="657"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="779"/>
-      <c r="B53" s="780"/>
-      <c r="C53" s="780"/>
-      <c r="D53" s="780"/>
-      <c r="E53" s="781"/>
-      <c r="F53" s="336"/>
-      <c r="G53" s="772"/>
-      <c r="H53" s="773"/>
-      <c r="I53" s="774"/>
-      <c r="J53" s="756"/>
-      <c r="K53" s="757"/>
-      <c r="L53" s="757"/>
-      <c r="M53" s="758"/>
+      <c r="A53" s="678"/>
+      <c r="B53" s="679"/>
+      <c r="C53" s="679"/>
+      <c r="D53" s="679"/>
+      <c r="E53" s="680"/>
+      <c r="F53" s="286"/>
+      <c r="G53" s="671"/>
+      <c r="H53" s="672"/>
+      <c r="I53" s="673"/>
+      <c r="J53" s="655"/>
+      <c r="K53" s="656"/>
+      <c r="L53" s="656"/>
+      <c r="M53" s="657"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="775"/>
-      <c r="B54" s="776"/>
-      <c r="C54" s="777"/>
-      <c r="D54" s="777"/>
-      <c r="E54" s="778"/>
-      <c r="F54" s="337"/>
-      <c r="G54" s="759"/>
-      <c r="H54" s="760"/>
-      <c r="I54" s="761"/>
-      <c r="J54" s="756"/>
-      <c r="K54" s="757"/>
-      <c r="L54" s="757"/>
-      <c r="M54" s="758"/>
+      <c r="A54" s="674"/>
+      <c r="B54" s="675"/>
+      <c r="C54" s="676"/>
+      <c r="D54" s="676"/>
+      <c r="E54" s="677"/>
+      <c r="F54" s="287"/>
+      <c r="G54" s="658"/>
+      <c r="H54" s="659"/>
+      <c r="I54" s="660"/>
+      <c r="J54" s="655"/>
+      <c r="K54" s="656"/>
+      <c r="L54" s="656"/>
+      <c r="M54" s="657"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="743" t="s">
+      <c r="A55" s="625" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="744"/>
-      <c r="C55" s="784" t="s">
+      <c r="B55" s="626"/>
+      <c r="C55" s="683" t="s">
         <v>399</v>
       </c>
-      <c r="D55" s="784"/>
-      <c r="E55" s="784"/>
-      <c r="F55" s="784"/>
-      <c r="G55" s="784"/>
-      <c r="H55" s="784"/>
-      <c r="I55" s="251"/>
-      <c r="J55" s="757"/>
-      <c r="K55" s="757"/>
-      <c r="L55" s="757"/>
-      <c r="M55" s="758"/>
+      <c r="D55" s="683"/>
+      <c r="E55" s="683"/>
+      <c r="F55" s="683"/>
+      <c r="G55" s="683"/>
+      <c r="H55" s="683"/>
+      <c r="I55" s="249"/>
+      <c r="J55" s="656"/>
+      <c r="K55" s="656"/>
+      <c r="L55" s="656"/>
+      <c r="M55" s="657"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="53"/>
-      <c r="C56" s="785"/>
-      <c r="D56" s="785"/>
-      <c r="E56" s="785"/>
-      <c r="F56" s="785"/>
-      <c r="G56" s="785"/>
-      <c r="H56" s="785"/>
-      <c r="I56" s="252"/>
-      <c r="J56" s="192"/>
-      <c r="K56" s="726" t="s">
+      <c r="C56" s="684"/>
+      <c r="D56" s="684"/>
+      <c r="E56" s="684"/>
+      <c r="F56" s="684"/>
+      <c r="G56" s="684"/>
+      <c r="H56" s="684"/>
+      <c r="I56" s="250"/>
+      <c r="J56" s="190"/>
+      <c r="K56" s="632" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="726"/>
-      <c r="M56" s="171"/>
-    </row>
-    <row r="57" spans="1:14" s="166" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="632"/>
+      <c r="M56" s="169"/>
+    </row>
+    <row r="57" spans="1:14" s="164" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
       <c r="B57" s="53"/>
-      <c r="C57" s="785"/>
-      <c r="D57" s="785"/>
-      <c r="E57" s="785"/>
-      <c r="F57" s="785"/>
-      <c r="G57" s="785"/>
-      <c r="H57" s="785"/>
-      <c r="I57" s="252"/>
-      <c r="J57" s="726"/>
-      <c r="K57" s="726"/>
-      <c r="L57" s="726"/>
-      <c r="M57" s="727"/>
+      <c r="C57" s="684"/>
+      <c r="D57" s="684"/>
+      <c r="E57" s="684"/>
+      <c r="F57" s="684"/>
+      <c r="G57" s="684"/>
+      <c r="H57" s="684"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="632"/>
+      <c r="K57" s="632"/>
+      <c r="L57" s="632"/>
+      <c r="M57" s="633"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="253"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="253"/>
-      <c r="G58" s="253"/>
-      <c r="H58" s="253"/>
-      <c r="I58" s="254"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="809"/>
-      <c r="L58" s="810"/>
-      <c r="M58" s="174"/>
-    </row>
-    <row r="59" spans="1:14" s="166" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="167"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="811"/>
-      <c r="L59" s="812"/>
-      <c r="M59" s="174"/>
+      <c r="A58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="251"/>
+      <c r="E58" s="251"/>
+      <c r="F58" s="251"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="251"/>
+      <c r="I58" s="252"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="708"/>
+      <c r="L58" s="709"/>
+      <c r="M58" s="172"/>
+    </row>
+    <row r="59" spans="1:14" s="164" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="165"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="166"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="710"/>
+      <c r="L59" s="711"/>
+      <c r="M59" s="172"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54"/>
-      <c r="B60" s="835" t="s">
+      <c r="B60" s="734" t="s">
         <v>398</v>
       </c>
-      <c r="C60" s="836"/>
-      <c r="D60" s="837"/>
+      <c r="C60" s="735"/>
+      <c r="D60" s="736"/>
       <c r="E60" s="55"/>
-      <c r="F60" s="826"/>
-      <c r="G60" s="827"/>
-      <c r="H60" s="827"/>
-      <c r="I60" s="828"/>
-      <c r="J60" s="173"/>
-      <c r="K60" s="811"/>
-      <c r="L60" s="812"/>
+      <c r="F60" s="725"/>
+      <c r="G60" s="726"/>
+      <c r="H60" s="726"/>
+      <c r="I60" s="727"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="710"/>
+      <c r="L60" s="711"/>
       <c r="M60" s="56"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="815" t="s">
+      <c r="B61" s="714" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="816"/>
+      <c r="C61" s="715"/>
       <c r="D61" s="114"/>
       <c r="E61" s="55"/>
-      <c r="F61" s="829"/>
-      <c r="G61" s="830"/>
-      <c r="H61" s="830"/>
-      <c r="I61" s="831"/>
-      <c r="J61" s="173"/>
-      <c r="K61" s="811"/>
-      <c r="L61" s="812"/>
+      <c r="F61" s="728"/>
+      <c r="G61" s="729"/>
+      <c r="H61" s="729"/>
+      <c r="I61" s="730"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="710"/>
+      <c r="L61" s="711"/>
       <c r="M61" s="56"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
-      <c r="B62" s="803" t="s">
+      <c r="B62" s="702" t="s">
         <v>388</v>
       </c>
-      <c r="C62" s="804"/>
-      <c r="D62" s="807"/>
+      <c r="C62" s="703"/>
+      <c r="D62" s="706"/>
       <c r="E62" s="55"/>
-      <c r="F62" s="832"/>
-      <c r="G62" s="833"/>
-      <c r="H62" s="833"/>
-      <c r="I62" s="834"/>
-      <c r="J62" s="173"/>
-      <c r="K62" s="811"/>
-      <c r="L62" s="812"/>
+      <c r="F62" s="731"/>
+      <c r="G62" s="732"/>
+      <c r="H62" s="732"/>
+      <c r="I62" s="733"/>
+      <c r="J62" s="171"/>
+      <c r="K62" s="710"/>
+      <c r="L62" s="711"/>
       <c r="M62" s="56"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54"/>
-      <c r="B63" s="817"/>
-      <c r="C63" s="818"/>
-      <c r="D63" s="838"/>
+      <c r="B63" s="716"/>
+      <c r="C63" s="717"/>
+      <c r="D63" s="737"/>
       <c r="E63" s="55"/>
-      <c r="F63" s="839" t="s">
+      <c r="F63" s="738" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="840"/>
-      <c r="H63" s="840"/>
-      <c r="I63" s="841"/>
-      <c r="J63" s="173"/>
-      <c r="K63" s="811"/>
-      <c r="L63" s="812"/>
+      <c r="G63" s="739"/>
+      <c r="H63" s="739"/>
+      <c r="I63" s="740"/>
+      <c r="J63" s="171"/>
+      <c r="K63" s="710"/>
+      <c r="L63" s="711"/>
       <c r="M63" s="56"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54"/>
-      <c r="B64" s="803" t="s">
+      <c r="B64" s="702" t="s">
         <v>387</v>
       </c>
-      <c r="C64" s="804"/>
-      <c r="D64" s="807"/>
+      <c r="C64" s="703"/>
+      <c r="D64" s="706"/>
       <c r="E64" s="55"/>
-      <c r="F64" s="819"/>
-      <c r="G64" s="820"/>
-      <c r="H64" s="820"/>
-      <c r="I64" s="821"/>
+      <c r="F64" s="718"/>
+      <c r="G64" s="719"/>
+      <c r="H64" s="719"/>
+      <c r="I64" s="720"/>
       <c r="J64" s="57"/>
-      <c r="K64" s="813"/>
-      <c r="L64" s="814"/>
+      <c r="K64" s="712"/>
+      <c r="L64" s="713"/>
       <c r="M64" s="56"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
-      <c r="B65" s="805"/>
-      <c r="C65" s="806"/>
-      <c r="D65" s="808"/>
+      <c r="B65" s="704"/>
+      <c r="C65" s="705"/>
+      <c r="D65" s="707"/>
       <c r="E65" s="55"/>
-      <c r="F65" s="800" t="s">
+      <c r="F65" s="699" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="801"/>
-      <c r="H65" s="801"/>
-      <c r="I65" s="802"/>
+      <c r="G65" s="700"/>
+      <c r="H65" s="700"/>
+      <c r="I65" s="701"/>
       <c r="J65" s="57"/>
-      <c r="K65" s="798" t="s">
+      <c r="K65" s="697" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="799"/>
+      <c r="L65" s="698"/>
       <c r="M65" s="56"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15647,32 +15522,32 @@
       <c r="M66" s="63"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="795" t="s">
+      <c r="A67" s="694" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="796"/>
-      <c r="C67" s="796"/>
-      <c r="D67" s="796"/>
-      <c r="E67" s="796"/>
-      <c r="F67" s="796"/>
-      <c r="G67" s="796"/>
-      <c r="H67" s="796"/>
-      <c r="I67" s="796"/>
-      <c r="J67" s="796"/>
-      <c r="K67" s="796"/>
-      <c r="L67" s="796"/>
-      <c r="M67" s="797"/>
+      <c r="B67" s="695"/>
+      <c r="C67" s="695"/>
+      <c r="D67" s="695"/>
+      <c r="E67" s="695"/>
+      <c r="F67" s="695"/>
+      <c r="G67" s="695"/>
+      <c r="H67" s="695"/>
+      <c r="I67" s="695"/>
+      <c r="J67" s="695"/>
+      <c r="K67" s="695"/>
+      <c r="L67" s="695"/>
+      <c r="M67" s="696"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54"/>
       <c r="B68" s="57"/>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
-      <c r="E68" s="792"/>
-      <c r="F68" s="793"/>
-      <c r="G68" s="793"/>
-      <c r="H68" s="793"/>
-      <c r="I68" s="794"/>
+      <c r="E68" s="691"/>
+      <c r="F68" s="692"/>
+      <c r="G68" s="692"/>
+      <c r="H68" s="692"/>
+      <c r="I68" s="693"/>
       <c r="J68" s="115"/>
       <c r="K68" s="115"/>
       <c r="L68" s="65"/>
@@ -15681,15 +15556,15 @@
     <row r="69" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54"/>
       <c r="B69" s="57"/>
-      <c r="C69" s="238"/>
-      <c r="D69" s="238"/>
-      <c r="E69" s="789" t="s">
+      <c r="C69" s="236"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="688" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="790"/>
-      <c r="G69" s="790"/>
-      <c r="H69" s="790"/>
-      <c r="I69" s="791"/>
+      <c r="F69" s="689"/>
+      <c r="G69" s="689"/>
+      <c r="H69" s="689"/>
+      <c r="I69" s="690"/>
       <c r="J69" s="117"/>
       <c r="K69" s="116"/>
       <c r="L69" s="66"/>
@@ -15711,21 +15586,21 @@
       <c r="M70" s="69"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="788" t="s">
+      <c r="A71" s="687" t="s">
         <v>380</v>
       </c>
-      <c r="B71" s="788"/>
-      <c r="C71" s="788"/>
-      <c r="D71" s="788"/>
-      <c r="E71" s="788"/>
-      <c r="F71" s="788"/>
-      <c r="G71" s="788"/>
-      <c r="H71" s="788"/>
-      <c r="I71" s="788"/>
-      <c r="J71" s="788"/>
-      <c r="K71" s="788"/>
-      <c r="L71" s="788"/>
-      <c r="M71" s="788"/>
+      <c r="B71" s="687"/>
+      <c r="C71" s="687"/>
+      <c r="D71" s="687"/>
+      <c r="E71" s="687"/>
+      <c r="F71" s="687"/>
+      <c r="G71" s="687"/>
+      <c r="H71" s="687"/>
+      <c r="I71" s="687"/>
+      <c r="J71" s="687"/>
+      <c r="K71" s="687"/>
+      <c r="L71" s="687"/>
+      <c r="M71" s="687"/>
     </row>
   </sheetData>
   <customSheetViews>
